--- a/A조 주간보고.xlsx
+++ b/A조 주간보고.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEOYUN\Desktop\JusungProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED14A44A-6FF2-4CA0-A582-208B76E1BED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28866F7F-BE9E-4413-8D4F-7B0BC88F1574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="303">
   <si>
     <t>1. System Config Save, Load 테스트 진행
 - 테스트 진행간 발생한 오류 수정
@@ -1105,15 +1105,6 @@
 질문 리스트 작성</t>
   </si>
   <si>
-    <t xml:space="preserve">최종 UI ppt 수정 및 
-메인코드 결합 </t>
-  </si>
-  <si>
-    <t>1. 최종UI ppt 메인코드 
-스레드 연결
-완료 예상일 : 10/15</t>
-  </si>
-  <si>
     <t>1. Result.csv 파일 Save, Load
 - CSV 저장 코드 작성
 - CSV 불러오기 코드 작성</t>
@@ -1165,6 +1156,19 @@
   </si>
   <si>
     <t>면접 연습 진행</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Main UI PPT 제작 (LPM, EFEM, Aligner, 웨이퍼 크기 수정)
+완료 예상일 : 10월 7일</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Main UI PPT 최종 제작 (LPM, EFEM, Aligner, TM , PM PPT 웨이퍼 최종 크기 수정 및 Main Code 결합)  </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Main UI PPT , WYS/WYG 최종  회의 후 수정 및 배치,  Main code thread 별 PPT 분할 및 연결      </t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -2903,65 +2907,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2981,28 +2943,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3011,37 +2982,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3050,103 +2997,349 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3161,7 +3354,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3174,12 +3370,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3212,326 +3402,38 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3575,100 +3477,109 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3686,40 +3597,124 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3731,26 +3726,35 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4050,74 +4054,74 @@
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="40"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="26"/>
     </row>
     <row r="4" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="43"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="29"/>
     </row>
     <row r="5" spans="1:33" ht="16.5" customHeight="1">
       <c r="B5" s="3" t="s">
@@ -4218,366 +4222,366 @@
       </c>
     </row>
     <row r="6" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="59" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="58" t="s">
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="59" t="s">
+      <c r="P6" s="36"/>
+      <c r="Q6" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="58" t="s">
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="W6" s="20"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="58" t="s">
+      <c r="W6" s="36"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="52"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="41"/>
     </row>
     <row r="7" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B7" s="26"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="53"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="42"/>
     </row>
     <row r="8" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="64"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="44"/>
     </row>
     <row r="9" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B9" s="26"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="53"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="42"/>
     </row>
     <row r="10" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="64"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="44"/>
     </row>
     <row r="11" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B11" s="26"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="53"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="42"/>
     </row>
     <row r="12" spans="1:33" ht="18" customHeight="1">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="64"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="44"/>
     </row>
     <row r="13" spans="1:33" ht="18" customHeight="1">
-      <c r="B13" s="26"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="53"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="42"/>
     </row>
     <row r="14" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="65"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="46"/>
     </row>
     <row r="15" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B15" s="27"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="63"/>
-      <c r="AF15" s="63"/>
-      <c r="AG15" s="66"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="47"/>
     </row>
     <row r="16" spans="1:33" ht="16.5" customHeight="1">
       <c r="A16" s="1"/>
@@ -4650,74 +4654,74 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="40"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="26"/>
     </row>
     <row r="19" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="42"/>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="43"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="29"/>
     </row>
     <row r="20" spans="1:33" ht="16.5" customHeight="1">
       <c r="B20" s="3" t="s">
@@ -4816,292 +4820,292 @@
       <c r="AG20" s="5"/>
     </row>
     <row r="21" spans="1:33" ht="17.25" customHeight="1">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="32" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="31" t="s">
         <v>73</v>
       </c>
       <c r="F21" s="33"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="32" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
       <c r="N21" s="33"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="32" t="s">
+      <c r="O21" s="20"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="31" t="s">
         <v>73</v>
       </c>
       <c r="T21" s="33"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="32" t="s">
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="31" t="s">
         <v>73</v>
       </c>
       <c r="AA21" s="33"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="52"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="41"/>
     </row>
     <row r="22" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B22" s="29"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="53"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="42"/>
     </row>
     <row r="23" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="52"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="41"/>
     </row>
     <row r="24" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B24" s="29"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="53"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="42"/>
     </row>
     <row r="25" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="52"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="41"/>
     </row>
     <row r="26" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="29"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="53"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="42"/>
     </row>
     <row r="27" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="46"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="34"/>
-      <c r="AG27" s="50"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="22"/>
     </row>
     <row r="28" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B28" s="49"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="62"/>
-      <c r="AD28" s="62"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="51"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="23"/>
     </row>
     <row r="29" spans="1:33" ht="16.5" customHeight="1">
       <c r="B29" s="1"/>
@@ -5172,74 +5176,74 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="40"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="26"/>
     </row>
     <row r="32" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="42"/>
-      <c r="AD32" s="42"/>
-      <c r="AE32" s="42"/>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="43"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="29"/>
     </row>
     <row r="33" spans="2:33" ht="16.5" customHeight="1">
       <c r="B33" s="3" t="s">
@@ -5340,300 +5344,300 @@
       </c>
     </row>
     <row r="34" spans="2:33" ht="17.25" customHeight="1">
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="31" t="s">
         <v>73</v>
       </c>
       <c r="D34" s="33"/>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="32" t="s">
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="31" t="s">
         <v>73</v>
       </c>
       <c r="K34" s="33"/>
-      <c r="L34" s="47" t="s">
+      <c r="L34" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="47" t="s">
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="32" t="s">
+      <c r="P34" s="18"/>
+      <c r="Q34" s="31" t="s">
         <v>73</v>
       </c>
       <c r="R34" s="33"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="32" t="s">
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="31" t="s">
         <v>73</v>
       </c>
       <c r="Y34" s="33"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="32" t="s">
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="31" t="s">
         <v>73</v>
       </c>
       <c r="AF34" s="33"/>
-      <c r="AG34" s="52"/>
+      <c r="AG34" s="41"/>
     </row>
     <row r="35" spans="2:33" ht="17.25" customHeight="1">
-      <c r="B35" s="29"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="35"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="35"/>
-      <c r="AD35" s="35"/>
-      <c r="AE35" s="21"/>
-      <c r="AF35" s="20"/>
-      <c r="AG35" s="53"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="40"/>
+      <c r="AD35" s="40"/>
+      <c r="AE35" s="34"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="42"/>
     </row>
     <row r="36" spans="2:33" ht="16.5" customHeight="1">
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="34"/>
-      <c r="AD36" s="34"/>
-      <c r="AE36" s="21"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="52"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="34"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="41"/>
     </row>
     <row r="37" spans="2:33" ht="16.5" customHeight="1">
-      <c r="B37" s="29"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="35"/>
-      <c r="AD37" s="35"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="53"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="40"/>
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="40"/>
+      <c r="AD37" s="40"/>
+      <c r="AE37" s="34"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="42"/>
     </row>
     <row r="38" spans="2:33" ht="30" customHeight="1">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="52"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="34"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="41"/>
     </row>
     <row r="39" spans="2:33" ht="30" customHeight="1">
-      <c r="B39" s="29"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="35"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="20"/>
-      <c r="AG39" s="53"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="40"/>
+      <c r="AC39" s="40"/>
+      <c r="AD39" s="40"/>
+      <c r="AE39" s="34"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="42"/>
     </row>
     <row r="40" spans="2:33" ht="16.5" customHeight="1">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="20"/>
-      <c r="AG40" s="50"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="18"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
+      <c r="AE40" s="34"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="22"/>
     </row>
     <row r="41" spans="2:33" ht="16.5" customHeight="1">
-      <c r="B41" s="49"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="24"/>
-      <c r="Z41" s="44"/>
-      <c r="AA41" s="44"/>
-      <c r="AB41" s="44"/>
-      <c r="AC41" s="44"/>
-      <c r="AD41" s="44"/>
-      <c r="AE41" s="22"/>
-      <c r="AF41" s="24"/>
-      <c r="AG41" s="51"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="23"/>
     </row>
     <row r="42" spans="2:33" ht="16.5" customHeight="1">
       <c r="B42" s="1"/>
@@ -13163,6 +13167,248 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="266">
+    <mergeCell ref="C6:I15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:F28"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B18:AG19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:K41"/>
+    <mergeCell ref="L34:L41"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="V40:V41"/>
+    <mergeCell ref="W40:W41"/>
+    <mergeCell ref="Z40:Z41"/>
+    <mergeCell ref="AA40:AA41"/>
+    <mergeCell ref="AB40:AB41"/>
+    <mergeCell ref="AC40:AC41"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="Z36:Z37"/>
+    <mergeCell ref="AA36:AA37"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="U40:U41"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:R41"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="O34:O41"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:D41"/>
+    <mergeCell ref="E34:E41"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AG40:AG41"/>
+    <mergeCell ref="AD34:AD35"/>
+    <mergeCell ref="AE34:AF41"/>
+    <mergeCell ref="AG34:AG35"/>
+    <mergeCell ref="AD36:AD37"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="AD40:AD41"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="X34:Y41"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="AC34:AC35"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="AB36:AB37"/>
+    <mergeCell ref="AC36:AC37"/>
+    <mergeCell ref="V38:V39"/>
+    <mergeCell ref="AG38:AG39"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="Z38:Z39"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:P15"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="Q6:Q15"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:W15"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AD15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="B3:AG4"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K15"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="AF14:AF15"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AF10:AF11"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="AG21:AG22"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AF23:AF24"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="AE21:AE22"/>
+    <mergeCell ref="AF21:AF22"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AD25:AD26"/>
+    <mergeCell ref="AE25:AE26"/>
+    <mergeCell ref="AF25:AF26"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
     <mergeCell ref="AB27:AB28"/>
     <mergeCell ref="AC27:AC28"/>
     <mergeCell ref="AD27:AD28"/>
@@ -13187,248 +13433,6 @@
     <mergeCell ref="O25:O26"/>
     <mergeCell ref="P25:P26"/>
     <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="AE25:AE26"/>
-    <mergeCell ref="AF25:AF26"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AF23:AF24"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="AE21:AE22"/>
-    <mergeCell ref="AF21:AF22"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="AG21:AG22"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AG10:AG11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AD15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="B3:AG4"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K15"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="AF14:AF15"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="AF10:AF11"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:P15"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="Q6:Q15"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:W15"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="AG38:AG39"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="AB38:AB39"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="Z38:Z39"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AG40:AG41"/>
-    <mergeCell ref="AD34:AD35"/>
-    <mergeCell ref="AE34:AF41"/>
-    <mergeCell ref="AG34:AG35"/>
-    <mergeCell ref="AD36:AD37"/>
-    <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="AD38:AD39"/>
-    <mergeCell ref="AD40:AD41"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="X34:Y41"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="AC34:AC35"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="AB36:AB37"/>
-    <mergeCell ref="AC36:AC37"/>
-    <mergeCell ref="V38:V39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:D41"/>
-    <mergeCell ref="E34:E41"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="U40:U41"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:R41"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="O34:O41"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="V40:V41"/>
-    <mergeCell ref="W40:W41"/>
-    <mergeCell ref="Z40:Z41"/>
-    <mergeCell ref="AA40:AA41"/>
-    <mergeCell ref="AB40:AB41"/>
-    <mergeCell ref="AC40:AC41"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="Z36:Z37"/>
-    <mergeCell ref="AA36:AA37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:K41"/>
-    <mergeCell ref="L34:L41"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="C6:I15"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:F28"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B18:AG19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S6:S7"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0" footer="0"/>
@@ -13466,140 +13470,140 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1">
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="180" t="s">
+      <c r="D2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="142"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
-      <c r="C3" s="89"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="76"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="1:26" ht="30" customHeight="1">
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="181" t="s">
+      <c r="D4" s="82"/>
+      <c r="E4" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="178" t="s">
+      <c r="F4" s="84"/>
+      <c r="G4" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="178" t="s">
+      <c r="H4" s="84"/>
+      <c r="I4" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="146"/>
-      <c r="K4" s="178" t="s">
+      <c r="J4" s="84"/>
+      <c r="K4" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="147"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="104" t="s">
         <v>200</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="179" t="s">
+      <c r="E5" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="174"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="72"/>
     </row>
     <row r="6" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C6" s="89"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="74"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="102"/>
     </row>
     <row r="7" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="96" t="s">
         <v>204</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="172" t="s">
+      <c r="E7" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="74"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="102"/>
     </row>
     <row r="8" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C8" s="89"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="173"/>
-      <c r="L8" s="174"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="72"/>
     </row>
     <row r="9" spans="1:26" ht="34.5" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="96" t="s">
         <v>199</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="175" t="s">
+      <c r="E9" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="74"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="102"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -13616,92 +13620,92 @@
       <c r="Z9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C10" s="89"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="176" t="s">
+      <c r="E10" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="124"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="86"/>
     </row>
     <row r="11" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="96" t="s">
         <v>209</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="177" t="s">
+      <c r="E11" s="113" t="s">
         <v>284</v>
       </c>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="166" t="s">
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="168"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="107"/>
     </row>
     <row r="12" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C12" s="89"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="166" t="s">
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="92" t="s">
         <v>267</v>
       </c>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="168"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="107"/>
     </row>
     <row r="13" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="96" t="s">
         <v>228</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="177" t="s">
+      <c r="E13" s="113" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="166" t="s">
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="168"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107"/>
     </row>
     <row r="14" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C14" s="78"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="169" t="s">
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="171"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="110"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="D15" s="2"/>
@@ -13715,106 +13719,106 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="24.75" customHeight="1">
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="142"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="77"/>
     </row>
     <row r="17" spans="1:26" ht="24.75" customHeight="1">
-      <c r="C17" s="78"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="81"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="123"/>
     </row>
     <row r="18" spans="1:26" ht="30" customHeight="1">
-      <c r="C18" s="164" t="s">
+      <c r="C18" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="165"/>
-      <c r="E18" s="188" t="s">
+      <c r="D18" s="127"/>
+      <c r="E18" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="162"/>
-      <c r="G18" s="161" t="s">
+      <c r="F18" s="99"/>
+      <c r="G18" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="162"/>
-      <c r="I18" s="161" t="s">
+      <c r="H18" s="99"/>
+      <c r="I18" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="162"/>
-      <c r="K18" s="161" t="s">
+      <c r="J18" s="99"/>
+      <c r="K18" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="L18" s="163"/>
+      <c r="L18" s="125"/>
     </row>
     <row r="19" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="104" t="s">
         <v>223</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="172" t="s">
+      <c r="E19" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="74"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="102"/>
     </row>
     <row r="20" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C20" s="89"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="76"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="80"/>
     </row>
     <row r="21" spans="1:26" ht="34.5" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="96" t="s">
         <v>191</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="189" t="s">
+      <c r="E21" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="124"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="86"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -13831,140 +13835,140 @@
       <c r="Z21" s="10"/>
     </row>
     <row r="22" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C22" s="89"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="122" t="s">
+      <c r="E22" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="124"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="86"/>
     </row>
     <row r="23" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="96" t="s">
         <v>197</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="122" t="s">
+      <c r="E23" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="124"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="86"/>
     </row>
     <row r="24" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C24" s="89"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="187" t="s">
+      <c r="E24" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160" t="s">
+      <c r="F24" s="93"/>
+      <c r="G24" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160" t="s">
+      <c r="H24" s="93"/>
+      <c r="I24" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="160"/>
-      <c r="K24" s="185" t="s">
+      <c r="J24" s="93"/>
+      <c r="K24" s="94" t="s">
         <v>187</v>
       </c>
-      <c r="L24" s="186"/>
+      <c r="L24" s="95"/>
     </row>
     <row r="25" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="96" t="s">
         <v>196</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="183" t="s">
+      <c r="E25" s="89" t="s">
         <v>282</v>
       </c>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="76"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="80"/>
     </row>
     <row r="26" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C26" s="89"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="184" t="s">
+      <c r="E26" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="97"/>
-      <c r="G26" s="166" t="s">
+      <c r="F26" s="91"/>
+      <c r="G26" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="H26" s="97"/>
-      <c r="I26" s="166" t="s">
+      <c r="H26" s="91"/>
+      <c r="I26" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="J26" s="97"/>
-      <c r="K26" s="182" t="s">
+      <c r="J26" s="91"/>
+      <c r="K26" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="L26" s="124"/>
+      <c r="L26" s="86"/>
     </row>
     <row r="27" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="96" t="s">
         <v>194</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="90" t="s">
+      <c r="E27" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="91"/>
-      <c r="G27" s="94" t="s">
+      <c r="F27" s="114"/>
+      <c r="G27" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="91"/>
-      <c r="I27" s="94" t="s">
+      <c r="H27" s="114"/>
+      <c r="I27" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="J27" s="91"/>
-      <c r="K27" s="73" t="s">
+      <c r="J27" s="114"/>
+      <c r="K27" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="L27" s="150"/>
+      <c r="L27" s="139"/>
     </row>
     <row r="28" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C28" s="78"/>
+      <c r="C28" s="116"/>
       <c r="D28" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="158"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="151" t="s">
+      <c r="E28" s="119"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="152"/>
+      <c r="L28" s="141"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1">
       <c r="D29" s="2"/>
@@ -13978,257 +13982,257 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="24.75" customHeight="1">
-      <c r="C30" s="129" t="s">
+      <c r="C30" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="104" t="s">
+      <c r="D30" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="142"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="24.75" customHeight="1">
-      <c r="C31" s="89"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="144"/>
-      <c r="L31" s="145"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="130"/>
     </row>
     <row r="32" spans="1:26" ht="30" customHeight="1">
-      <c r="C32" s="130" t="s">
+      <c r="C32" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="148"/>
+      <c r="D32" s="82"/>
       <c r="E32" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="146"/>
-      <c r="G32" s="109" t="s">
+      <c r="F32" s="84"/>
+      <c r="G32" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="146"/>
-      <c r="I32" s="109" t="s">
+      <c r="H32" s="84"/>
+      <c r="I32" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="J32" s="146"/>
-      <c r="K32" s="109" t="s">
+      <c r="J32" s="84"/>
+      <c r="K32" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="L32" s="147"/>
+      <c r="L32" s="69"/>
     </row>
     <row r="33" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C33" s="133" t="s">
+      <c r="C33" s="104" t="s">
         <v>195</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="153" t="s">
+      <c r="E33" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="F33" s="154"/>
-      <c r="G33" s="155" t="s">
+      <c r="F33" s="143"/>
+      <c r="G33" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="H33" s="155"/>
-      <c r="I33" s="155" t="s">
+      <c r="H33" s="144"/>
+      <c r="I33" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="J33" s="155"/>
-      <c r="K33" s="156" t="s">
+      <c r="J33" s="144"/>
+      <c r="K33" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="L33" s="157"/>
+      <c r="L33" s="146"/>
     </row>
     <row r="34" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C34" s="89"/>
+      <c r="C34" s="74"/>
       <c r="D34" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="149" t="s">
+      <c r="E34" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="135"/>
-      <c r="G34" s="138" t="s">
+      <c r="F34" s="134"/>
+      <c r="G34" s="135" t="s">
         <v>88</v>
       </c>
       <c r="H34" s="136"/>
-      <c r="I34" s="138" t="s">
+      <c r="I34" s="135" t="s">
         <v>88</v>
       </c>
       <c r="J34" s="136"/>
-      <c r="K34" s="138" t="s">
+      <c r="K34" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="L34" s="139"/>
+      <c r="L34" s="137"/>
     </row>
     <row r="35" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C35" s="77" t="s">
+      <c r="C35" s="96" t="s">
         <v>214</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="122" t="s">
+      <c r="E35" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="124"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="86"/>
     </row>
     <row r="36" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C36" s="89"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="122" t="s">
+      <c r="E36" s="87" t="s">
         <v>265</v>
       </c>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="123"/>
-      <c r="L36" s="124"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="86"/>
     </row>
     <row r="37" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C37" s="77" t="s">
+      <c r="C37" s="96" t="s">
         <v>232</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="122" t="s">
+      <c r="E37" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="124"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="86"/>
     </row>
     <row r="38" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C38" s="89"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="134" t="s">
+      <c r="E38" s="159" t="s">
         <v>139</v>
       </c>
-      <c r="F38" s="135"/>
+      <c r="F38" s="134"/>
       <c r="G38" s="136" t="s">
         <v>139</v>
       </c>
       <c r="H38" s="136"/>
-      <c r="I38" s="137" t="s">
+      <c r="I38" s="160" t="s">
         <v>184</v>
       </c>
-      <c r="J38" s="135"/>
-      <c r="K38" s="138" t="s">
+      <c r="J38" s="134"/>
+      <c r="K38" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="L38" s="139"/>
+      <c r="L38" s="137"/>
     </row>
     <row r="39" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C39" s="77" t="s">
+      <c r="C39" s="96" t="s">
         <v>231</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="90" t="s">
+      <c r="E39" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="F39" s="91"/>
-      <c r="G39" s="94" t="s">
+      <c r="F39" s="114"/>
+      <c r="G39" s="120" t="s">
         <v>139</v>
       </c>
-      <c r="H39" s="95"/>
-      <c r="I39" s="73" t="s">
+      <c r="H39" s="101"/>
+      <c r="I39" s="138" t="s">
         <v>176</v>
       </c>
-      <c r="J39" s="91"/>
-      <c r="K39" s="73" t="s">
+      <c r="J39" s="114"/>
+      <c r="K39" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="L39" s="74"/>
+      <c r="L39" s="102"/>
     </row>
     <row r="40" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C40" s="89"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="92"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="76"/>
+      <c r="E40" s="189"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="80"/>
     </row>
     <row r="41" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C41" s="77" t="s">
+      <c r="C41" s="96" t="s">
         <v>230</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="127" t="s">
+      <c r="E41" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="97"/>
-      <c r="G41" s="82" t="s">
+      <c r="F41" s="91"/>
+      <c r="G41" s="168" t="s">
         <v>87</v>
       </c>
-      <c r="H41" s="97"/>
-      <c r="I41" s="68" t="s">
+      <c r="H41" s="91"/>
+      <c r="I41" s="183" t="s">
         <v>153</v>
       </c>
-      <c r="J41" s="97"/>
-      <c r="K41" s="79" t="s">
+      <c r="J41" s="91"/>
+      <c r="K41" s="187" t="s">
         <v>55</v>
       </c>
-      <c r="L41" s="74"/>
+      <c r="L41" s="102"/>
     </row>
     <row r="42" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C42" s="78"/>
+      <c r="C42" s="116"/>
       <c r="D42" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="128" t="s">
+      <c r="E42" s="154" t="s">
         <v>76</v>
       </c>
-      <c r="F42" s="71"/>
-      <c r="G42" s="70" t="s">
+      <c r="F42" s="155"/>
+      <c r="G42" s="184" t="s">
         <v>76</v>
       </c>
-      <c r="H42" s="71"/>
-      <c r="I42" s="72" t="s">
+      <c r="H42" s="155"/>
+      <c r="I42" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="J42" s="71"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="81"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="121"/>
+      <c r="L42" s="123"/>
     </row>
     <row r="43" spans="3:12" ht="16.5" customHeight="1">
       <c r="D43" s="2"/>
@@ -14242,256 +14246,256 @@
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="3:12" ht="24.75" customHeight="1">
-      <c r="C44" s="129" t="s">
+      <c r="C44" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="104" t="s">
+      <c r="D44" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="106"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="169"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="169"/>
+      <c r="L44" s="170"/>
     </row>
     <row r="45" spans="3:12" ht="24.75" customHeight="1">
-      <c r="C45" s="87"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="108"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="171"/>
+      <c r="F45" s="171"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="171"/>
+      <c r="I45" s="171"/>
+      <c r="J45" s="171"/>
+      <c r="K45" s="171"/>
+      <c r="L45" s="172"/>
     </row>
     <row r="46" spans="3:12" ht="30" customHeight="1">
-      <c r="C46" s="130" t="s">
+      <c r="C46" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="131"/>
+      <c r="D46" s="157"/>
       <c r="E46" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="F46" s="110"/>
-      <c r="G46" s="109" t="s">
+      <c r="F46" s="158"/>
+      <c r="G46" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="H46" s="110"/>
-      <c r="I46" s="109" t="s">
+      <c r="H46" s="158"/>
+      <c r="I46" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="J46" s="110"/>
-      <c r="K46" s="109" t="s">
+      <c r="J46" s="158"/>
+      <c r="K46" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="L46" s="111"/>
+      <c r="L46" s="173"/>
     </row>
     <row r="47" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C47" s="133" t="s">
+      <c r="C47" s="104" t="s">
         <v>201</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="125" t="s">
+      <c r="E47" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="F47" s="126"/>
-      <c r="G47" s="112" t="s">
+      <c r="F47" s="148"/>
+      <c r="G47" s="174" t="s">
         <v>161</v>
       </c>
-      <c r="H47" s="113"/>
-      <c r="I47" s="114" t="s">
+      <c r="H47" s="175"/>
+      <c r="I47" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="J47" s="113"/>
-      <c r="K47" s="115" t="s">
+      <c r="J47" s="175"/>
+      <c r="K47" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="L47" s="116"/>
+      <c r="L47" s="178"/>
     </row>
     <row r="48" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C48" s="87"/>
+      <c r="C48" s="156"/>
       <c r="D48" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="99"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="82" t="s">
+      <c r="E48" s="149"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="168" t="s">
         <v>111</v>
       </c>
-      <c r="H48" s="69"/>
-      <c r="I48" s="68" t="s">
+      <c r="H48" s="152"/>
+      <c r="I48" s="183" t="s">
         <v>116</v>
       </c>
-      <c r="J48" s="69"/>
-      <c r="K48" s="117"/>
-      <c r="L48" s="118"/>
+      <c r="J48" s="152"/>
+      <c r="K48" s="179"/>
+      <c r="L48" s="180"/>
     </row>
     <row r="49" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C49" s="77" t="s">
+      <c r="C49" s="96" t="s">
         <v>215</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="88" t="s">
+      <c r="E49" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="F49" s="69"/>
-      <c r="G49" s="82" t="s">
+      <c r="F49" s="152"/>
+      <c r="G49" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="69"/>
-      <c r="I49" s="83" t="s">
+      <c r="H49" s="152"/>
+      <c r="I49" s="188" t="s">
         <v>275</v>
       </c>
-      <c r="J49" s="84"/>
-      <c r="K49" s="117"/>
-      <c r="L49" s="118"/>
+      <c r="J49" s="162"/>
+      <c r="K49" s="179"/>
+      <c r="L49" s="180"/>
     </row>
     <row r="50" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C50" s="87"/>
+      <c r="C50" s="156"/>
       <c r="D50" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="88" t="s">
+      <c r="E50" s="151" t="s">
         <v>286</v>
       </c>
-      <c r="F50" s="69"/>
-      <c r="G50" s="82" t="s">
+      <c r="F50" s="152"/>
+      <c r="G50" s="168" t="s">
         <v>262</v>
       </c>
-      <c r="H50" s="69"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="117"/>
-      <c r="L50" s="118"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="167"/>
+      <c r="J50" s="150"/>
+      <c r="K50" s="179"/>
+      <c r="L50" s="180"/>
     </row>
     <row r="51" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C51" s="77" t="s">
+      <c r="C51" s="96" t="s">
         <v>213</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="88" t="s">
+      <c r="E51" s="151" t="s">
         <v>183</v>
       </c>
-      <c r="F51" s="69"/>
-      <c r="G51" s="82" t="s">
+      <c r="F51" s="152"/>
+      <c r="G51" s="168" t="s">
         <v>183</v>
       </c>
-      <c r="H51" s="69"/>
-      <c r="I51" s="68" t="s">
+      <c r="H51" s="152"/>
+      <c r="I51" s="183" t="s">
         <v>138</v>
       </c>
-      <c r="J51" s="69"/>
-      <c r="K51" s="117"/>
-      <c r="L51" s="118"/>
+      <c r="J51" s="152"/>
+      <c r="K51" s="179"/>
+      <c r="L51" s="180"/>
     </row>
     <row r="52" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C52" s="121"/>
+      <c r="C52" s="186"/>
       <c r="D52" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="88" t="s">
+      <c r="E52" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="F52" s="69"/>
-      <c r="G52" s="88" t="s">
+      <c r="F52" s="152"/>
+      <c r="G52" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="H52" s="69"/>
-      <c r="I52" s="68" t="s">
+      <c r="H52" s="152"/>
+      <c r="I52" s="183" t="s">
         <v>102</v>
       </c>
-      <c r="J52" s="69"/>
-      <c r="K52" s="117"/>
-      <c r="L52" s="118"/>
+      <c r="J52" s="152"/>
+      <c r="K52" s="179"/>
+      <c r="L52" s="180"/>
     </row>
     <row r="53" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C53" s="77" t="s">
+      <c r="C53" s="96" t="s">
         <v>206</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="98" t="s">
+      <c r="E53" s="161" t="s">
         <v>229</v>
       </c>
-      <c r="F53" s="84"/>
-      <c r="G53" s="103" t="s">
+      <c r="F53" s="162"/>
+      <c r="G53" s="166" t="s">
         <v>229</v>
       </c>
-      <c r="H53" s="84"/>
-      <c r="I53" s="103" t="s">
+      <c r="H53" s="162"/>
+      <c r="I53" s="166" t="s">
         <v>113</v>
       </c>
-      <c r="J53" s="84"/>
-      <c r="K53" s="117"/>
-      <c r="L53" s="118"/>
+      <c r="J53" s="162"/>
+      <c r="K53" s="179"/>
+      <c r="L53" s="180"/>
     </row>
     <row r="54" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C54" s="87"/>
+      <c r="C54" s="156"/>
       <c r="D54" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="99"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="86"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="86"/>
-      <c r="K54" s="117"/>
-      <c r="L54" s="118"/>
+      <c r="E54" s="149"/>
+      <c r="F54" s="150"/>
+      <c r="G54" s="167"/>
+      <c r="H54" s="150"/>
+      <c r="I54" s="167"/>
+      <c r="J54" s="150"/>
+      <c r="K54" s="179"/>
+      <c r="L54" s="180"/>
     </row>
     <row r="55" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C55" s="77" t="s">
+      <c r="C55" s="96" t="s">
         <v>202</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="88" t="s">
+      <c r="E55" s="151" t="s">
         <v>171</v>
       </c>
-      <c r="F55" s="69"/>
-      <c r="G55" s="82" t="s">
+      <c r="F55" s="152"/>
+      <c r="G55" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="H55" s="69"/>
-      <c r="I55" s="68" t="s">
+      <c r="H55" s="152"/>
+      <c r="I55" s="183" t="s">
         <v>154</v>
       </c>
-      <c r="J55" s="69"/>
-      <c r="K55" s="117"/>
-      <c r="L55" s="118"/>
+      <c r="J55" s="152"/>
+      <c r="K55" s="179"/>
+      <c r="L55" s="180"/>
     </row>
     <row r="56" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C56" s="100"/>
+      <c r="C56" s="163"/>
       <c r="D56" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E56" s="101" t="s">
+      <c r="E56" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="F56" s="102"/>
-      <c r="G56" s="70" t="s">
+      <c r="F56" s="165"/>
+      <c r="G56" s="184" t="s">
         <v>47</v>
       </c>
-      <c r="H56" s="102"/>
-      <c r="I56" s="72" t="s">
+      <c r="H56" s="165"/>
+      <c r="I56" s="185" t="s">
         <v>154</v>
       </c>
-      <c r="J56" s="102"/>
-      <c r="K56" s="119"/>
-      <c r="L56" s="120"/>
+      <c r="J56" s="165"/>
+      <c r="K56" s="181"/>
+      <c r="L56" s="182"/>
     </row>
     <row r="57" spans="3:12" ht="16.5" customHeight="1">
       <c r="D57" s="2"/>
@@ -17439,6 +17443,111 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="129">
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K39:L40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="K41:L42"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="G39:H40"/>
+    <mergeCell ref="I39:J40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:F54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G53:H54"/>
+    <mergeCell ref="I53:J54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="D44:L45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L56"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:L37"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:L35"/>
+    <mergeCell ref="E36:L36"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="D30:L31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="G27:H28"/>
+    <mergeCell ref="D16:L17"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E7:L8"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="E11:H12"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:H14"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="E5:L5"/>
     <mergeCell ref="C2:C3"/>
@@ -17463,111 +17572,6 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="I26:J26"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E7:L8"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="E11:H12"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="D16:L17"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:L35"/>
-    <mergeCell ref="E36:L36"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="D30:L31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:L37"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:F54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G53:H54"/>
-    <mergeCell ref="I53:J54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="D44:L45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L56"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K39:L40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="G39:H40"/>
-    <mergeCell ref="I39:J40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0" footer="0"/>
@@ -17652,20 +17656,20 @@
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="222" t="s">
+      <c r="C3" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="192" t="s">
+      <c r="D3" s="215" t="s">
         <v>283</v>
       </c>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="194"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="217"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -17684,16 +17688,16 @@
     <row r="4" spans="1:26" ht="16.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="196"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="219"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -17712,26 +17716,26 @@
     <row r="5" spans="1:26" ht="30" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="223" t="s">
+      <c r="C5" s="220" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="224"/>
-      <c r="E5" s="197" t="s">
+      <c r="D5" s="221"/>
+      <c r="E5" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="199" t="s">
+      <c r="F5" s="223"/>
+      <c r="G5" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="198"/>
-      <c r="I5" s="199" t="s">
+      <c r="H5" s="223"/>
+      <c r="I5" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="198"/>
-      <c r="K5" s="199" t="s">
+      <c r="J5" s="223"/>
+      <c r="K5" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="202"/>
+      <c r="L5" s="224"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -17750,28 +17754,28 @@
     <row r="6" spans="1:26" ht="34.5" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="227" t="s">
+      <c r="C6" s="210" t="s">
         <v>211</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="200" t="s">
+      <c r="E6" s="190" t="s">
         <v>272</v>
       </c>
       <c r="F6" s="191"/>
-      <c r="G6" s="190" t="s">
+      <c r="G6" s="192" t="s">
         <v>272</v>
       </c>
       <c r="H6" s="191"/>
-      <c r="I6" s="190" t="s">
+      <c r="I6" s="192" t="s">
         <v>272</v>
       </c>
       <c r="J6" s="191"/>
-      <c r="K6" s="190" t="s">
+      <c r="K6" s="192" t="s">
         <v>272</v>
       </c>
-      <c r="L6" s="201"/>
+      <c r="L6" s="193"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -17790,26 +17794,26 @@
     <row r="7" spans="1:26" ht="30" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="220"/>
+      <c r="C7" s="211"/>
       <c r="D7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="200" t="s">
+      <c r="E7" s="190" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="191"/>
-      <c r="G7" s="190" t="s">
+      <c r="G7" s="192" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="191"/>
-      <c r="I7" s="190" t="s">
+      <c r="I7" s="192" t="s">
         <v>46</v>
       </c>
       <c r="J7" s="191"/>
-      <c r="K7" s="190" t="s">
+      <c r="K7" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="201"/>
+      <c r="L7" s="193"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -17828,28 +17832,28 @@
     <row r="8" spans="1:26" ht="34.5" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="226" t="s">
+      <c r="C8" s="212" t="s">
         <v>243</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="200" t="s">
+      <c r="E8" s="190" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="191"/>
-      <c r="G8" s="190" t="s">
+      <c r="G8" s="192" t="s">
         <v>41</v>
       </c>
       <c r="H8" s="191"/>
-      <c r="I8" s="190" t="s">
+      <c r="I8" s="192" t="s">
         <v>41</v>
       </c>
       <c r="J8" s="191"/>
-      <c r="K8" s="190" t="s">
+      <c r="K8" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="201"/>
+      <c r="L8" s="193"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -17868,26 +17872,26 @@
     <row r="9" spans="1:26" ht="34.5" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="220"/>
+      <c r="C9" s="211"/>
       <c r="D9" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="200" t="s">
+      <c r="E9" s="190" t="s">
         <v>150</v>
       </c>
       <c r="F9" s="191"/>
-      <c r="G9" s="190" t="s">
+      <c r="G9" s="192" t="s">
         <v>96</v>
       </c>
       <c r="H9" s="191"/>
-      <c r="I9" s="190" t="s">
+      <c r="I9" s="192" t="s">
         <v>46</v>
       </c>
       <c r="J9" s="191"/>
-      <c r="K9" s="190" t="s">
+      <c r="K9" s="192" t="s">
         <v>285</v>
       </c>
-      <c r="L9" s="201"/>
+      <c r="L9" s="193"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -17906,28 +17910,28 @@
     <row r="10" spans="1:26" ht="34.5" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="212" t="s">
         <v>257</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="200" t="s">
+      <c r="E10" s="190" t="s">
         <v>264</v>
       </c>
       <c r="F10" s="191"/>
-      <c r="G10" s="190" t="s">
+      <c r="G10" s="192" t="s">
         <v>264</v>
       </c>
       <c r="H10" s="191"/>
-      <c r="I10" s="190" t="s">
+      <c r="I10" s="192" t="s">
         <v>114</v>
       </c>
       <c r="J10" s="191"/>
-      <c r="K10" s="190" t="s">
+      <c r="K10" s="192" t="s">
         <v>164</v>
       </c>
-      <c r="L10" s="201"/>
+      <c r="L10" s="193"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -17946,26 +17950,26 @@
     <row r="11" spans="1:26" ht="69" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="221"/>
+      <c r="C11" s="213"/>
       <c r="D11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="190" t="s">
+      <c r="E11" s="192" t="s">
         <v>160</v>
       </c>
       <c r="F11" s="191"/>
-      <c r="G11" s="190" t="s">
+      <c r="G11" s="192" t="s">
         <v>160</v>
       </c>
       <c r="H11" s="191"/>
-      <c r="I11" s="190" t="s">
+      <c r="I11" s="192" t="s">
         <v>114</v>
       </c>
       <c r="J11" s="191"/>
-      <c r="K11" s="190" t="s">
+      <c r="K11" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="201"/>
+      <c r="L11" s="193"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -17984,22 +17988,22 @@
     <row r="12" spans="1:26" ht="30" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="219" t="s">
+      <c r="C12" s="230" t="s">
         <v>216</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="209" t="s">
+      <c r="E12" s="232" t="s">
         <v>193</v>
       </c>
-      <c r="F12" s="210"/>
-      <c r="G12" s="210"/>
-      <c r="H12" s="210"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="210"/>
-      <c r="K12" s="210"/>
-      <c r="L12" s="211"/>
+      <c r="F12" s="233"/>
+      <c r="G12" s="233"/>
+      <c r="H12" s="233"/>
+      <c r="I12" s="233"/>
+      <c r="J12" s="233"/>
+      <c r="K12" s="233"/>
+      <c r="L12" s="234"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -18018,18 +18022,18 @@
     <row r="13" spans="1:26" ht="30" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="220"/>
+      <c r="C13" s="211"/>
       <c r="D13" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="212"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="213"/>
+      <c r="E13" s="235"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="236"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -18048,20 +18052,20 @@
     <row r="14" spans="1:26" ht="30" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="219" t="s">
+      <c r="C14" s="230" t="s">
         <v>208</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="212"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="213"/>
+      <c r="E14" s="235"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="236"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
@@ -18080,18 +18084,18 @@
     <row r="15" spans="1:26" ht="30" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="221"/>
+      <c r="C15" s="213"/>
       <c r="D15" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="214"/>
-      <c r="F15" s="215"/>
-      <c r="G15" s="215"/>
-      <c r="H15" s="215"/>
-      <c r="I15" s="215"/>
-      <c r="J15" s="215"/>
-      <c r="K15" s="215"/>
-      <c r="L15" s="216"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="238"/>
+      <c r="G15" s="238"/>
+      <c r="H15" s="238"/>
+      <c r="I15" s="238"/>
+      <c r="J15" s="238"/>
+      <c r="K15" s="238"/>
+      <c r="L15" s="239"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -18138,20 +18142,20 @@
     <row r="17" spans="1:26" ht="16.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="222" t="s">
+      <c r="C17" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="192" t="s">
+      <c r="D17" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="193"/>
-      <c r="L17" s="194"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="216"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="216"/>
+      <c r="K17" s="216"/>
+      <c r="L17" s="217"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -18170,16 +18174,16 @@
     <row r="18" spans="1:26" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="220"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="196"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="219"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -18198,26 +18202,26 @@
     <row r="19" spans="1:26" ht="30" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="223" t="s">
+      <c r="C19" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="224"/>
-      <c r="E19" s="197" t="s">
+      <c r="D19" s="221"/>
+      <c r="E19" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="198"/>
-      <c r="G19" s="199" t="s">
+      <c r="F19" s="223"/>
+      <c r="G19" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="198"/>
-      <c r="I19" s="199" t="s">
+      <c r="H19" s="223"/>
+      <c r="I19" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="198"/>
-      <c r="K19" s="199" t="s">
+      <c r="J19" s="223"/>
+      <c r="K19" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="202"/>
+      <c r="L19" s="224"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -18236,22 +18240,22 @@
     <row r="20" spans="1:26" ht="30" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="225" t="s">
+      <c r="C20" s="231" t="s">
         <v>226</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="209" t="s">
+      <c r="E20" s="232" t="s">
         <v>193</v>
       </c>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="210"/>
-      <c r="K20" s="210"/>
-      <c r="L20" s="211"/>
+      <c r="F20" s="233"/>
+      <c r="G20" s="233"/>
+      <c r="H20" s="233"/>
+      <c r="I20" s="233"/>
+      <c r="J20" s="233"/>
+      <c r="K20" s="233"/>
+      <c r="L20" s="234"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -18270,18 +18274,18 @@
     <row r="21" spans="1:26" ht="30" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="220"/>
+      <c r="C21" s="211"/>
       <c r="D21" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="214"/>
-      <c r="F21" s="215"/>
-      <c r="G21" s="215"/>
-      <c r="H21" s="215"/>
-      <c r="I21" s="215"/>
-      <c r="J21" s="215"/>
-      <c r="K21" s="215"/>
-      <c r="L21" s="216"/>
+      <c r="E21" s="237"/>
+      <c r="F21" s="238"/>
+      <c r="G21" s="238"/>
+      <c r="H21" s="238"/>
+      <c r="I21" s="238"/>
+      <c r="J21" s="238"/>
+      <c r="K21" s="238"/>
+      <c r="L21" s="239"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -18300,28 +18304,28 @@
     <row r="22" spans="1:26" ht="34.5" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="226" t="s">
+      <c r="C22" s="212" t="s">
         <v>221</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="200" t="s">
+      <c r="E22" s="190" t="s">
         <v>112</v>
       </c>
       <c r="F22" s="191"/>
-      <c r="G22" s="190" t="s">
+      <c r="G22" s="192" t="s">
         <v>136</v>
       </c>
       <c r="H22" s="191"/>
-      <c r="I22" s="190" t="s">
+      <c r="I22" s="192" t="s">
         <v>132</v>
       </c>
       <c r="J22" s="191"/>
-      <c r="K22" s="217" t="s">
+      <c r="K22" s="240" t="s">
         <v>132</v>
       </c>
-      <c r="L22" s="218"/>
+      <c r="L22" s="241"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
@@ -18340,26 +18344,26 @@
     <row r="23" spans="1:26" ht="34.5" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="220"/>
+      <c r="C23" s="211"/>
       <c r="D23" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="200" t="s">
+      <c r="E23" s="190" t="s">
         <v>141</v>
       </c>
       <c r="F23" s="191"/>
-      <c r="G23" s="190" t="s">
+      <c r="G23" s="192" t="s">
         <v>77</v>
       </c>
       <c r="H23" s="191"/>
-      <c r="I23" s="190" t="s">
+      <c r="I23" s="192" t="s">
         <v>288</v>
       </c>
       <c r="J23" s="191"/>
-      <c r="K23" s="190" t="s">
+      <c r="K23" s="192" t="s">
         <v>288</v>
       </c>
-      <c r="L23" s="201"/>
+      <c r="L23" s="193"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
@@ -18378,28 +18382,28 @@
     <row r="24" spans="1:26" ht="34.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="226" t="s">
+      <c r="C24" s="212" t="s">
         <v>219</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="200" t="s">
+      <c r="E24" s="190" t="s">
         <v>148</v>
       </c>
       <c r="F24" s="191"/>
-      <c r="G24" s="190" t="s">
+      <c r="G24" s="192" t="s">
         <v>167</v>
       </c>
       <c r="H24" s="191"/>
-      <c r="I24" s="190" t="s">
+      <c r="I24" s="192" t="s">
         <v>79</v>
       </c>
       <c r="J24" s="191"/>
-      <c r="K24" s="190" t="s">
+      <c r="K24" s="192" t="s">
         <v>79</v>
       </c>
-      <c r="L24" s="201"/>
+      <c r="L24" s="193"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -18418,26 +18422,26 @@
     <row r="25" spans="1:26" ht="34.5" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="221"/>
+      <c r="C25" s="213"/>
       <c r="D25" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="190" t="s">
+      <c r="E25" s="192" t="s">
         <v>157</v>
       </c>
       <c r="F25" s="191"/>
-      <c r="G25" s="190" t="s">
+      <c r="G25" s="192" t="s">
         <v>271</v>
       </c>
       <c r="H25" s="191"/>
-      <c r="I25" s="190" t="s">
+      <c r="I25" s="192" t="s">
         <v>179</v>
       </c>
       <c r="J25" s="191"/>
-      <c r="K25" s="190" t="s">
+      <c r="K25" s="192" t="s">
         <v>179</v>
       </c>
-      <c r="L25" s="201"/>
+      <c r="L25" s="193"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -18456,28 +18460,28 @@
     <row r="26" spans="1:26" ht="34.5" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="226" t="s">
+      <c r="C26" s="212" t="s">
         <v>254</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="190" t="s">
+      <c r="E26" s="192" t="s">
         <v>166</v>
       </c>
       <c r="F26" s="191"/>
-      <c r="G26" s="190" t="s">
+      <c r="G26" s="192" t="s">
         <v>158</v>
       </c>
       <c r="H26" s="191"/>
-      <c r="I26" s="190" t="s">
+      <c r="I26" s="192" t="s">
         <v>278</v>
       </c>
       <c r="J26" s="191"/>
-      <c r="K26" s="190" t="s">
+      <c r="K26" s="192" t="s">
         <v>278</v>
       </c>
-      <c r="L26" s="201"/>
+      <c r="L26" s="193"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
@@ -18496,26 +18500,26 @@
     <row r="27" spans="1:26" ht="34.5" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="220"/>
+      <c r="C27" s="211"/>
       <c r="D27" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="200" t="s">
+      <c r="E27" s="190" t="s">
         <v>133</v>
       </c>
       <c r="F27" s="191"/>
-      <c r="G27" s="190" t="s">
+      <c r="G27" s="192" t="s">
         <v>95</v>
       </c>
       <c r="H27" s="191"/>
-      <c r="I27" s="190" t="s">
+      <c r="I27" s="192" t="s">
         <v>170</v>
       </c>
       <c r="J27" s="191"/>
-      <c r="K27" s="190" t="s">
+      <c r="K27" s="192" t="s">
         <v>170</v>
       </c>
-      <c r="L27" s="201"/>
+      <c r="L27" s="193"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -18534,28 +18538,28 @@
     <row r="28" spans="1:26" ht="34.5" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="226" t="s">
+      <c r="C28" s="212" t="s">
         <v>241</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="200" t="s">
+      <c r="E28" s="190" t="s">
         <v>129</v>
       </c>
       <c r="F28" s="191"/>
-      <c r="G28" s="190" t="s">
+      <c r="G28" s="192" t="s">
         <v>180</v>
       </c>
       <c r="H28" s="191"/>
-      <c r="I28" s="190" t="s">
+      <c r="I28" s="192" t="s">
         <v>78</v>
       </c>
       <c r="J28" s="191"/>
-      <c r="K28" s="190" t="s">
+      <c r="K28" s="192" t="s">
         <v>78</v>
       </c>
-      <c r="L28" s="201"/>
+      <c r="L28" s="193"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
@@ -18574,26 +18578,26 @@
     <row r="29" spans="1:26" ht="34.5" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="221"/>
+      <c r="C29" s="213"/>
       <c r="D29" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="205" t="s">
+      <c r="E29" s="229" t="s">
         <v>174</v>
       </c>
-      <c r="F29" s="206"/>
-      <c r="G29" s="205" t="s">
+      <c r="F29" s="227"/>
+      <c r="G29" s="229" t="s">
         <v>174</v>
       </c>
-      <c r="H29" s="206"/>
-      <c r="I29" s="207" t="s">
+      <c r="H29" s="227"/>
+      <c r="I29" s="226" t="s">
         <v>117</v>
       </c>
-      <c r="J29" s="206"/>
-      <c r="K29" s="207" t="s">
+      <c r="J29" s="227"/>
+      <c r="K29" s="226" t="s">
         <v>117</v>
       </c>
-      <c r="L29" s="208"/>
+      <c r="L29" s="228"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
@@ -18640,20 +18644,20 @@
     <row r="31" spans="1:26" ht="16.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="222" t="s">
+      <c r="C31" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="192" t="s">
+      <c r="D31" s="215" t="s">
         <v>261</v>
       </c>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="193"/>
-      <c r="K31" s="193"/>
-      <c r="L31" s="194"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="216"/>
+      <c r="L31" s="217"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -18672,16 +18676,16 @@
     <row r="32" spans="1:26" ht="16.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="220"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="196"/>
+      <c r="C32" s="211"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="219"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -18700,26 +18704,26 @@
     <row r="33" spans="1:26" ht="30" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="223" t="s">
+      <c r="C33" s="220" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="224"/>
-      <c r="E33" s="197" t="s">
+      <c r="D33" s="221"/>
+      <c r="E33" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="198"/>
-      <c r="G33" s="199" t="s">
+      <c r="F33" s="223"/>
+      <c r="G33" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="198"/>
-      <c r="I33" s="199" t="s">
+      <c r="H33" s="223"/>
+      <c r="I33" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="J33" s="198"/>
-      <c r="K33" s="199" t="s">
+      <c r="J33" s="223"/>
+      <c r="K33" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="L33" s="202"/>
+      <c r="L33" s="224"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -18738,28 +18742,28 @@
     <row r="34" spans="1:26" ht="34.5" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="227" t="s">
+      <c r="C34" s="210" t="s">
         <v>249</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="200" t="s">
+      <c r="E34" s="190" t="s">
         <v>101</v>
       </c>
       <c r="F34" s="191"/>
-      <c r="G34" s="190" t="s">
+      <c r="G34" s="192" t="s">
         <v>188</v>
       </c>
       <c r="H34" s="191"/>
-      <c r="I34" s="190" t="s">
+      <c r="I34" s="192" t="s">
         <v>52</v>
       </c>
       <c r="J34" s="191"/>
-      <c r="K34" s="190" t="s">
+      <c r="K34" s="192" t="s">
         <v>266</v>
       </c>
-      <c r="L34" s="201"/>
+      <c r="L34" s="193"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
@@ -18778,26 +18782,26 @@
     <row r="35" spans="1:26" ht="34.5" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="220"/>
+      <c r="C35" s="211"/>
       <c r="D35" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="203" t="s">
+      <c r="E35" s="208" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="204"/>
-      <c r="G35" s="190" t="s">
+      <c r="F35" s="209"/>
+      <c r="G35" s="192" t="s">
         <v>190</v>
       </c>
       <c r="H35" s="191"/>
-      <c r="I35" s="190" t="s">
+      <c r="I35" s="192" t="s">
         <v>52</v>
       </c>
       <c r="J35" s="191"/>
-      <c r="K35" s="190" t="s">
+      <c r="K35" s="192" t="s">
         <v>266</v>
       </c>
-      <c r="L35" s="201"/>
+      <c r="L35" s="193"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
@@ -18816,28 +18820,28 @@
     <row r="36" spans="1:26" ht="34.5" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="226" t="s">
+      <c r="C36" s="212" t="s">
         <v>260</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="203" t="s">
+      <c r="E36" s="208" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="204"/>
-      <c r="G36" s="190" t="s">
+      <c r="F36" s="209"/>
+      <c r="G36" s="192" t="s">
         <v>144</v>
       </c>
       <c r="H36" s="191"/>
-      <c r="I36" s="190" t="s">
+      <c r="I36" s="192" t="s">
         <v>32</v>
       </c>
       <c r="J36" s="191"/>
-      <c r="K36" s="190" t="s">
+      <c r="K36" s="192" t="s">
         <v>172</v>
       </c>
-      <c r="L36" s="201"/>
+      <c r="L36" s="193"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
@@ -18856,26 +18860,26 @@
     <row r="37" spans="1:26" ht="34.5" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
-      <c r="C37" s="220"/>
+      <c r="C37" s="211"/>
       <c r="D37" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="203" t="s">
+      <c r="E37" s="208" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="204"/>
-      <c r="G37" s="190" t="s">
+      <c r="F37" s="209"/>
+      <c r="G37" s="192" t="s">
         <v>106</v>
       </c>
       <c r="H37" s="191"/>
-      <c r="I37" s="190" t="s">
+      <c r="I37" s="192" t="s">
         <v>37</v>
       </c>
       <c r="J37" s="191"/>
-      <c r="K37" s="190" t="s">
+      <c r="K37" s="192" t="s">
         <v>178</v>
       </c>
-      <c r="L37" s="201"/>
+      <c r="L37" s="193"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -18894,28 +18898,28 @@
     <row r="38" spans="1:26" ht="34.5" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
-      <c r="C38" s="226" t="s">
+      <c r="C38" s="212" t="s">
         <v>239</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="203" t="s">
+      <c r="E38" s="208" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="204"/>
-      <c r="G38" s="190" t="s">
+      <c r="F38" s="209"/>
+      <c r="G38" s="192" t="s">
         <v>100</v>
       </c>
       <c r="H38" s="191"/>
-      <c r="I38" s="190" t="s">
+      <c r="I38" s="192" t="s">
         <v>126</v>
       </c>
       <c r="J38" s="191"/>
-      <c r="K38" s="190" t="s">
+      <c r="K38" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="L38" s="201"/>
+      <c r="L38" s="193"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
@@ -18934,26 +18938,26 @@
     <row r="39" spans="1:26" ht="34.5" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="221"/>
+      <c r="C39" s="213"/>
       <c r="D39" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="203" t="s">
+      <c r="E39" s="208" t="s">
         <v>143</v>
       </c>
-      <c r="F39" s="204"/>
-      <c r="G39" s="190" t="s">
+      <c r="F39" s="209"/>
+      <c r="G39" s="192" t="s">
         <v>186</v>
       </c>
       <c r="H39" s="191"/>
-      <c r="I39" s="190" t="s">
+      <c r="I39" s="192" t="s">
         <v>48</v>
       </c>
       <c r="J39" s="191"/>
-      <c r="K39" s="190" t="s">
+      <c r="K39" s="192" t="s">
         <v>97</v>
       </c>
-      <c r="L39" s="201"/>
+      <c r="L39" s="193"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
@@ -18972,28 +18976,28 @@
     <row r="40" spans="1:26" ht="34.5" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="226" t="s">
+      <c r="C40" s="212" t="s">
         <v>255</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="203" t="s">
+      <c r="E40" s="208" t="s">
         <v>127</v>
       </c>
-      <c r="F40" s="204"/>
-      <c r="G40" s="190" t="s">
+      <c r="F40" s="209"/>
+      <c r="G40" s="192" t="s">
         <v>186</v>
       </c>
       <c r="H40" s="191"/>
-      <c r="I40" s="190" t="s">
+      <c r="I40" s="192" t="s">
         <v>43</v>
       </c>
       <c r="J40" s="191"/>
-      <c r="K40" s="190" t="s">
+      <c r="K40" s="192" t="s">
         <v>189</v>
       </c>
-      <c r="L40" s="201"/>
+      <c r="L40" s="193"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
@@ -19012,26 +19016,26 @@
     <row r="41" spans="1:26" ht="34.5" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
-      <c r="C41" s="220"/>
+      <c r="C41" s="211"/>
       <c r="D41" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="203" t="s">
+      <c r="E41" s="208" t="s">
         <v>276</v>
       </c>
-      <c r="F41" s="204"/>
-      <c r="G41" s="190" t="s">
+      <c r="F41" s="209"/>
+      <c r="G41" s="192" t="s">
         <v>128</v>
       </c>
       <c r="H41" s="191"/>
-      <c r="I41" s="190" t="s">
+      <c r="I41" s="192" t="s">
         <v>43</v>
       </c>
       <c r="J41" s="191"/>
-      <c r="K41" s="190" t="s">
+      <c r="K41" s="192" t="s">
         <v>189</v>
       </c>
-      <c r="L41" s="201"/>
+      <c r="L41" s="193"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
@@ -19050,28 +19054,28 @@
     <row r="42" spans="1:26" ht="34.5" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
-      <c r="C42" s="226" t="s">
+      <c r="C42" s="212" t="s">
         <v>247</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="200" t="s">
+      <c r="E42" s="190" t="s">
         <v>104</v>
       </c>
       <c r="F42" s="191"/>
-      <c r="G42" s="190" t="s">
+      <c r="G42" s="192" t="s">
         <v>135</v>
       </c>
       <c r="H42" s="191"/>
-      <c r="I42" s="190" t="s">
+      <c r="I42" s="192" t="s">
         <v>93</v>
       </c>
       <c r="J42" s="191"/>
-      <c r="K42" s="190" t="s">
+      <c r="K42" s="192" t="s">
         <v>98</v>
       </c>
-      <c r="L42" s="201"/>
+      <c r="L42" s="193"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
@@ -19090,26 +19094,26 @@
     <row r="43" spans="1:26" ht="34.5" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
-      <c r="C43" s="221"/>
+      <c r="C43" s="213"/>
       <c r="D43" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="205" t="s">
+      <c r="E43" s="229" t="s">
         <v>105</v>
       </c>
-      <c r="F43" s="206"/>
-      <c r="G43" s="207" t="s">
+      <c r="F43" s="227"/>
+      <c r="G43" s="226" t="s">
         <v>156</v>
       </c>
-      <c r="H43" s="206"/>
-      <c r="I43" s="207" t="s">
+      <c r="H43" s="227"/>
+      <c r="I43" s="226" t="s">
         <v>147</v>
       </c>
-      <c r="J43" s="206"/>
-      <c r="K43" s="207" t="s">
+      <c r="J43" s="227"/>
+      <c r="K43" s="226" t="s">
         <v>98</v>
       </c>
-      <c r="L43" s="208"/>
+      <c r="L43" s="228"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
@@ -19156,20 +19160,20 @@
     <row r="45" spans="1:26" ht="16.5" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="222" t="s">
+      <c r="C45" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="192" t="s">
+      <c r="D45" s="215" t="s">
         <v>169</v>
       </c>
-      <c r="E45" s="193"/>
-      <c r="F45" s="193"/>
-      <c r="G45" s="193"/>
-      <c r="H45" s="193"/>
-      <c r="I45" s="193"/>
-      <c r="J45" s="193"/>
-      <c r="K45" s="193"/>
-      <c r="L45" s="194"/>
+      <c r="E45" s="216"/>
+      <c r="F45" s="216"/>
+      <c r="G45" s="216"/>
+      <c r="H45" s="216"/>
+      <c r="I45" s="216"/>
+      <c r="J45" s="216"/>
+      <c r="K45" s="216"/>
+      <c r="L45" s="217"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -19188,16 +19192,16 @@
     <row r="46" spans="1:26" ht="16.5" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="220"/>
-      <c r="D46" s="195"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="196"/>
+      <c r="C46" s="211"/>
+      <c r="D46" s="218"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="219"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -19216,26 +19220,26 @@
     <row r="47" spans="1:26" ht="30" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="223" t="s">
+      <c r="C47" s="220" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="224"/>
-      <c r="E47" s="197" t="s">
+      <c r="D47" s="221"/>
+      <c r="E47" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="198"/>
-      <c r="G47" s="199" t="s">
+      <c r="F47" s="223"/>
+      <c r="G47" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="H47" s="198"/>
-      <c r="I47" s="199" t="s">
+      <c r="H47" s="223"/>
+      <c r="I47" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="J47" s="198"/>
-      <c r="K47" s="199" t="s">
+      <c r="J47" s="223"/>
+      <c r="K47" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="L47" s="202"/>
+      <c r="L47" s="224"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -19254,28 +19258,28 @@
     <row r="48" spans="1:26" ht="34.5" customHeight="1">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
-      <c r="C48" s="227" t="s">
+      <c r="C48" s="210" t="s">
         <v>238</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="200" t="s">
+      <c r="E48" s="190" t="s">
         <v>181</v>
       </c>
       <c r="F48" s="191"/>
-      <c r="G48" s="190" t="s">
+      <c r="G48" s="192" t="s">
         <v>30</v>
       </c>
       <c r="H48" s="191"/>
-      <c r="I48" s="190" t="s">
+      <c r="I48" s="192" t="s">
         <v>155</v>
       </c>
       <c r="J48" s="191"/>
-      <c r="K48" s="190" t="s">
+      <c r="K48" s="192" t="s">
         <v>122</v>
       </c>
-      <c r="L48" s="201"/>
+      <c r="L48" s="193"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
@@ -19294,26 +19298,26 @@
     <row r="49" spans="1:26" ht="34.5" customHeight="1">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
-      <c r="C49" s="220"/>
+      <c r="C49" s="211"/>
       <c r="D49" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="200" t="s">
+      <c r="E49" s="190" t="s">
         <v>177</v>
       </c>
       <c r="F49" s="191"/>
-      <c r="G49" s="190" t="s">
+      <c r="G49" s="192" t="s">
         <v>159</v>
       </c>
       <c r="H49" s="191"/>
-      <c r="I49" s="190" t="s">
+      <c r="I49" s="192" t="s">
         <v>155</v>
       </c>
       <c r="J49" s="191"/>
-      <c r="K49" s="190" t="s">
+      <c r="K49" s="192" t="s">
         <v>269</v>
       </c>
-      <c r="L49" s="201"/>
+      <c r="L49" s="193"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
@@ -19332,28 +19336,28 @@
     <row r="50" spans="1:26" ht="34.5" customHeight="1">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
-      <c r="C50" s="226" t="s">
+      <c r="C50" s="212" t="s">
         <v>244</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="200" t="s">
+      <c r="E50" s="190" t="s">
         <v>92</v>
       </c>
       <c r="F50" s="191"/>
-      <c r="G50" s="190" t="s">
+      <c r="G50" s="192" t="s">
         <v>273</v>
       </c>
       <c r="H50" s="191"/>
-      <c r="I50" s="190" t="s">
+      <c r="I50" s="192" t="s">
         <v>281</v>
       </c>
       <c r="J50" s="191"/>
-      <c r="K50" s="190" t="s">
+      <c r="K50" s="192" t="s">
         <v>270</v>
       </c>
-      <c r="L50" s="201"/>
+      <c r="L50" s="193"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
@@ -19372,26 +19376,26 @@
     <row r="51" spans="1:26" ht="34.5" customHeight="1">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
-      <c r="C51" s="220"/>
+      <c r="C51" s="211"/>
       <c r="D51" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="200" t="s">
+      <c r="E51" s="190" t="s">
         <v>89</v>
       </c>
       <c r="F51" s="191"/>
-      <c r="G51" s="190" t="s">
+      <c r="G51" s="192" t="s">
         <v>273</v>
       </c>
       <c r="H51" s="191"/>
-      <c r="I51" s="190" t="s">
+      <c r="I51" s="192" t="s">
         <v>152</v>
       </c>
       <c r="J51" s="191"/>
-      <c r="K51" s="190" t="s">
+      <c r="K51" s="192" t="s">
         <v>81</v>
       </c>
-      <c r="L51" s="201"/>
+      <c r="L51" s="193"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
@@ -19410,28 +19414,28 @@
     <row r="52" spans="1:26" ht="34.5" customHeight="1">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
-      <c r="C52" s="226" t="s">
+      <c r="C52" s="212" t="s">
         <v>246</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="200" t="s">
+      <c r="E52" s="190" t="s">
         <v>84</v>
       </c>
       <c r="F52" s="191"/>
-      <c r="G52" s="190" t="s">
+      <c r="G52" s="192" t="s">
         <v>162</v>
       </c>
       <c r="H52" s="191"/>
-      <c r="I52" s="190" t="s">
+      <c r="I52" s="192" t="s">
         <v>281</v>
       </c>
       <c r="J52" s="191"/>
-      <c r="K52" s="190" t="s">
+      <c r="K52" s="192" t="s">
         <v>82</v>
       </c>
-      <c r="L52" s="201"/>
+      <c r="L52" s="193"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
@@ -19450,26 +19454,26 @@
     <row r="53" spans="1:26" ht="34.5" customHeight="1">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
-      <c r="C53" s="221"/>
+      <c r="C53" s="213"/>
       <c r="D53" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="200" t="s">
+      <c r="E53" s="190" t="s">
         <v>263</v>
       </c>
       <c r="F53" s="191"/>
-      <c r="G53" s="190" t="s">
+      <c r="G53" s="192" t="s">
         <v>162</v>
       </c>
       <c r="H53" s="191"/>
-      <c r="I53" s="190" t="s">
+      <c r="I53" s="192" t="s">
         <v>281</v>
       </c>
       <c r="J53" s="191"/>
-      <c r="K53" s="190" t="s">
+      <c r="K53" s="192" t="s">
         <v>82</v>
       </c>
-      <c r="L53" s="201"/>
+      <c r="L53" s="193"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
@@ -19488,28 +19492,28 @@
     <row r="54" spans="1:26" ht="66" customHeight="1">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
-      <c r="C54" s="226" t="s">
+      <c r="C54" s="212" t="s">
         <v>251</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="234" t="s">
+      <c r="E54" s="200" t="s">
         <v>287</v>
       </c>
-      <c r="F54" s="228"/>
-      <c r="G54" s="228" t="s">
+      <c r="F54" s="194"/>
+      <c r="G54" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="H54" s="229"/>
-      <c r="I54" s="236" t="s">
+      <c r="H54" s="195"/>
+      <c r="I54" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="J54" s="237"/>
-      <c r="K54" s="228" t="s">
+      <c r="J54" s="203"/>
+      <c r="K54" s="194" t="s">
         <v>27</v>
       </c>
-      <c r="L54" s="230"/>
+      <c r="L54" s="196"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
@@ -19528,22 +19532,22 @@
     <row r="55" spans="1:26" ht="66" customHeight="1">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
-      <c r="C55" s="220"/>
+      <c r="C55" s="211"/>
       <c r="D55" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E55" s="234"/>
-      <c r="F55" s="228"/>
-      <c r="G55" s="228" t="s">
+      <c r="E55" s="200"/>
+      <c r="F55" s="194"/>
+      <c r="G55" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="229"/>
-      <c r="I55" s="238"/>
-      <c r="J55" s="239"/>
-      <c r="K55" s="228" t="s">
+      <c r="H55" s="195"/>
+      <c r="I55" s="204"/>
+      <c r="J55" s="205"/>
+      <c r="K55" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="L55" s="230"/>
+      <c r="L55" s="196"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
@@ -19562,28 +19566,28 @@
     <row r="56" spans="1:26" ht="66" customHeight="1">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
-      <c r="C56" s="226" t="s">
+      <c r="C56" s="212" t="s">
         <v>250</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="234" t="s">
+      <c r="E56" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="F56" s="228"/>
-      <c r="G56" s="228" t="s">
+      <c r="F56" s="194"/>
+      <c r="G56" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="228"/>
-      <c r="I56" s="236" t="s">
+      <c r="H56" s="194"/>
+      <c r="I56" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="J56" s="237"/>
-      <c r="K56" s="228" t="s">
+      <c r="J56" s="203"/>
+      <c r="K56" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="L56" s="231"/>
+      <c r="L56" s="197"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
@@ -19602,18 +19606,18 @@
     <row r="57" spans="1:26" ht="66" customHeight="1">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
-      <c r="C57" s="221"/>
+      <c r="C57" s="213"/>
       <c r="D57" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="235"/>
-      <c r="F57" s="232"/>
-      <c r="G57" s="232"/>
-      <c r="H57" s="232"/>
-      <c r="I57" s="240"/>
-      <c r="J57" s="241"/>
-      <c r="K57" s="232"/>
-      <c r="L57" s="233"/>
+      <c r="E57" s="201"/>
+      <c r="F57" s="198"/>
+      <c r="G57" s="198"/>
+      <c r="H57" s="198"/>
+      <c r="I57" s="206"/>
+      <c r="J57" s="207"/>
+      <c r="K57" s="198"/>
+      <c r="L57" s="199"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
@@ -25974,20 +25978,148 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="180">
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L57"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="G56:H57"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="I54:J55"/>
-    <mergeCell ref="I56:J57"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="D45:L46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="E12:L15"/>
+    <mergeCell ref="D17:L18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E20:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D31:L32"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:L4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="I51:J51"/>
@@ -26012,148 +26144,20 @@
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:L4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D31:L32"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="E12:L15"/>
-    <mergeCell ref="D17:L18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E20:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="D45:L46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L57"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="G56:H57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="I54:J55"/>
+    <mergeCell ref="I56:J57"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0" footer="0"/>
@@ -26166,8 +26170,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -26239,20 +26243,20 @@
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="222" t="s">
+      <c r="C3" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="192" t="s">
+      <c r="D3" s="215" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="194"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="217"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -26271,16 +26275,16 @@
     <row r="4" spans="1:26" ht="16.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="196"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="219"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -26299,26 +26303,26 @@
     <row r="5" spans="1:26" ht="24.95" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="223" t="s">
+      <c r="C5" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="224"/>
-      <c r="E5" s="197" t="s">
+      <c r="D5" s="221"/>
+      <c r="E5" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="199" t="s">
+      <c r="F5" s="223"/>
+      <c r="G5" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="198"/>
-      <c r="I5" s="199" t="s">
+      <c r="H5" s="223"/>
+      <c r="I5" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="198"/>
-      <c r="K5" s="199" t="s">
+      <c r="J5" s="223"/>
+      <c r="K5" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="202"/>
+      <c r="L5" s="224"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -26337,22 +26341,22 @@
     <row r="6" spans="1:26" ht="30" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="263" t="s">
+      <c r="C6" s="272" t="s">
         <v>242</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="257" t="s">
+      <c r="E6" s="274" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="210"/>
-      <c r="K6" s="210"/>
-      <c r="L6" s="211"/>
+      <c r="F6" s="233"/>
+      <c r="G6" s="233"/>
+      <c r="H6" s="233"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="233"/>
+      <c r="K6" s="233"/>
+      <c r="L6" s="234"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -26371,18 +26375,18 @@
     <row r="7" spans="1:26" ht="30" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="264"/>
+      <c r="C7" s="273"/>
       <c r="D7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="214"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="215"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="216"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="238"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="238"/>
+      <c r="L7" s="239"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -26401,28 +26405,28 @@
     <row r="8" spans="1:26" ht="129.94999999999999" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="226" t="s">
+      <c r="C8" s="212" t="s">
         <v>217</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="266" t="s">
+      <c r="E8" s="264" t="s">
         <v>259</v>
       </c>
-      <c r="F8" s="267"/>
-      <c r="G8" s="278" t="s">
+      <c r="F8" s="265"/>
+      <c r="G8" s="247" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="278"/>
-      <c r="I8" s="269" t="s">
+      <c r="H8" s="247"/>
+      <c r="I8" s="268" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="270"/>
-      <c r="K8" s="274" t="s">
+      <c r="J8" s="269"/>
+      <c r="K8" s="243" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="275"/>
+      <c r="L8" s="244"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -26441,20 +26445,20 @@
     <row r="9" spans="1:26" ht="129.94999999999999" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="220"/>
+      <c r="C9" s="211"/>
       <c r="D9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="242" t="s">
+      <c r="E9" s="266" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="268"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="248"/>
+      <c r="F9" s="267"/>
+      <c r="G9" s="248"/>
+      <c r="H9" s="248"/>
+      <c r="I9" s="270"/>
       <c r="J9" s="271"/>
-      <c r="K9" s="276"/>
-      <c r="L9" s="277"/>
+      <c r="K9" s="245"/>
+      <c r="L9" s="246"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -26473,28 +26477,28 @@
     <row r="10" spans="1:26" ht="80.099999999999994" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="212" t="s">
         <v>227</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="242" t="s">
+      <c r="E10" s="266" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="243"/>
-      <c r="G10" s="244" t="s">
+      <c r="F10" s="278"/>
+      <c r="G10" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="244"/>
-      <c r="I10" s="244" t="s">
+      <c r="H10" s="248"/>
+      <c r="I10" s="248" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="244"/>
-      <c r="K10" s="243" t="s">
+      <c r="J10" s="248"/>
+      <c r="K10" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="245"/>
+      <c r="L10" s="279"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -26513,18 +26517,18 @@
     <row r="11" spans="1:26" ht="80.099999999999994" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="220"/>
+      <c r="C11" s="211"/>
       <c r="D11" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="242"/>
-      <c r="F11" s="243"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="244"/>
-      <c r="I11" s="244"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="243"/>
-      <c r="L11" s="245"/>
+      <c r="E11" s="266"/>
+      <c r="F11" s="278"/>
+      <c r="G11" s="248"/>
+      <c r="H11" s="248"/>
+      <c r="I11" s="248"/>
+      <c r="J11" s="248"/>
+      <c r="K11" s="278"/>
+      <c r="L11" s="279"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -26543,26 +26547,28 @@
     <row r="12" spans="1:26" ht="80.099999999999994" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="226" t="s">
+      <c r="C12" s="212" t="s">
         <v>236</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="279" t="s">
-        <v>297</v>
-      </c>
-      <c r="F12" s="237"/>
-      <c r="G12" s="273"/>
-      <c r="H12" s="229"/>
-      <c r="I12" s="236" t="s">
-        <v>292</v>
-      </c>
-      <c r="J12" s="252"/>
-      <c r="K12" s="246" t="s">
+      <c r="E12" s="259" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" s="203"/>
+      <c r="G12" s="202" t="s">
+        <v>300</v>
+      </c>
+      <c r="H12" s="294"/>
+      <c r="I12" s="202" t="s">
+        <v>290</v>
+      </c>
+      <c r="J12" s="294"/>
+      <c r="K12" s="280" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="247"/>
+      <c r="L12" s="281"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -26581,18 +26587,18 @@
     <row r="13" spans="1:26" ht="80.099999999999994" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="220"/>
+      <c r="C13" s="211"/>
       <c r="D13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="280"/>
-      <c r="F13" s="239"/>
-      <c r="G13" s="265"/>
-      <c r="H13" s="191"/>
-      <c r="I13" s="255"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="248"/>
-      <c r="L13" s="249"/>
+      <c r="E13" s="260"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="295"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="295"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="270"/>
+      <c r="L13" s="282"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -26611,26 +26617,28 @@
     <row r="14" spans="1:26" ht="80.099999999999994" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="226" t="s">
+      <c r="C14" s="212" t="s">
         <v>207</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="279" t="s">
-        <v>298</v>
-      </c>
-      <c r="F14" s="237"/>
-      <c r="G14" s="265"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="236" t="s">
-        <v>293</v>
-      </c>
-      <c r="J14" s="252"/>
-      <c r="K14" s="246" t="s">
+      <c r="E14" s="259" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="203"/>
+      <c r="G14" s="202" t="s">
+        <v>300</v>
+      </c>
+      <c r="H14" s="294"/>
+      <c r="I14" s="202" t="s">
+        <v>291</v>
+      </c>
+      <c r="J14" s="294"/>
+      <c r="K14" s="280" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="247"/>
+      <c r="L14" s="281"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -26649,18 +26657,18 @@
     <row r="15" spans="1:26" ht="80.099999999999994" customHeight="1" thickBot="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="221"/>
+      <c r="C15" s="213"/>
       <c r="D15" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="280"/>
-      <c r="F15" s="239"/>
-      <c r="G15" s="272"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="253"/>
-      <c r="J15" s="254"/>
-      <c r="K15" s="250"/>
-      <c r="L15" s="251"/>
+      <c r="E15" s="260"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="295"/>
+      <c r="H15" s="296"/>
+      <c r="I15" s="297"/>
+      <c r="J15" s="298"/>
+      <c r="K15" s="283"/>
+      <c r="L15" s="284"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -26707,20 +26715,20 @@
     <row r="17" spans="1:26" ht="16.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="222" t="s">
+      <c r="C17" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="192" t="s">
+      <c r="D17" s="215" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="193"/>
-      <c r="L17" s="194"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="216"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="216"/>
+      <c r="K17" s="216"/>
+      <c r="L17" s="217"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -26739,16 +26747,16 @@
     <row r="18" spans="1:26" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="220"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="196"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="219"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -26767,26 +26775,26 @@
     <row r="19" spans="1:26" ht="24.95" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="223" t="s">
+      <c r="C19" s="220" t="s">
         <v>218</v>
       </c>
-      <c r="D19" s="224"/>
-      <c r="E19" s="197" t="s">
+      <c r="D19" s="221"/>
+      <c r="E19" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="198"/>
-      <c r="G19" s="199" t="s">
+      <c r="F19" s="223"/>
+      <c r="G19" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="198"/>
-      <c r="I19" s="199" t="s">
+      <c r="H19" s="223"/>
+      <c r="I19" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="198"/>
-      <c r="K19" s="199" t="s">
+      <c r="J19" s="223"/>
+      <c r="K19" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="202"/>
+      <c r="L19" s="224"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -26805,22 +26813,22 @@
     <row r="20" spans="1:26" ht="30" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="258" t="s">
+      <c r="C20" s="275" t="s">
         <v>256</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="257" t="s">
+      <c r="E20" s="274" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="210"/>
-      <c r="K20" s="210"/>
-      <c r="L20" s="211"/>
+      <c r="F20" s="233"/>
+      <c r="G20" s="233"/>
+      <c r="H20" s="233"/>
+      <c r="I20" s="233"/>
+      <c r="J20" s="233"/>
+      <c r="K20" s="233"/>
+      <c r="L20" s="234"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -26839,18 +26847,18 @@
     <row r="21" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="259"/>
+      <c r="C21" s="276"/>
       <c r="D21" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="214"/>
-      <c r="F21" s="215"/>
-      <c r="G21" s="215"/>
-      <c r="H21" s="215"/>
-      <c r="I21" s="215"/>
-      <c r="J21" s="215"/>
-      <c r="K21" s="215"/>
-      <c r="L21" s="216"/>
+      <c r="E21" s="237"/>
+      <c r="F21" s="238"/>
+      <c r="G21" s="238"/>
+      <c r="H21" s="238"/>
+      <c r="I21" s="238"/>
+      <c r="J21" s="238"/>
+      <c r="K21" s="238"/>
+      <c r="L21" s="239"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -26869,28 +26877,28 @@
     <row r="22" spans="1:26" ht="80.099999999999994" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="226" t="s">
+      <c r="C22" s="212" t="s">
         <v>248</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="281" t="s">
+      <c r="E22" s="258" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="282"/>
-      <c r="G22" s="283" t="s">
+      <c r="F22" s="257"/>
+      <c r="G22" s="256" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="282"/>
-      <c r="I22" s="284" t="s">
-        <v>294</v>
-      </c>
-      <c r="J22" s="285"/>
-      <c r="K22" s="278" t="s">
+      <c r="H22" s="257"/>
+      <c r="I22" s="299" t="s">
+        <v>292</v>
+      </c>
+      <c r="J22" s="300"/>
+      <c r="K22" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="L22" s="286"/>
+      <c r="L22" s="285"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -26909,18 +26917,18 @@
     <row r="23" spans="1:26" ht="80.099999999999994" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="220"/>
+      <c r="C23" s="211"/>
       <c r="D23" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="287"/>
-      <c r="F23" s="229"/>
-      <c r="G23" s="229"/>
-      <c r="H23" s="229"/>
-      <c r="I23" s="273"/>
-      <c r="J23" s="273"/>
-      <c r="K23" s="288"/>
-      <c r="L23" s="289"/>
+      <c r="E23" s="254"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="195"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="252"/>
+      <c r="J23" s="252"/>
+      <c r="K23" s="286"/>
+      <c r="L23" s="287"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -26939,28 +26947,28 @@
     <row r="24" spans="1:26" ht="99.95" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="226" t="s">
+      <c r="C24" s="212" t="s">
         <v>210</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="298" t="s">
-        <v>299</v>
-      </c>
-      <c r="F24" s="244"/>
-      <c r="G24" s="228" t="s">
+      <c r="E24" s="261" t="s">
+        <v>297</v>
+      </c>
+      <c r="F24" s="248"/>
+      <c r="G24" s="194" t="s">
+        <v>301</v>
+      </c>
+      <c r="H24" s="195"/>
+      <c r="I24" s="194" t="s">
+        <v>293</v>
+      </c>
+      <c r="J24" s="195"/>
+      <c r="K24" s="248" t="s">
         <v>289</v>
       </c>
-      <c r="H24" s="229"/>
-      <c r="I24" s="228" t="s">
-        <v>295</v>
-      </c>
-      <c r="J24" s="229"/>
-      <c r="K24" s="244" t="s">
-        <v>291</v>
-      </c>
-      <c r="L24" s="290"/>
+      <c r="L24" s="255"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -26979,20 +26987,20 @@
     <row r="25" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="221"/>
+      <c r="C25" s="213"/>
       <c r="D25" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="291" t="s">
-        <v>301</v>
-      </c>
-      <c r="F25" s="292"/>
-      <c r="G25" s="292"/>
-      <c r="H25" s="292"/>
-      <c r="I25" s="292"/>
-      <c r="J25" s="292"/>
-      <c r="K25" s="292"/>
-      <c r="L25" s="293"/>
+      <c r="E25" s="288" t="s">
+        <v>299</v>
+      </c>
+      <c r="F25" s="289"/>
+      <c r="G25" s="289"/>
+      <c r="H25" s="289"/>
+      <c r="I25" s="289"/>
+      <c r="J25" s="289"/>
+      <c r="K25" s="289"/>
+      <c r="L25" s="290"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -27011,22 +27019,22 @@
     <row r="26" spans="1:26" ht="30" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="262" t="s">
+      <c r="C26" s="277" t="s">
         <v>222</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="294" t="s">
+      <c r="E26" s="253" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="229"/>
-      <c r="G26" s="229"/>
-      <c r="H26" s="229"/>
-      <c r="I26" s="229"/>
-      <c r="J26" s="229"/>
-      <c r="K26" s="229"/>
-      <c r="L26" s="230"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="195"/>
+      <c r="K26" s="195"/>
+      <c r="L26" s="196"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -27045,18 +27053,18 @@
     <row r="27" spans="1:26" ht="30" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="259"/>
+      <c r="C27" s="276"/>
       <c r="D27" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="287"/>
-      <c r="F27" s="229"/>
-      <c r="G27" s="229"/>
-      <c r="H27" s="229"/>
-      <c r="I27" s="229"/>
-      <c r="J27" s="229"/>
-      <c r="K27" s="229"/>
-      <c r="L27" s="230"/>
+      <c r="E27" s="254"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="195"/>
+      <c r="K27" s="195"/>
+      <c r="L27" s="196"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -27075,28 +27083,28 @@
     <row r="28" spans="1:26" ht="99.95" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="226" t="s">
+      <c r="C28" s="212" t="s">
         <v>253</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="298" t="s">
-        <v>300</v>
-      </c>
-      <c r="F28" s="244"/>
-      <c r="G28" s="228" t="s">
-        <v>290</v>
-      </c>
-      <c r="H28" s="273"/>
-      <c r="I28" s="228" t="s">
-        <v>296</v>
-      </c>
-      <c r="J28" s="273"/>
-      <c r="K28" s="244" t="s">
+      <c r="E28" s="261" t="s">
+        <v>298</v>
+      </c>
+      <c r="F28" s="248"/>
+      <c r="G28" s="194" t="s">
+        <v>302</v>
+      </c>
+      <c r="H28" s="252"/>
+      <c r="I28" s="194" t="s">
+        <v>294</v>
+      </c>
+      <c r="J28" s="252"/>
+      <c r="K28" s="248" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="289"/>
+      <c r="L28" s="287"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -27115,18 +27123,18 @@
     <row r="29" spans="1:26" ht="99.95" customHeight="1" thickBot="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="221"/>
+      <c r="C29" s="213"/>
       <c r="D29" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="299"/>
-      <c r="F29" s="300"/>
-      <c r="G29" s="295"/>
-      <c r="H29" s="295"/>
-      <c r="I29" s="295"/>
-      <c r="J29" s="295"/>
-      <c r="K29" s="296"/>
-      <c r="L29" s="297"/>
+      <c r="E29" s="262"/>
+      <c r="F29" s="263"/>
+      <c r="G29" s="293"/>
+      <c r="H29" s="293"/>
+      <c r="I29" s="293"/>
+      <c r="J29" s="293"/>
+      <c r="K29" s="291"/>
+      <c r="L29" s="292"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -27173,20 +27181,20 @@
     <row r="31" spans="1:26" ht="16.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="222" t="s">
+      <c r="C31" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="192" t="s">
+      <c r="D31" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="193"/>
-      <c r="K31" s="193"/>
-      <c r="L31" s="194"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="216"/>
+      <c r="L31" s="217"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -27205,16 +27213,16 @@
     <row r="32" spans="1:26" ht="16.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="220"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="196"/>
+      <c r="C32" s="211"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="219"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -27233,26 +27241,26 @@
     <row r="33" spans="1:26" ht="24.95" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="223" t="s">
+      <c r="C33" s="220" t="s">
         <v>237</v>
       </c>
-      <c r="D33" s="224"/>
-      <c r="E33" s="197" t="s">
+      <c r="D33" s="221"/>
+      <c r="E33" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="198"/>
-      <c r="G33" s="199" t="s">
+      <c r="F33" s="223"/>
+      <c r="G33" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="198"/>
-      <c r="I33" s="199" t="s">
+      <c r="H33" s="223"/>
+      <c r="I33" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="J33" s="198"/>
-      <c r="K33" s="199" t="s">
+      <c r="J33" s="223"/>
+      <c r="K33" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="L33" s="202"/>
+      <c r="L33" s="224"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -27271,20 +27279,20 @@
     <row r="34" spans="1:26" ht="30" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="227" t="s">
+      <c r="C34" s="210" t="s">
         <v>212</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="261"/>
+      <c r="E34" s="249"/>
       <c r="F34" s="191"/>
-      <c r="G34" s="265"/>
+      <c r="G34" s="242"/>
       <c r="H34" s="191"/>
-      <c r="I34" s="265"/>
+      <c r="I34" s="242"/>
       <c r="J34" s="191"/>
-      <c r="K34" s="265"/>
-      <c r="L34" s="201"/>
+      <c r="K34" s="242"/>
+      <c r="L34" s="193"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -27303,18 +27311,18 @@
     <row r="35" spans="1:26" ht="30" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="220"/>
+      <c r="C35" s="211"/>
       <c r="D35" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="261"/>
+      <c r="E35" s="249"/>
       <c r="F35" s="191"/>
-      <c r="G35" s="265"/>
+      <c r="G35" s="242"/>
       <c r="H35" s="191"/>
-      <c r="I35" s="265"/>
+      <c r="I35" s="242"/>
       <c r="J35" s="191"/>
-      <c r="K35" s="265"/>
-      <c r="L35" s="201"/>
+      <c r="K35" s="242"/>
+      <c r="L35" s="193"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -27333,20 +27341,20 @@
     <row r="36" spans="1:26" ht="30" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="226" t="s">
+      <c r="C36" s="212" t="s">
         <v>258</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="261"/>
+      <c r="E36" s="249"/>
       <c r="F36" s="191"/>
-      <c r="G36" s="265"/>
+      <c r="G36" s="242"/>
       <c r="H36" s="191"/>
-      <c r="I36" s="265"/>
+      <c r="I36" s="242"/>
       <c r="J36" s="191"/>
-      <c r="K36" s="265"/>
-      <c r="L36" s="201"/>
+      <c r="K36" s="242"/>
+      <c r="L36" s="193"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -27365,18 +27373,18 @@
     <row r="37" spans="1:26" ht="30" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="220"/>
+      <c r="C37" s="211"/>
       <c r="D37" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="261"/>
+      <c r="E37" s="249"/>
       <c r="F37" s="191"/>
-      <c r="G37" s="265"/>
+      <c r="G37" s="242"/>
       <c r="H37" s="191"/>
-      <c r="I37" s="265"/>
+      <c r="I37" s="242"/>
       <c r="J37" s="191"/>
-      <c r="K37" s="265"/>
-      <c r="L37" s="201"/>
+      <c r="K37" s="242"/>
+      <c r="L37" s="193"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -27395,20 +27403,20 @@
     <row r="38" spans="1:26" ht="30" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="226" t="s">
+      <c r="C38" s="212" t="s">
         <v>203</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="261"/>
+      <c r="E38" s="249"/>
       <c r="F38" s="191"/>
-      <c r="G38" s="265"/>
+      <c r="G38" s="242"/>
       <c r="H38" s="191"/>
-      <c r="I38" s="265"/>
+      <c r="I38" s="242"/>
       <c r="J38" s="191"/>
-      <c r="K38" s="265"/>
-      <c r="L38" s="201"/>
+      <c r="K38" s="242"/>
+      <c r="L38" s="193"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -27427,18 +27435,18 @@
     <row r="39" spans="1:26" ht="30" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="221"/>
+      <c r="C39" s="213"/>
       <c r="D39" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="265"/>
+      <c r="E39" s="242"/>
       <c r="F39" s="191"/>
-      <c r="G39" s="265"/>
+      <c r="G39" s="242"/>
       <c r="H39" s="191"/>
-      <c r="I39" s="265"/>
+      <c r="I39" s="242"/>
       <c r="J39" s="191"/>
-      <c r="K39" s="265"/>
-      <c r="L39" s="201"/>
+      <c r="K39" s="242"/>
+      <c r="L39" s="193"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -27457,20 +27465,20 @@
     <row r="40" spans="1:26" ht="30" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="226" t="s">
+      <c r="C40" s="212" t="s">
         <v>235</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="265"/>
+      <c r="E40" s="242"/>
       <c r="F40" s="191"/>
-      <c r="G40" s="265"/>
+      <c r="G40" s="242"/>
       <c r="H40" s="191"/>
-      <c r="I40" s="265"/>
+      <c r="I40" s="242"/>
       <c r="J40" s="191"/>
-      <c r="K40" s="265"/>
-      <c r="L40" s="201"/>
+      <c r="K40" s="242"/>
+      <c r="L40" s="193"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -27489,18 +27497,18 @@
     <row r="41" spans="1:26" ht="30" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="220"/>
+      <c r="C41" s="211"/>
       <c r="D41" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="261"/>
+      <c r="E41" s="249"/>
       <c r="F41" s="191"/>
-      <c r="G41" s="265"/>
+      <c r="G41" s="242"/>
       <c r="H41" s="191"/>
-      <c r="I41" s="265"/>
+      <c r="I41" s="242"/>
       <c r="J41" s="191"/>
-      <c r="K41" s="265"/>
-      <c r="L41" s="201"/>
+      <c r="K41" s="242"/>
+      <c r="L41" s="193"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -27519,20 +27527,20 @@
     <row r="42" spans="1:26" ht="30" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="226" t="s">
+      <c r="C42" s="212" t="s">
         <v>240</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="261"/>
+      <c r="E42" s="249"/>
       <c r="F42" s="191"/>
-      <c r="G42" s="265"/>
+      <c r="G42" s="242"/>
       <c r="H42" s="191"/>
-      <c r="I42" s="265"/>
+      <c r="I42" s="242"/>
       <c r="J42" s="191"/>
-      <c r="K42" s="265"/>
-      <c r="L42" s="201"/>
+      <c r="K42" s="242"/>
+      <c r="L42" s="193"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -27551,18 +27559,18 @@
     <row r="43" spans="1:26" ht="30" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="221"/>
+      <c r="C43" s="213"/>
       <c r="D43" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="260"/>
-      <c r="F43" s="206"/>
-      <c r="G43" s="272"/>
-      <c r="H43" s="206"/>
-      <c r="I43" s="272"/>
-      <c r="J43" s="206"/>
-      <c r="K43" s="272"/>
-      <c r="L43" s="208"/>
+      <c r="E43" s="251"/>
+      <c r="F43" s="227"/>
+      <c r="G43" s="250"/>
+      <c r="H43" s="227"/>
+      <c r="I43" s="250"/>
+      <c r="J43" s="227"/>
+      <c r="K43" s="250"/>
+      <c r="L43" s="228"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -27609,20 +27617,20 @@
     <row r="45" spans="1:26" ht="16.5" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="222" t="s">
+      <c r="C45" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="192" t="s">
+      <c r="D45" s="215" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="193"/>
-      <c r="F45" s="193"/>
-      <c r="G45" s="193"/>
-      <c r="H45" s="193"/>
-      <c r="I45" s="193"/>
-      <c r="J45" s="193"/>
-      <c r="K45" s="193"/>
-      <c r="L45" s="194"/>
+      <c r="E45" s="216"/>
+      <c r="F45" s="216"/>
+      <c r="G45" s="216"/>
+      <c r="H45" s="216"/>
+      <c r="I45" s="216"/>
+      <c r="J45" s="216"/>
+      <c r="K45" s="216"/>
+      <c r="L45" s="217"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -27641,16 +27649,16 @@
     <row r="46" spans="1:26" ht="24" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="220"/>
-      <c r="D46" s="195"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="196"/>
+      <c r="C46" s="211"/>
+      <c r="D46" s="218"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="219"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -27669,26 +27677,26 @@
     <row r="47" spans="1:26" ht="24.95" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="223" t="s">
+      <c r="C47" s="220" t="s">
         <v>224</v>
       </c>
-      <c r="D47" s="224"/>
-      <c r="E47" s="197" t="s">
+      <c r="D47" s="221"/>
+      <c r="E47" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="198"/>
-      <c r="G47" s="199" t="s">
+      <c r="F47" s="223"/>
+      <c r="G47" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="H47" s="198"/>
-      <c r="I47" s="199" t="s">
+      <c r="H47" s="223"/>
+      <c r="I47" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="J47" s="198"/>
-      <c r="K47" s="199" t="s">
+      <c r="J47" s="223"/>
+      <c r="K47" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="L47" s="202"/>
+      <c r="L47" s="224"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -27707,20 +27715,20 @@
     <row r="48" spans="1:26" ht="30" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="227" t="s">
+      <c r="C48" s="210" t="s">
         <v>205</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="261"/>
+      <c r="E48" s="249"/>
       <c r="F48" s="191"/>
-      <c r="G48" s="265"/>
+      <c r="G48" s="242"/>
       <c r="H48" s="191"/>
-      <c r="I48" s="265"/>
+      <c r="I48" s="242"/>
       <c r="J48" s="191"/>
-      <c r="K48" s="265"/>
-      <c r="L48" s="201"/>
+      <c r="K48" s="242"/>
+      <c r="L48" s="193"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -27739,18 +27747,18 @@
     <row r="49" spans="1:26" ht="30" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="220"/>
+      <c r="C49" s="211"/>
       <c r="D49" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="261"/>
+      <c r="E49" s="249"/>
       <c r="F49" s="191"/>
-      <c r="G49" s="265"/>
+      <c r="G49" s="242"/>
       <c r="H49" s="191"/>
-      <c r="I49" s="265"/>
+      <c r="I49" s="242"/>
       <c r="J49" s="191"/>
-      <c r="K49" s="265"/>
-      <c r="L49" s="201"/>
+      <c r="K49" s="242"/>
+      <c r="L49" s="193"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -27769,20 +27777,20 @@
     <row r="50" spans="1:26" ht="30" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="226" t="s">
+      <c r="C50" s="212" t="s">
         <v>234</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="261"/>
+      <c r="E50" s="249"/>
       <c r="F50" s="191"/>
-      <c r="G50" s="265"/>
+      <c r="G50" s="242"/>
       <c r="H50" s="191"/>
-      <c r="I50" s="265"/>
+      <c r="I50" s="242"/>
       <c r="J50" s="191"/>
-      <c r="K50" s="265"/>
-      <c r="L50" s="201"/>
+      <c r="K50" s="242"/>
+      <c r="L50" s="193"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -27801,18 +27809,18 @@
     <row r="51" spans="1:26" ht="30" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="220"/>
+      <c r="C51" s="211"/>
       <c r="D51" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="261"/>
+      <c r="E51" s="249"/>
       <c r="F51" s="191"/>
-      <c r="G51" s="265"/>
+      <c r="G51" s="242"/>
       <c r="H51" s="191"/>
-      <c r="I51" s="265"/>
+      <c r="I51" s="242"/>
       <c r="J51" s="191"/>
-      <c r="K51" s="265"/>
-      <c r="L51" s="201"/>
+      <c r="K51" s="242"/>
+      <c r="L51" s="193"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -27831,20 +27839,20 @@
     <row r="52" spans="1:26" ht="30" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="226" t="s">
+      <c r="C52" s="212" t="s">
         <v>245</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="261"/>
+      <c r="E52" s="249"/>
       <c r="F52" s="191"/>
-      <c r="G52" s="265"/>
+      <c r="G52" s="242"/>
       <c r="H52" s="191"/>
-      <c r="I52" s="265"/>
+      <c r="I52" s="242"/>
       <c r="J52" s="191"/>
-      <c r="K52" s="265"/>
-      <c r="L52" s="201"/>
+      <c r="K52" s="242"/>
+      <c r="L52" s="193"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -27863,18 +27871,18 @@
     <row r="53" spans="1:26" ht="30" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="221"/>
+      <c r="C53" s="213"/>
       <c r="D53" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="265"/>
+      <c r="E53" s="242"/>
       <c r="F53" s="191"/>
-      <c r="G53" s="265"/>
+      <c r="G53" s="242"/>
       <c r="H53" s="191"/>
-      <c r="I53" s="265"/>
+      <c r="I53" s="242"/>
       <c r="J53" s="191"/>
-      <c r="K53" s="265"/>
-      <c r="L53" s="201"/>
+      <c r="K53" s="242"/>
+      <c r="L53" s="193"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -27893,20 +27901,20 @@
     <row r="54" spans="1:26" ht="30" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="226" t="s">
+      <c r="C54" s="212" t="s">
         <v>225</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="265"/>
+      <c r="E54" s="242"/>
       <c r="F54" s="191"/>
-      <c r="G54" s="265"/>
+      <c r="G54" s="242"/>
       <c r="H54" s="191"/>
-      <c r="I54" s="265"/>
+      <c r="I54" s="242"/>
       <c r="J54" s="191"/>
-      <c r="K54" s="265"/>
-      <c r="L54" s="201"/>
+      <c r="K54" s="242"/>
+      <c r="L54" s="193"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -27925,18 +27933,18 @@
     <row r="55" spans="1:26" ht="30" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="220"/>
+      <c r="C55" s="211"/>
       <c r="D55" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E55" s="261"/>
+      <c r="E55" s="249"/>
       <c r="F55" s="191"/>
-      <c r="G55" s="265"/>
+      <c r="G55" s="242"/>
       <c r="H55" s="191"/>
-      <c r="I55" s="265"/>
+      <c r="I55" s="242"/>
       <c r="J55" s="191"/>
-      <c r="K55" s="265"/>
-      <c r="L55" s="201"/>
+      <c r="K55" s="242"/>
+      <c r="L55" s="193"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -27955,20 +27963,20 @@
     <row r="56" spans="1:26" ht="30" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="226" t="s">
+      <c r="C56" s="212" t="s">
         <v>252</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="261"/>
+      <c r="E56" s="249"/>
       <c r="F56" s="191"/>
-      <c r="G56" s="265"/>
+      <c r="G56" s="242"/>
       <c r="H56" s="191"/>
-      <c r="I56" s="265"/>
+      <c r="I56" s="242"/>
       <c r="J56" s="191"/>
-      <c r="K56" s="265"/>
-      <c r="L56" s="201"/>
+      <c r="K56" s="242"/>
+      <c r="L56" s="193"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -27987,18 +27995,18 @@
     <row r="57" spans="1:26" ht="30" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="221"/>
+      <c r="C57" s="213"/>
       <c r="D57" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="260"/>
-      <c r="F57" s="206"/>
-      <c r="G57" s="272"/>
-      <c r="H57" s="206"/>
-      <c r="I57" s="272"/>
-      <c r="J57" s="206"/>
-      <c r="K57" s="272"/>
-      <c r="L57" s="208"/>
+      <c r="E57" s="251"/>
+      <c r="F57" s="227"/>
+      <c r="G57" s="250"/>
+      <c r="H57" s="227"/>
+      <c r="I57" s="250"/>
+      <c r="J57" s="227"/>
+      <c r="K57" s="250"/>
+      <c r="L57" s="228"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -34358,7 +34366,144 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="163">
+  <mergeCells count="161">
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="E25:L25"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="I28:J29"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E20:L21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:L4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:L7"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D17:L18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D31:L32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E26:L27"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D45:L46"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="G52:H52"/>
@@ -34383,145 +34528,6 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D45:L46"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E26:L27"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G22:H23"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D17:L18"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:L4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:L7"/>
-    <mergeCell ref="D31:L32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E20:L21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="E25:L25"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="G28:H29"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="I28:J29"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0" footer="0"/>

--- a/A조 주간보고.xlsx
+++ b/A조 주간보고.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEOYUN\Desktop\JusungProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28866F7F-BE9E-4413-8D4F-7B0BC88F1574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0819988-0A78-4359-81B6-148205B2D422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="305">
   <si>
     <t>1. System Config Save, Load 테스트 진행
 - 테스트 진행간 발생한 오류 수정
@@ -1169,6 +1169,14 @@
   </si>
   <si>
     <t xml:space="preserve">Main UI PPT , WYS/WYG 최종  회의 후 수정 및 배치,  Main code thread 별 PPT 분할 및 연결      </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulator Test를 통해 동일 조건 하에서의 Throughput을 계산. (A,B 조의 Simulator를 동일한 조건 하에 test 실시 -&gt; 설계한 simulator의 알고리즘 차이로 인한 다른 Throughput이 도출되는 것을 확인.) </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 설계한 UI 수정(WHSWHG 재배치 및 Window 창 크기 조절)  2. 그림을 삽입하여 Simulator 동작 시 Vac robot의 동작 이상 확인(-&gt; PICK&amp;PLACE 순서 조정)</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -2852,7 +2860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3609,9 +3617,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3630,12 +3635,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3644,6 +3643,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3732,6 +3740,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3739,9 +3750,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3755,6 +3763,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -26170,8 +26184,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -26553,18 +26567,18 @@
       <c r="D12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="259" t="s">
+      <c r="E12" s="262" t="s">
         <v>295</v>
       </c>
       <c r="F12" s="203"/>
       <c r="G12" s="202" t="s">
         <v>300</v>
       </c>
-      <c r="H12" s="294"/>
+      <c r="H12" s="295"/>
       <c r="I12" s="202" t="s">
         <v>290</v>
       </c>
-      <c r="J12" s="294"/>
+      <c r="J12" s="295"/>
       <c r="K12" s="280" t="s">
         <v>29</v>
       </c>
@@ -26591,12 +26605,12 @@
       <c r="D13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="260"/>
+      <c r="E13" s="263"/>
       <c r="F13" s="205"/>
-      <c r="G13" s="295"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="295"/>
-      <c r="J13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="261"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="261"/>
       <c r="K13" s="270"/>
       <c r="L13" s="282"/>
       <c r="M13" s="1"/>
@@ -26623,18 +26637,18 @@
       <c r="D14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="259" t="s">
+      <c r="E14" s="262" t="s">
         <v>296</v>
       </c>
       <c r="F14" s="203"/>
       <c r="G14" s="202" t="s">
         <v>300</v>
       </c>
-      <c r="H14" s="294"/>
+      <c r="H14" s="295"/>
       <c r="I14" s="202" t="s">
         <v>291</v>
       </c>
-      <c r="J14" s="294"/>
+      <c r="J14" s="295"/>
       <c r="K14" s="280" t="s">
         <v>24</v>
       </c>
@@ -26661,10 +26675,10 @@
       <c r="D15" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="260"/>
+      <c r="E15" s="263"/>
       <c r="F15" s="205"/>
-      <c r="G15" s="295"/>
-      <c r="H15" s="296"/>
+      <c r="G15" s="296"/>
+      <c r="H15" s="261"/>
       <c r="I15" s="297"/>
       <c r="J15" s="298"/>
       <c r="K15" s="283"/>
@@ -26883,14 +26897,14 @@
       <c r="D22" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="258" t="s">
+      <c r="E22" s="257" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="257"/>
-      <c r="G22" s="256" t="s">
+      <c r="F22" s="256"/>
+      <c r="G22" s="255" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="257"/>
+      <c r="H22" s="256"/>
       <c r="I22" s="299" t="s">
         <v>292</v>
       </c>
@@ -26921,12 +26935,12 @@
       <c r="D23" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="254"/>
+      <c r="E23" s="253"/>
       <c r="F23" s="195"/>
       <c r="G23" s="195"/>
       <c r="H23" s="195"/>
-      <c r="I23" s="252"/>
-      <c r="J23" s="252"/>
+      <c r="I23" s="293"/>
+      <c r="J23" s="293"/>
       <c r="K23" s="286"/>
       <c r="L23" s="287"/>
       <c r="M23" s="1"/>
@@ -26953,7 +26967,7 @@
       <c r="D24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="261" t="s">
+      <c r="E24" s="258" t="s">
         <v>297</v>
       </c>
       <c r="F24" s="248"/>
@@ -26968,7 +26982,7 @@
       <c r="K24" s="248" t="s">
         <v>289</v>
       </c>
-      <c r="L24" s="255"/>
+      <c r="L24" s="254"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -27025,7 +27039,7 @@
       <c r="D26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="253" t="s">
+      <c r="E26" s="252" t="s">
         <v>71</v>
       </c>
       <c r="F26" s="195"/>
@@ -27057,7 +27071,7 @@
       <c r="D27" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="254"/>
+      <c r="E27" s="253"/>
       <c r="F27" s="195"/>
       <c r="G27" s="195"/>
       <c r="H27" s="195"/>
@@ -27089,18 +27103,18 @@
       <c r="D28" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="261" t="s">
+      <c r="E28" s="258" t="s">
         <v>298</v>
       </c>
       <c r="F28" s="248"/>
       <c r="G28" s="194" t="s">
         <v>302</v>
       </c>
-      <c r="H28" s="252"/>
+      <c r="H28" s="293"/>
       <c r="I28" s="194" t="s">
         <v>294</v>
       </c>
-      <c r="J28" s="252"/>
+      <c r="J28" s="293"/>
       <c r="K28" s="248" t="s">
         <v>14</v>
       </c>
@@ -27127,12 +27141,12 @@
       <c r="D29" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="262"/>
-      <c r="F29" s="263"/>
-      <c r="G29" s="293"/>
-      <c r="H29" s="293"/>
-      <c r="I29" s="293"/>
-      <c r="J29" s="293"/>
+      <c r="E29" s="259"/>
+      <c r="F29" s="260"/>
+      <c r="G29" s="294"/>
+      <c r="H29" s="294"/>
+      <c r="I29" s="294"/>
+      <c r="J29" s="294"/>
       <c r="K29" s="291"/>
       <c r="L29" s="292"/>
       <c r="M29" s="1"/>
@@ -27210,7 +27224,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="16.5" customHeight="1">
+    <row r="32" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="211"/>
@@ -27238,7 +27252,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="24.95" customHeight="1">
+    <row r="33" spans="1:26" ht="24.95" customHeight="1" thickBot="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="220" t="s">
@@ -27276,7 +27290,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="30" customHeight="1">
+    <row r="34" spans="1:26" ht="60" customHeight="1" thickTop="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="210" t="s">
@@ -27285,8 +27299,10 @@
       <c r="D34" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="249"/>
-      <c r="F34" s="191"/>
+      <c r="E34" s="301" t="s">
+        <v>304</v>
+      </c>
+      <c r="F34" s="302"/>
       <c r="G34" s="242"/>
       <c r="H34" s="191"/>
       <c r="I34" s="242"/>
@@ -27308,15 +27324,15 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="30" customHeight="1">
+    <row r="35" spans="1:26" ht="60" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="211"/>
       <c r="D35" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="249"/>
-      <c r="F35" s="191"/>
+      <c r="E35" s="263"/>
+      <c r="F35" s="205"/>
       <c r="G35" s="242"/>
       <c r="H35" s="191"/>
       <c r="I35" s="242"/>
@@ -27338,7 +27354,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="30" customHeight="1">
+    <row r="36" spans="1:26" ht="60" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="212" t="s">
@@ -27347,8 +27363,10 @@
       <c r="D36" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="249"/>
-      <c r="F36" s="191"/>
+      <c r="E36" s="262" t="s">
+        <v>303</v>
+      </c>
+      <c r="F36" s="203"/>
       <c r="G36" s="242"/>
       <c r="H36" s="191"/>
       <c r="I36" s="242"/>
@@ -27370,15 +27388,15 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="30" customHeight="1">
+    <row r="37" spans="1:26" ht="60" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="211"/>
       <c r="D37" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="249"/>
-      <c r="F37" s="191"/>
+      <c r="E37" s="263"/>
+      <c r="F37" s="205"/>
       <c r="G37" s="242"/>
       <c r="H37" s="191"/>
       <c r="I37" s="242"/>
@@ -27400,7 +27418,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="30" customHeight="1">
+    <row r="38" spans="1:26" ht="50.1" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="212" t="s">
@@ -34366,7 +34384,13 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="159">
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="E10:F11"/>
     <mergeCell ref="G10:H11"/>
     <mergeCell ref="K10:L11"/>
@@ -34382,17 +34406,8 @@
     <mergeCell ref="I28:J29"/>
     <mergeCell ref="G12:H13"/>
     <mergeCell ref="G14:H15"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E20:L21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="E14:F15"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:L4"/>
     <mergeCell ref="C5:D5"/>
@@ -34402,9 +34417,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="E6:L7"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="C8:C9"/>
@@ -34425,8 +34437,19 @@
     <mergeCell ref="D31:L32"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G37:H37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E20:L21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="E36:F37"/>
     <mergeCell ref="E26:L27"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="K24:L24"/>
@@ -34437,18 +34460,7 @@
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="G22:H23"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="G57:H57"/>
@@ -34470,9 +34482,9 @@
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="E57:F57"/>
@@ -34494,8 +34506,9 @@
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C45:C46"/>
@@ -34504,6 +34517,9 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="G52:H52"/>
@@ -34523,11 +34539,11 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E40:F40"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0" footer="0"/>

--- a/A조 주간보고.xlsx
+++ b/A조 주간보고.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEOYUN\Desktop\JusungProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\비트\Desktop\JusungProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADFBA9E-1301-4AF5-A7AF-4F6FD596DF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475038F2-65D5-4C01-82FF-556E22DEF6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="311">
   <si>
     <t>1. System Config Save, Load 테스트 진행
 - 테스트 진행간 발생한 오류 수정
@@ -1186,6 +1186,28 @@
   </si>
   <si>
     <t>중간고사</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main UI 코드에 넣은후 
+오류 제거 및 UI 수정 
+및 개선 사항 토의</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">개선 및 수정한 Main UI
+넣은뒤 작동 테스트 후
+버그 수정 </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 최종 프로그램 
+테스트 후 오류 체크 
+2. 서류 정리</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표 PPT 정리</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -2869,7 +2891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2924,65 +2946,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3002,28 +2982,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3032,37 +3021,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3071,103 +3036,349 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3182,7 +3393,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3195,12 +3409,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3233,326 +3441,38 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3596,23 +3516,230 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3626,9 +3753,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3637,9 +3761,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3671,13 +3792,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3692,97 +3807,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4083,74 +4114,74 @@
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="40"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="26"/>
     </row>
     <row r="4" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="43"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="29"/>
     </row>
     <row r="5" spans="1:33" ht="16.5" customHeight="1">
       <c r="B5" s="3" t="s">
@@ -4251,366 +4282,366 @@
       </c>
     </row>
     <row r="6" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="59" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="58" t="s">
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="59" t="s">
+      <c r="P6" s="36"/>
+      <c r="Q6" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="58" t="s">
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="W6" s="20"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="58" t="s">
+      <c r="W6" s="36"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="52"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="41"/>
     </row>
     <row r="7" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B7" s="26"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="53"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="42"/>
     </row>
     <row r="8" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="64"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="44"/>
     </row>
     <row r="9" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B9" s="26"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="53"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="42"/>
     </row>
     <row r="10" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="64"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="44"/>
     </row>
     <row r="11" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B11" s="26"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="53"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="42"/>
     </row>
     <row r="12" spans="1:33" ht="18" customHeight="1">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="64"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="44"/>
     </row>
     <row r="13" spans="1:33" ht="18" customHeight="1">
-      <c r="B13" s="26"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="53"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="42"/>
     </row>
     <row r="14" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="65"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="46"/>
     </row>
     <row r="15" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B15" s="27"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="63"/>
-      <c r="AF15" s="63"/>
-      <c r="AG15" s="66"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="47"/>
     </row>
     <row r="16" spans="1:33" ht="16.5" customHeight="1">
       <c r="A16" s="1"/>
@@ -4683,74 +4714,74 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="40"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="26"/>
     </row>
     <row r="19" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="42"/>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="43"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="29"/>
     </row>
     <row r="20" spans="1:33" ht="16.5" customHeight="1">
       <c r="B20" s="3" t="s">
@@ -4849,292 +4880,292 @@
       <c r="AG20" s="5"/>
     </row>
     <row r="21" spans="1:33" ht="17.25" customHeight="1">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="32" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="31" t="s">
         <v>72</v>
       </c>
       <c r="F21" s="33"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="32" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
       <c r="N21" s="33"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="32" t="s">
+      <c r="O21" s="20"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="31" t="s">
         <v>72</v>
       </c>
       <c r="T21" s="33"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="32" t="s">
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="31" t="s">
         <v>72</v>
       </c>
       <c r="AA21" s="33"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="52"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="41"/>
     </row>
     <row r="22" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B22" s="29"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="53"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="42"/>
     </row>
     <row r="23" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="52"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="41"/>
     </row>
     <row r="24" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B24" s="29"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="53"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="42"/>
     </row>
     <row r="25" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="52"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="41"/>
     </row>
     <row r="26" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="29"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="53"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="42"/>
     </row>
     <row r="27" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="46"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="34"/>
-      <c r="AG27" s="50"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="22"/>
     </row>
     <row r="28" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B28" s="49"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="62"/>
-      <c r="AD28" s="62"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="51"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="23"/>
     </row>
     <row r="29" spans="1:33" ht="16.5" customHeight="1">
       <c r="B29" s="1"/>
@@ -5205,74 +5236,74 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="40"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="26"/>
     </row>
     <row r="32" spans="1:33" ht="16.5" customHeight="1">
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="42"/>
-      <c r="AD32" s="42"/>
-      <c r="AE32" s="42"/>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="43"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="29"/>
     </row>
     <row r="33" spans="2:33" ht="16.5" customHeight="1">
       <c r="B33" s="3" t="s">
@@ -5373,300 +5404,300 @@
       </c>
     </row>
     <row r="34" spans="2:33" ht="17.25" customHeight="1">
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="31" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="33"/>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="32" t="s">
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="31" t="s">
         <v>72</v>
       </c>
       <c r="K34" s="33"/>
-      <c r="L34" s="47" t="s">
+      <c r="L34" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="47" t="s">
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="32" t="s">
+      <c r="P34" s="18"/>
+      <c r="Q34" s="31" t="s">
         <v>72</v>
       </c>
       <c r="R34" s="33"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="32" t="s">
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="31" t="s">
         <v>72</v>
       </c>
       <c r="Y34" s="33"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="32" t="s">
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="31" t="s">
         <v>72</v>
       </c>
       <c r="AF34" s="33"/>
-      <c r="AG34" s="52"/>
+      <c r="AG34" s="41"/>
     </row>
     <row r="35" spans="2:33" ht="17.25" customHeight="1">
-      <c r="B35" s="29"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="35"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="35"/>
-      <c r="AD35" s="35"/>
-      <c r="AE35" s="21"/>
-      <c r="AF35" s="20"/>
-      <c r="AG35" s="53"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="40"/>
+      <c r="AD35" s="40"/>
+      <c r="AE35" s="34"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="42"/>
     </row>
     <row r="36" spans="2:33" ht="16.5" customHeight="1">
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="34"/>
-      <c r="AD36" s="34"/>
-      <c r="AE36" s="21"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="52"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="34"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="41"/>
     </row>
     <row r="37" spans="2:33" ht="16.5" customHeight="1">
-      <c r="B37" s="29"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="35"/>
-      <c r="AD37" s="35"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="53"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="40"/>
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="40"/>
+      <c r="AD37" s="40"/>
+      <c r="AE37" s="34"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="42"/>
     </row>
     <row r="38" spans="2:33" ht="30" customHeight="1">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="52"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="34"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="41"/>
     </row>
     <row r="39" spans="2:33" ht="30" customHeight="1">
-      <c r="B39" s="29"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="35"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="20"/>
-      <c r="AG39" s="53"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="40"/>
+      <c r="AC39" s="40"/>
+      <c r="AD39" s="40"/>
+      <c r="AE39" s="34"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="42"/>
     </row>
     <row r="40" spans="2:33" ht="16.5" customHeight="1">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="20"/>
-      <c r="AG40" s="50"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="18"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
+      <c r="AE40" s="34"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="22"/>
     </row>
     <row r="41" spans="2:33" ht="16.5" customHeight="1">
-      <c r="B41" s="49"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="24"/>
-      <c r="Z41" s="44"/>
-      <c r="AA41" s="44"/>
-      <c r="AB41" s="44"/>
-      <c r="AC41" s="44"/>
-      <c r="AD41" s="44"/>
-      <c r="AE41" s="22"/>
-      <c r="AF41" s="24"/>
-      <c r="AG41" s="51"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="23"/>
     </row>
     <row r="42" spans="2:33" ht="16.5" customHeight="1">
       <c r="B42" s="1"/>
@@ -13196,6 +13227,248 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="266">
+    <mergeCell ref="C6:I15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:F28"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B18:AG19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:K41"/>
+    <mergeCell ref="L34:L41"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="V40:V41"/>
+    <mergeCell ref="W40:W41"/>
+    <mergeCell ref="Z40:Z41"/>
+    <mergeCell ref="AA40:AA41"/>
+    <mergeCell ref="AB40:AB41"/>
+    <mergeCell ref="AC40:AC41"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="Z36:Z37"/>
+    <mergeCell ref="AA36:AA37"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="U40:U41"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:R41"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="O34:O41"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:D41"/>
+    <mergeCell ref="E34:E41"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AG40:AG41"/>
+    <mergeCell ref="AD34:AD35"/>
+    <mergeCell ref="AE34:AF41"/>
+    <mergeCell ref="AG34:AG35"/>
+    <mergeCell ref="AD36:AD37"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="AD40:AD41"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="X34:Y41"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="AC34:AC35"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="AB36:AB37"/>
+    <mergeCell ref="AC36:AC37"/>
+    <mergeCell ref="V38:V39"/>
+    <mergeCell ref="AG38:AG39"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="Z38:Z39"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:P15"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="Q6:Q15"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:W15"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AD15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="B3:AG4"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K15"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="AF14:AF15"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AF10:AF11"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="AG21:AG22"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AF23:AF24"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="AE21:AE22"/>
+    <mergeCell ref="AF21:AF22"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AD25:AD26"/>
+    <mergeCell ref="AE25:AE26"/>
+    <mergeCell ref="AF25:AF26"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
     <mergeCell ref="AB27:AB28"/>
     <mergeCell ref="AC27:AC28"/>
     <mergeCell ref="AD27:AD28"/>
@@ -13220,248 +13493,6 @@
     <mergeCell ref="O25:O26"/>
     <mergeCell ref="P25:P26"/>
     <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="AE25:AE26"/>
-    <mergeCell ref="AF25:AF26"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AF23:AF24"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="AE21:AE22"/>
-    <mergeCell ref="AF21:AF22"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="AG21:AG22"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AG10:AG11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AD15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="B3:AG4"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K15"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="AF14:AF15"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="AF10:AF11"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:P15"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="Q6:Q15"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:W15"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="AG38:AG39"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="AB38:AB39"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="Z38:Z39"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AG40:AG41"/>
-    <mergeCell ref="AD34:AD35"/>
-    <mergeCell ref="AE34:AF41"/>
-    <mergeCell ref="AG34:AG35"/>
-    <mergeCell ref="AD36:AD37"/>
-    <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="AD38:AD39"/>
-    <mergeCell ref="AD40:AD41"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="X34:Y41"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="AC34:AC35"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="AB36:AB37"/>
-    <mergeCell ref="AC36:AC37"/>
-    <mergeCell ref="V38:V39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:D41"/>
-    <mergeCell ref="E34:E41"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="U40:U41"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:R41"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="O34:O41"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="V40:V41"/>
-    <mergeCell ref="W40:W41"/>
-    <mergeCell ref="Z40:Z41"/>
-    <mergeCell ref="AA40:AA41"/>
-    <mergeCell ref="AB40:AB41"/>
-    <mergeCell ref="AC40:AC41"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="Z36:Z37"/>
-    <mergeCell ref="AA36:AA37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:K41"/>
-    <mergeCell ref="L34:L41"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="C6:I15"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:F28"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B18:AG19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S6:S7"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0" footer="0"/>
@@ -13499,140 +13530,140 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1">
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="180" t="s">
+      <c r="D2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="142"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
-      <c r="C3" s="89"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="76"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="1:26" ht="30" customHeight="1">
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="181" t="s">
+      <c r="D4" s="82"/>
+      <c r="E4" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="178" t="s">
+      <c r="F4" s="84"/>
+      <c r="G4" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="178" t="s">
+      <c r="H4" s="84"/>
+      <c r="I4" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="146"/>
-      <c r="K4" s="178" t="s">
+      <c r="J4" s="84"/>
+      <c r="K4" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="147"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="104" t="s">
         <v>199</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="179" t="s">
+      <c r="E5" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="174"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="72"/>
     </row>
     <row r="6" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C6" s="89"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="74"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="102"/>
     </row>
     <row r="7" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="96" t="s">
         <v>203</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="172" t="s">
+      <c r="E7" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="74"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="102"/>
     </row>
     <row r="8" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C8" s="89"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="173"/>
-      <c r="L8" s="174"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="72"/>
     </row>
     <row r="9" spans="1:26" ht="34.5" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="96" t="s">
         <v>198</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="175" t="s">
+      <c r="E9" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="74"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="102"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -13649,92 +13680,92 @@
       <c r="Z9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C10" s="89"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="176" t="s">
+      <c r="E10" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="124"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="86"/>
     </row>
     <row r="11" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="96" t="s">
         <v>208</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="177" t="s">
+      <c r="E11" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="166" t="s">
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="168"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="107"/>
     </row>
     <row r="12" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C12" s="89"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="166" t="s">
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="92" t="s">
         <v>266</v>
       </c>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="168"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="107"/>
     </row>
     <row r="13" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="96" t="s">
         <v>227</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="177" t="s">
+      <c r="E13" s="113" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="166" t="s">
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="168"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107"/>
     </row>
     <row r="14" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C14" s="78"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="169" t="s">
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="171"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="110"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="D15" s="2"/>
@@ -13748,106 +13779,106 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="24.75" customHeight="1">
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="142"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="77"/>
     </row>
     <row r="17" spans="1:26" ht="24.75" customHeight="1">
-      <c r="C17" s="78"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="81"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="123"/>
     </row>
     <row r="18" spans="1:26" ht="30" customHeight="1">
-      <c r="C18" s="164" t="s">
+      <c r="C18" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="165"/>
-      <c r="E18" s="188" t="s">
+      <c r="D18" s="127"/>
+      <c r="E18" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="162"/>
-      <c r="G18" s="161" t="s">
+      <c r="F18" s="99"/>
+      <c r="G18" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="162"/>
-      <c r="I18" s="161" t="s">
+      <c r="H18" s="99"/>
+      <c r="I18" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="162"/>
-      <c r="K18" s="161" t="s">
+      <c r="J18" s="99"/>
+      <c r="K18" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="L18" s="163"/>
+      <c r="L18" s="125"/>
     </row>
     <row r="19" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="104" t="s">
         <v>222</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="172" t="s">
+      <c r="E19" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="74"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="102"/>
     </row>
     <row r="20" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C20" s="89"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="76"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="80"/>
     </row>
     <row r="21" spans="1:26" ht="34.5" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="96" t="s">
         <v>190</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="189" t="s">
+      <c r="E21" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="124"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="86"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -13864,140 +13895,140 @@
       <c r="Z21" s="10"/>
     </row>
     <row r="22" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C22" s="89"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="122" t="s">
+      <c r="E22" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="124"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="86"/>
     </row>
     <row r="23" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="96" t="s">
         <v>196</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="122" t="s">
+      <c r="E23" s="87" t="s">
         <v>276</v>
       </c>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="124"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="86"/>
     </row>
     <row r="24" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C24" s="89"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="187" t="s">
+      <c r="E24" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160" t="s">
+      <c r="F24" s="93"/>
+      <c r="G24" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160" t="s">
+      <c r="H24" s="93"/>
+      <c r="I24" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="160"/>
-      <c r="K24" s="185" t="s">
+      <c r="J24" s="93"/>
+      <c r="K24" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="L24" s="186"/>
+      <c r="L24" s="95"/>
     </row>
     <row r="25" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="96" t="s">
         <v>195</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="183" t="s">
+      <c r="E25" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="76"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="80"/>
     </row>
     <row r="26" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C26" s="89"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="184" t="s">
+      <c r="E26" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="97"/>
-      <c r="G26" s="166" t="s">
+      <c r="F26" s="91"/>
+      <c r="G26" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="97"/>
-      <c r="I26" s="166" t="s">
+      <c r="H26" s="91"/>
+      <c r="I26" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="97"/>
-      <c r="K26" s="182" t="s">
+      <c r="J26" s="91"/>
+      <c r="K26" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="L26" s="124"/>
+      <c r="L26" s="86"/>
     </row>
     <row r="27" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="96" t="s">
         <v>193</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="90" t="s">
+      <c r="E27" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="91"/>
-      <c r="G27" s="94" t="s">
+      <c r="F27" s="114"/>
+      <c r="G27" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="91"/>
-      <c r="I27" s="94" t="s">
+      <c r="H27" s="114"/>
+      <c r="I27" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="91"/>
-      <c r="K27" s="73" t="s">
+      <c r="J27" s="114"/>
+      <c r="K27" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="L27" s="150"/>
+      <c r="L27" s="139"/>
     </row>
     <row r="28" spans="1:26" ht="34.5" customHeight="1">
-      <c r="C28" s="78"/>
+      <c r="C28" s="116"/>
       <c r="D28" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="158"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="151" t="s">
+      <c r="E28" s="119"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="152"/>
+      <c r="L28" s="141"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1">
       <c r="D29" s="2"/>
@@ -14011,257 +14042,257 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="24.75" customHeight="1">
-      <c r="C30" s="129" t="s">
+      <c r="C30" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="104" t="s">
+      <c r="D30" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="142"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="24.75" customHeight="1">
-      <c r="C31" s="89"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="144"/>
-      <c r="L31" s="145"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="130"/>
     </row>
     <row r="32" spans="1:26" ht="30" customHeight="1">
-      <c r="C32" s="130" t="s">
+      <c r="C32" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="148"/>
+      <c r="D32" s="82"/>
       <c r="E32" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="146"/>
-      <c r="G32" s="109" t="s">
+      <c r="F32" s="84"/>
+      <c r="G32" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="146"/>
-      <c r="I32" s="109" t="s">
+      <c r="H32" s="84"/>
+      <c r="I32" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="J32" s="146"/>
-      <c r="K32" s="109" t="s">
+      <c r="J32" s="84"/>
+      <c r="K32" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="L32" s="147"/>
+      <c r="L32" s="69"/>
     </row>
     <row r="33" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C33" s="133" t="s">
+      <c r="C33" s="104" t="s">
         <v>194</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="153" t="s">
+      <c r="E33" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="154"/>
-      <c r="G33" s="155" t="s">
+      <c r="F33" s="143"/>
+      <c r="G33" s="144" t="s">
         <v>145</v>
       </c>
-      <c r="H33" s="155"/>
-      <c r="I33" s="155" t="s">
+      <c r="H33" s="144"/>
+      <c r="I33" s="144" t="s">
         <v>145</v>
       </c>
-      <c r="J33" s="155"/>
-      <c r="K33" s="156" t="s">
+      <c r="J33" s="144"/>
+      <c r="K33" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="L33" s="157"/>
+      <c r="L33" s="146"/>
     </row>
     <row r="34" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C34" s="89"/>
+      <c r="C34" s="74"/>
       <c r="D34" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="149" t="s">
+      <c r="E34" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="135"/>
-      <c r="G34" s="138" t="s">
+      <c r="F34" s="134"/>
+      <c r="G34" s="135" t="s">
         <v>87</v>
       </c>
       <c r="H34" s="136"/>
-      <c r="I34" s="138" t="s">
+      <c r="I34" s="135" t="s">
         <v>87</v>
       </c>
       <c r="J34" s="136"/>
-      <c r="K34" s="138" t="s">
+      <c r="K34" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="L34" s="139"/>
+      <c r="L34" s="137"/>
     </row>
     <row r="35" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C35" s="77" t="s">
+      <c r="C35" s="96" t="s">
         <v>213</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="122" t="s">
+      <c r="E35" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="124"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="86"/>
     </row>
     <row r="36" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C36" s="89"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="122" t="s">
+      <c r="E36" s="87" t="s">
         <v>264</v>
       </c>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="123"/>
-      <c r="L36" s="124"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="86"/>
     </row>
     <row r="37" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C37" s="77" t="s">
+      <c r="C37" s="96" t="s">
         <v>231</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="122" t="s">
+      <c r="E37" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="124"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="86"/>
     </row>
     <row r="38" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C38" s="89"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="134" t="s">
+      <c r="E38" s="159" t="s">
         <v>138</v>
       </c>
-      <c r="F38" s="135"/>
+      <c r="F38" s="134"/>
       <c r="G38" s="136" t="s">
         <v>138</v>
       </c>
       <c r="H38" s="136"/>
-      <c r="I38" s="137" t="s">
+      <c r="I38" s="160" t="s">
         <v>183</v>
       </c>
-      <c r="J38" s="135"/>
-      <c r="K38" s="138" t="s">
+      <c r="J38" s="134"/>
+      <c r="K38" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="L38" s="139"/>
+      <c r="L38" s="137"/>
     </row>
     <row r="39" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C39" s="77" t="s">
+      <c r="C39" s="96" t="s">
         <v>230</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="90" t="s">
+      <c r="E39" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="F39" s="91"/>
-      <c r="G39" s="94" t="s">
+      <c r="F39" s="114"/>
+      <c r="G39" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="H39" s="95"/>
-      <c r="I39" s="73" t="s">
+      <c r="H39" s="101"/>
+      <c r="I39" s="138" t="s">
         <v>175</v>
       </c>
-      <c r="J39" s="91"/>
-      <c r="K39" s="73" t="s">
+      <c r="J39" s="114"/>
+      <c r="K39" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="L39" s="74"/>
+      <c r="L39" s="102"/>
     </row>
     <row r="40" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C40" s="89"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="92"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="76"/>
+      <c r="E40" s="189"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="80"/>
     </row>
     <row r="41" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C41" s="77" t="s">
+      <c r="C41" s="96" t="s">
         <v>229</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="127" t="s">
+      <c r="E41" s="153" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="97"/>
-      <c r="G41" s="82" t="s">
+      <c r="F41" s="91"/>
+      <c r="G41" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="H41" s="97"/>
-      <c r="I41" s="68" t="s">
+      <c r="H41" s="91"/>
+      <c r="I41" s="183" t="s">
         <v>152</v>
       </c>
-      <c r="J41" s="97"/>
-      <c r="K41" s="79" t="s">
+      <c r="J41" s="91"/>
+      <c r="K41" s="187" t="s">
         <v>55</v>
       </c>
-      <c r="L41" s="74"/>
+      <c r="L41" s="102"/>
     </row>
     <row r="42" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C42" s="78"/>
+      <c r="C42" s="116"/>
       <c r="D42" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="128" t="s">
+      <c r="E42" s="154" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="71"/>
-      <c r="G42" s="70" t="s">
+      <c r="F42" s="155"/>
+      <c r="G42" s="184" t="s">
         <v>75</v>
       </c>
-      <c r="H42" s="71"/>
-      <c r="I42" s="72" t="s">
+      <c r="H42" s="155"/>
+      <c r="I42" s="185" t="s">
         <v>139</v>
       </c>
-      <c r="J42" s="71"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="81"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="121"/>
+      <c r="L42" s="123"/>
     </row>
     <row r="43" spans="3:12" ht="16.5" customHeight="1">
       <c r="D43" s="2"/>
@@ -14275,256 +14306,256 @@
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="3:12" ht="24.75" customHeight="1">
-      <c r="C44" s="129" t="s">
+      <c r="C44" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="104" t="s">
+      <c r="D44" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="106"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="169"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="169"/>
+      <c r="L44" s="170"/>
     </row>
     <row r="45" spans="3:12" ht="24.75" customHeight="1">
-      <c r="C45" s="87"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="108"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="171"/>
+      <c r="F45" s="171"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="171"/>
+      <c r="I45" s="171"/>
+      <c r="J45" s="171"/>
+      <c r="K45" s="171"/>
+      <c r="L45" s="172"/>
     </row>
     <row r="46" spans="3:12" ht="30" customHeight="1">
-      <c r="C46" s="130" t="s">
+      <c r="C46" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="131"/>
+      <c r="D46" s="157"/>
       <c r="E46" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="F46" s="110"/>
-      <c r="G46" s="109" t="s">
+      <c r="F46" s="158"/>
+      <c r="G46" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="H46" s="110"/>
-      <c r="I46" s="109" t="s">
+      <c r="H46" s="158"/>
+      <c r="I46" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="J46" s="110"/>
-      <c r="K46" s="109" t="s">
+      <c r="J46" s="158"/>
+      <c r="K46" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="L46" s="111"/>
+      <c r="L46" s="173"/>
     </row>
     <row r="47" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C47" s="133" t="s">
+      <c r="C47" s="104" t="s">
         <v>200</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="125" t="s">
+      <c r="E47" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="F47" s="126"/>
-      <c r="G47" s="112" t="s">
+      <c r="F47" s="148"/>
+      <c r="G47" s="174" t="s">
         <v>160</v>
       </c>
-      <c r="H47" s="113"/>
-      <c r="I47" s="114" t="s">
+      <c r="H47" s="175"/>
+      <c r="I47" s="176" t="s">
         <v>136</v>
       </c>
-      <c r="J47" s="113"/>
-      <c r="K47" s="115" t="s">
+      <c r="J47" s="175"/>
+      <c r="K47" s="177" t="s">
         <v>150</v>
       </c>
-      <c r="L47" s="116"/>
+      <c r="L47" s="178"/>
     </row>
     <row r="48" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C48" s="87"/>
+      <c r="C48" s="156"/>
       <c r="D48" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="99"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="82" t="s">
+      <c r="E48" s="149"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="168" t="s">
         <v>110</v>
       </c>
-      <c r="H48" s="69"/>
-      <c r="I48" s="68" t="s">
+      <c r="H48" s="152"/>
+      <c r="I48" s="183" t="s">
         <v>115</v>
       </c>
-      <c r="J48" s="69"/>
-      <c r="K48" s="117"/>
-      <c r="L48" s="118"/>
+      <c r="J48" s="152"/>
+      <c r="K48" s="179"/>
+      <c r="L48" s="180"/>
     </row>
     <row r="49" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C49" s="77" t="s">
+      <c r="C49" s="96" t="s">
         <v>214</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="88" t="s">
+      <c r="E49" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="69"/>
-      <c r="G49" s="82" t="s">
+      <c r="F49" s="152"/>
+      <c r="G49" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="69"/>
-      <c r="I49" s="83" t="s">
+      <c r="H49" s="152"/>
+      <c r="I49" s="188" t="s">
         <v>274</v>
       </c>
-      <c r="J49" s="84"/>
-      <c r="K49" s="117"/>
-      <c r="L49" s="118"/>
+      <c r="J49" s="162"/>
+      <c r="K49" s="179"/>
+      <c r="L49" s="180"/>
     </row>
     <row r="50" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C50" s="87"/>
+      <c r="C50" s="156"/>
       <c r="D50" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="88" t="s">
+      <c r="E50" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="F50" s="69"/>
-      <c r="G50" s="82" t="s">
+      <c r="F50" s="152"/>
+      <c r="G50" s="168" t="s">
         <v>261</v>
       </c>
-      <c r="H50" s="69"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="117"/>
-      <c r="L50" s="118"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="167"/>
+      <c r="J50" s="150"/>
+      <c r="K50" s="179"/>
+      <c r="L50" s="180"/>
     </row>
     <row r="51" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C51" s="77" t="s">
+      <c r="C51" s="96" t="s">
         <v>212</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="88" t="s">
+      <c r="E51" s="151" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="69"/>
-      <c r="G51" s="82" t="s">
+      <c r="F51" s="152"/>
+      <c r="G51" s="168" t="s">
         <v>182</v>
       </c>
-      <c r="H51" s="69"/>
-      <c r="I51" s="68" t="s">
+      <c r="H51" s="152"/>
+      <c r="I51" s="183" t="s">
         <v>137</v>
       </c>
-      <c r="J51" s="69"/>
-      <c r="K51" s="117"/>
-      <c r="L51" s="118"/>
+      <c r="J51" s="152"/>
+      <c r="K51" s="179"/>
+      <c r="L51" s="180"/>
     </row>
     <row r="52" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C52" s="121"/>
+      <c r="C52" s="186"/>
       <c r="D52" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="88" t="s">
+      <c r="E52" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="69"/>
-      <c r="G52" s="88" t="s">
+      <c r="F52" s="152"/>
+      <c r="G52" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="H52" s="69"/>
-      <c r="I52" s="68" t="s">
+      <c r="H52" s="152"/>
+      <c r="I52" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="J52" s="69"/>
-      <c r="K52" s="117"/>
-      <c r="L52" s="118"/>
+      <c r="J52" s="152"/>
+      <c r="K52" s="179"/>
+      <c r="L52" s="180"/>
     </row>
     <row r="53" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C53" s="77" t="s">
+      <c r="C53" s="96" t="s">
         <v>205</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="98" t="s">
+      <c r="E53" s="161" t="s">
         <v>228</v>
       </c>
-      <c r="F53" s="84"/>
-      <c r="G53" s="103" t="s">
+      <c r="F53" s="162"/>
+      <c r="G53" s="166" t="s">
         <v>228</v>
       </c>
-      <c r="H53" s="84"/>
-      <c r="I53" s="103" t="s">
+      <c r="H53" s="162"/>
+      <c r="I53" s="166" t="s">
         <v>112</v>
       </c>
-      <c r="J53" s="84"/>
-      <c r="K53" s="117"/>
-      <c r="L53" s="118"/>
+      <c r="J53" s="162"/>
+      <c r="K53" s="179"/>
+      <c r="L53" s="180"/>
     </row>
     <row r="54" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C54" s="87"/>
+      <c r="C54" s="156"/>
       <c r="D54" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="99"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="86"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="86"/>
-      <c r="K54" s="117"/>
-      <c r="L54" s="118"/>
+      <c r="E54" s="149"/>
+      <c r="F54" s="150"/>
+      <c r="G54" s="167"/>
+      <c r="H54" s="150"/>
+      <c r="I54" s="167"/>
+      <c r="J54" s="150"/>
+      <c r="K54" s="179"/>
+      <c r="L54" s="180"/>
     </row>
     <row r="55" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C55" s="77" t="s">
+      <c r="C55" s="96" t="s">
         <v>201</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="88" t="s">
+      <c r="E55" s="151" t="s">
         <v>170</v>
       </c>
-      <c r="F55" s="69"/>
-      <c r="G55" s="82" t="s">
+      <c r="F55" s="152"/>
+      <c r="G55" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="H55" s="69"/>
-      <c r="I55" s="68" t="s">
+      <c r="H55" s="152"/>
+      <c r="I55" s="183" t="s">
         <v>153</v>
       </c>
-      <c r="J55" s="69"/>
-      <c r="K55" s="117"/>
-      <c r="L55" s="118"/>
+      <c r="J55" s="152"/>
+      <c r="K55" s="179"/>
+      <c r="L55" s="180"/>
     </row>
     <row r="56" spans="3:12" ht="34.5" customHeight="1">
-      <c r="C56" s="100"/>
+      <c r="C56" s="163"/>
       <c r="D56" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E56" s="101" t="s">
+      <c r="E56" s="164" t="s">
         <v>181</v>
       </c>
-      <c r="F56" s="102"/>
-      <c r="G56" s="70" t="s">
+      <c r="F56" s="165"/>
+      <c r="G56" s="184" t="s">
         <v>47</v>
       </c>
-      <c r="H56" s="102"/>
-      <c r="I56" s="72" t="s">
+      <c r="H56" s="165"/>
+      <c r="I56" s="185" t="s">
         <v>153</v>
       </c>
-      <c r="J56" s="102"/>
-      <c r="K56" s="119"/>
-      <c r="L56" s="120"/>
+      <c r="J56" s="165"/>
+      <c r="K56" s="181"/>
+      <c r="L56" s="182"/>
     </row>
     <row r="57" spans="3:12" ht="16.5" customHeight="1">
       <c r="D57" s="2"/>
@@ -17472,6 +17503,111 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="129">
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K39:L40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="K41:L42"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="G39:H40"/>
+    <mergeCell ref="I39:J40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:F54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G53:H54"/>
+    <mergeCell ref="I53:J54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="D44:L45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L56"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:L37"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:L35"/>
+    <mergeCell ref="E36:L36"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="D30:L31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="G27:H28"/>
+    <mergeCell ref="D16:L17"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E7:L8"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="E11:H12"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:H14"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="E5:L5"/>
     <mergeCell ref="C2:C3"/>
@@ -17496,111 +17632,6 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="I26:J26"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E7:L8"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="E11:H12"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="D16:L17"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:L35"/>
-    <mergeCell ref="E36:L36"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="D30:L31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:L37"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:F54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G53:H54"/>
-    <mergeCell ref="I53:J54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="D44:L45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L56"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K39:L40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="G39:H40"/>
-    <mergeCell ref="I39:J40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0" footer="0"/>
@@ -17685,20 +17716,20 @@
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="222" t="s">
+      <c r="C3" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="192" t="s">
+      <c r="D3" s="215" t="s">
         <v>282</v>
       </c>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="194"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="217"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -17717,16 +17748,16 @@
     <row r="4" spans="1:26" ht="16.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="196"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="219"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -17745,26 +17776,26 @@
     <row r="5" spans="1:26" ht="30" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="223" t="s">
+      <c r="C5" s="220" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="224"/>
-      <c r="E5" s="197" t="s">
+      <c r="D5" s="221"/>
+      <c r="E5" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="199" t="s">
+      <c r="F5" s="223"/>
+      <c r="G5" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="198"/>
-      <c r="I5" s="199" t="s">
+      <c r="H5" s="223"/>
+      <c r="I5" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="198"/>
-      <c r="K5" s="199" t="s">
+      <c r="J5" s="223"/>
+      <c r="K5" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="202"/>
+      <c r="L5" s="224"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -17783,28 +17814,28 @@
     <row r="6" spans="1:26" ht="34.5" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="227" t="s">
+      <c r="C6" s="210" t="s">
         <v>210</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="200" t="s">
+      <c r="E6" s="190" t="s">
         <v>271</v>
       </c>
       <c r="F6" s="191"/>
-      <c r="G6" s="190" t="s">
+      <c r="G6" s="192" t="s">
         <v>271</v>
       </c>
       <c r="H6" s="191"/>
-      <c r="I6" s="190" t="s">
+      <c r="I6" s="192" t="s">
         <v>271</v>
       </c>
       <c r="J6" s="191"/>
-      <c r="K6" s="190" t="s">
+      <c r="K6" s="192" t="s">
         <v>271</v>
       </c>
-      <c r="L6" s="201"/>
+      <c r="L6" s="193"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -17823,26 +17854,26 @@
     <row r="7" spans="1:26" ht="30" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="220"/>
+      <c r="C7" s="211"/>
       <c r="D7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="200" t="s">
+      <c r="E7" s="190" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="191"/>
-      <c r="G7" s="190" t="s">
+      <c r="G7" s="192" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="191"/>
-      <c r="I7" s="190" t="s">
+      <c r="I7" s="192" t="s">
         <v>46</v>
       </c>
       <c r="J7" s="191"/>
-      <c r="K7" s="190" t="s">
+      <c r="K7" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="201"/>
+      <c r="L7" s="193"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -17861,28 +17892,28 @@
     <row r="8" spans="1:26" ht="34.5" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="226" t="s">
+      <c r="C8" s="212" t="s">
         <v>242</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="200" t="s">
+      <c r="E8" s="190" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="191"/>
-      <c r="G8" s="190" t="s">
+      <c r="G8" s="192" t="s">
         <v>41</v>
       </c>
       <c r="H8" s="191"/>
-      <c r="I8" s="190" t="s">
+      <c r="I8" s="192" t="s">
         <v>41</v>
       </c>
       <c r="J8" s="191"/>
-      <c r="K8" s="190" t="s">
+      <c r="K8" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="201"/>
+      <c r="L8" s="193"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -17901,26 +17932,26 @@
     <row r="9" spans="1:26" ht="34.5" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="220"/>
+      <c r="C9" s="211"/>
       <c r="D9" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="200" t="s">
+      <c r="E9" s="190" t="s">
         <v>149</v>
       </c>
       <c r="F9" s="191"/>
-      <c r="G9" s="190" t="s">
+      <c r="G9" s="192" t="s">
         <v>95</v>
       </c>
       <c r="H9" s="191"/>
-      <c r="I9" s="190" t="s">
+      <c r="I9" s="192" t="s">
         <v>46</v>
       </c>
       <c r="J9" s="191"/>
-      <c r="K9" s="190" t="s">
+      <c r="K9" s="192" t="s">
         <v>284</v>
       </c>
-      <c r="L9" s="201"/>
+      <c r="L9" s="193"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -17939,28 +17970,28 @@
     <row r="10" spans="1:26" ht="34.5" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="212" t="s">
         <v>256</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="200" t="s">
+      <c r="E10" s="190" t="s">
         <v>263</v>
       </c>
       <c r="F10" s="191"/>
-      <c r="G10" s="190" t="s">
+      <c r="G10" s="192" t="s">
         <v>263</v>
       </c>
       <c r="H10" s="191"/>
-      <c r="I10" s="190" t="s">
+      <c r="I10" s="192" t="s">
         <v>113</v>
       </c>
       <c r="J10" s="191"/>
-      <c r="K10" s="190" t="s">
+      <c r="K10" s="192" t="s">
         <v>163</v>
       </c>
-      <c r="L10" s="201"/>
+      <c r="L10" s="193"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -17979,26 +18010,26 @@
     <row r="11" spans="1:26" ht="69" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="221"/>
+      <c r="C11" s="213"/>
       <c r="D11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="190" t="s">
+      <c r="E11" s="192" t="s">
         <v>159</v>
       </c>
       <c r="F11" s="191"/>
-      <c r="G11" s="190" t="s">
+      <c r="G11" s="192" t="s">
         <v>159</v>
       </c>
       <c r="H11" s="191"/>
-      <c r="I11" s="190" t="s">
+      <c r="I11" s="192" t="s">
         <v>113</v>
       </c>
       <c r="J11" s="191"/>
-      <c r="K11" s="190" t="s">
+      <c r="K11" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="201"/>
+      <c r="L11" s="193"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -18017,22 +18048,22 @@
     <row r="12" spans="1:26" ht="30" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="219" t="s">
+      <c r="C12" s="230" t="s">
         <v>215</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="209" t="s">
+      <c r="E12" s="232" t="s">
         <v>192</v>
       </c>
-      <c r="F12" s="210"/>
-      <c r="G12" s="210"/>
-      <c r="H12" s="210"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="210"/>
-      <c r="K12" s="210"/>
-      <c r="L12" s="211"/>
+      <c r="F12" s="233"/>
+      <c r="G12" s="233"/>
+      <c r="H12" s="233"/>
+      <c r="I12" s="233"/>
+      <c r="J12" s="233"/>
+      <c r="K12" s="233"/>
+      <c r="L12" s="234"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -18051,18 +18082,18 @@
     <row r="13" spans="1:26" ht="30" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="220"/>
+      <c r="C13" s="211"/>
       <c r="D13" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="212"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="213"/>
+      <c r="E13" s="235"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="236"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -18081,20 +18112,20 @@
     <row r="14" spans="1:26" ht="30" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="219" t="s">
+      <c r="C14" s="230" t="s">
         <v>207</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="212"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="213"/>
+      <c r="E14" s="235"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="236"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
@@ -18113,18 +18144,18 @@
     <row r="15" spans="1:26" ht="30" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="221"/>
+      <c r="C15" s="213"/>
       <c r="D15" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="214"/>
-      <c r="F15" s="215"/>
-      <c r="G15" s="215"/>
-      <c r="H15" s="215"/>
-      <c r="I15" s="215"/>
-      <c r="J15" s="215"/>
-      <c r="K15" s="215"/>
-      <c r="L15" s="216"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="238"/>
+      <c r="G15" s="238"/>
+      <c r="H15" s="238"/>
+      <c r="I15" s="238"/>
+      <c r="J15" s="238"/>
+      <c r="K15" s="238"/>
+      <c r="L15" s="239"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -18171,20 +18202,20 @@
     <row r="17" spans="1:26" ht="16.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="222" t="s">
+      <c r="C17" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="192" t="s">
+      <c r="D17" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="193"/>
-      <c r="L17" s="194"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="216"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="216"/>
+      <c r="K17" s="216"/>
+      <c r="L17" s="217"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -18203,16 +18234,16 @@
     <row r="18" spans="1:26" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="220"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="196"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="219"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -18231,26 +18262,26 @@
     <row r="19" spans="1:26" ht="30" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="223" t="s">
+      <c r="C19" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="224"/>
-      <c r="E19" s="197" t="s">
+      <c r="D19" s="221"/>
+      <c r="E19" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="198"/>
-      <c r="G19" s="199" t="s">
+      <c r="F19" s="223"/>
+      <c r="G19" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="198"/>
-      <c r="I19" s="199" t="s">
+      <c r="H19" s="223"/>
+      <c r="I19" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="198"/>
-      <c r="K19" s="199" t="s">
+      <c r="J19" s="223"/>
+      <c r="K19" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="202"/>
+      <c r="L19" s="224"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -18269,22 +18300,22 @@
     <row r="20" spans="1:26" ht="30" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="225" t="s">
+      <c r="C20" s="231" t="s">
         <v>225</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="209" t="s">
+      <c r="E20" s="232" t="s">
         <v>192</v>
       </c>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="210"/>
-      <c r="K20" s="210"/>
-      <c r="L20" s="211"/>
+      <c r="F20" s="233"/>
+      <c r="G20" s="233"/>
+      <c r="H20" s="233"/>
+      <c r="I20" s="233"/>
+      <c r="J20" s="233"/>
+      <c r="K20" s="233"/>
+      <c r="L20" s="234"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -18303,18 +18334,18 @@
     <row r="21" spans="1:26" ht="30" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="220"/>
+      <c r="C21" s="211"/>
       <c r="D21" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="214"/>
-      <c r="F21" s="215"/>
-      <c r="G21" s="215"/>
-      <c r="H21" s="215"/>
-      <c r="I21" s="215"/>
-      <c r="J21" s="215"/>
-      <c r="K21" s="215"/>
-      <c r="L21" s="216"/>
+      <c r="E21" s="237"/>
+      <c r="F21" s="238"/>
+      <c r="G21" s="238"/>
+      <c r="H21" s="238"/>
+      <c r="I21" s="238"/>
+      <c r="J21" s="238"/>
+      <c r="K21" s="238"/>
+      <c r="L21" s="239"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -18333,28 +18364,28 @@
     <row r="22" spans="1:26" ht="34.5" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="226" t="s">
+      <c r="C22" s="212" t="s">
         <v>220</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="200" t="s">
+      <c r="E22" s="190" t="s">
         <v>111</v>
       </c>
       <c r="F22" s="191"/>
-      <c r="G22" s="190" t="s">
+      <c r="G22" s="192" t="s">
         <v>135</v>
       </c>
       <c r="H22" s="191"/>
-      <c r="I22" s="190" t="s">
+      <c r="I22" s="192" t="s">
         <v>131</v>
       </c>
       <c r="J22" s="191"/>
-      <c r="K22" s="217" t="s">
+      <c r="K22" s="240" t="s">
         <v>131</v>
       </c>
-      <c r="L22" s="218"/>
+      <c r="L22" s="241"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
@@ -18373,26 +18404,26 @@
     <row r="23" spans="1:26" ht="34.5" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="220"/>
+      <c r="C23" s="211"/>
       <c r="D23" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="200" t="s">
+      <c r="E23" s="190" t="s">
         <v>140</v>
       </c>
       <c r="F23" s="191"/>
-      <c r="G23" s="190" t="s">
+      <c r="G23" s="192" t="s">
         <v>76</v>
       </c>
       <c r="H23" s="191"/>
-      <c r="I23" s="190" t="s">
+      <c r="I23" s="192" t="s">
         <v>287</v>
       </c>
       <c r="J23" s="191"/>
-      <c r="K23" s="190" t="s">
+      <c r="K23" s="192" t="s">
         <v>287</v>
       </c>
-      <c r="L23" s="201"/>
+      <c r="L23" s="193"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
@@ -18411,28 +18442,28 @@
     <row r="24" spans="1:26" ht="34.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="226" t="s">
+      <c r="C24" s="212" t="s">
         <v>218</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="200" t="s">
+      <c r="E24" s="190" t="s">
         <v>147</v>
       </c>
       <c r="F24" s="191"/>
-      <c r="G24" s="190" t="s">
+      <c r="G24" s="192" t="s">
         <v>166</v>
       </c>
       <c r="H24" s="191"/>
-      <c r="I24" s="190" t="s">
+      <c r="I24" s="192" t="s">
         <v>78</v>
       </c>
       <c r="J24" s="191"/>
-      <c r="K24" s="190" t="s">
+      <c r="K24" s="192" t="s">
         <v>78</v>
       </c>
-      <c r="L24" s="201"/>
+      <c r="L24" s="193"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -18451,26 +18482,26 @@
     <row r="25" spans="1:26" ht="34.5" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="221"/>
+      <c r="C25" s="213"/>
       <c r="D25" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="190" t="s">
+      <c r="E25" s="192" t="s">
         <v>156</v>
       </c>
       <c r="F25" s="191"/>
-      <c r="G25" s="190" t="s">
+      <c r="G25" s="192" t="s">
         <v>270</v>
       </c>
       <c r="H25" s="191"/>
-      <c r="I25" s="190" t="s">
+      <c r="I25" s="192" t="s">
         <v>178</v>
       </c>
       <c r="J25" s="191"/>
-      <c r="K25" s="190" t="s">
+      <c r="K25" s="192" t="s">
         <v>178</v>
       </c>
-      <c r="L25" s="201"/>
+      <c r="L25" s="193"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -18489,28 +18520,28 @@
     <row r="26" spans="1:26" ht="34.5" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="226" t="s">
+      <c r="C26" s="212" t="s">
         <v>253</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="190" t="s">
+      <c r="E26" s="192" t="s">
         <v>165</v>
       </c>
       <c r="F26" s="191"/>
-      <c r="G26" s="190" t="s">
+      <c r="G26" s="192" t="s">
         <v>157</v>
       </c>
       <c r="H26" s="191"/>
-      <c r="I26" s="190" t="s">
+      <c r="I26" s="192" t="s">
         <v>277</v>
       </c>
       <c r="J26" s="191"/>
-      <c r="K26" s="190" t="s">
+      <c r="K26" s="192" t="s">
         <v>277</v>
       </c>
-      <c r="L26" s="201"/>
+      <c r="L26" s="193"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
@@ -18529,26 +18560,26 @@
     <row r="27" spans="1:26" ht="34.5" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="220"/>
+      <c r="C27" s="211"/>
       <c r="D27" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="200" t="s">
+      <c r="E27" s="190" t="s">
         <v>132</v>
       </c>
       <c r="F27" s="191"/>
-      <c r="G27" s="190" t="s">
+      <c r="G27" s="192" t="s">
         <v>94</v>
       </c>
       <c r="H27" s="191"/>
-      <c r="I27" s="190" t="s">
+      <c r="I27" s="192" t="s">
         <v>169</v>
       </c>
       <c r="J27" s="191"/>
-      <c r="K27" s="190" t="s">
+      <c r="K27" s="192" t="s">
         <v>169</v>
       </c>
-      <c r="L27" s="201"/>
+      <c r="L27" s="193"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -18567,28 +18598,28 @@
     <row r="28" spans="1:26" ht="34.5" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="226" t="s">
+      <c r="C28" s="212" t="s">
         <v>240</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="200" t="s">
+      <c r="E28" s="190" t="s">
         <v>128</v>
       </c>
       <c r="F28" s="191"/>
-      <c r="G28" s="190" t="s">
+      <c r="G28" s="192" t="s">
         <v>179</v>
       </c>
       <c r="H28" s="191"/>
-      <c r="I28" s="190" t="s">
+      <c r="I28" s="192" t="s">
         <v>77</v>
       </c>
       <c r="J28" s="191"/>
-      <c r="K28" s="190" t="s">
+      <c r="K28" s="192" t="s">
         <v>77</v>
       </c>
-      <c r="L28" s="201"/>
+      <c r="L28" s="193"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
@@ -18607,26 +18638,26 @@
     <row r="29" spans="1:26" ht="34.5" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="221"/>
+      <c r="C29" s="213"/>
       <c r="D29" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="205" t="s">
+      <c r="E29" s="229" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="206"/>
-      <c r="G29" s="205" t="s">
+      <c r="F29" s="227"/>
+      <c r="G29" s="229" t="s">
         <v>173</v>
       </c>
-      <c r="H29" s="206"/>
-      <c r="I29" s="207" t="s">
+      <c r="H29" s="227"/>
+      <c r="I29" s="226" t="s">
         <v>116</v>
       </c>
-      <c r="J29" s="206"/>
-      <c r="K29" s="207" t="s">
+      <c r="J29" s="227"/>
+      <c r="K29" s="226" t="s">
         <v>116</v>
       </c>
-      <c r="L29" s="208"/>
+      <c r="L29" s="228"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
@@ -18673,20 +18704,20 @@
     <row r="31" spans="1:26" ht="16.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="222" t="s">
+      <c r="C31" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="192" t="s">
+      <c r="D31" s="215" t="s">
         <v>260</v>
       </c>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="193"/>
-      <c r="K31" s="193"/>
-      <c r="L31" s="194"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="216"/>
+      <c r="L31" s="217"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -18705,16 +18736,16 @@
     <row r="32" spans="1:26" ht="16.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="220"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="196"/>
+      <c r="C32" s="211"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="219"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -18733,26 +18764,26 @@
     <row r="33" spans="1:26" ht="30" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="223" t="s">
+      <c r="C33" s="220" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="224"/>
-      <c r="E33" s="197" t="s">
+      <c r="D33" s="221"/>
+      <c r="E33" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="198"/>
-      <c r="G33" s="199" t="s">
+      <c r="F33" s="223"/>
+      <c r="G33" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="198"/>
-      <c r="I33" s="199" t="s">
+      <c r="H33" s="223"/>
+      <c r="I33" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="J33" s="198"/>
-      <c r="K33" s="199" t="s">
+      <c r="J33" s="223"/>
+      <c r="K33" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="L33" s="202"/>
+      <c r="L33" s="224"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -18771,28 +18802,28 @@
     <row r="34" spans="1:26" ht="34.5" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="227" t="s">
+      <c r="C34" s="210" t="s">
         <v>248</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="200" t="s">
+      <c r="E34" s="190" t="s">
         <v>100</v>
       </c>
       <c r="F34" s="191"/>
-      <c r="G34" s="190" t="s">
+      <c r="G34" s="192" t="s">
         <v>187</v>
       </c>
       <c r="H34" s="191"/>
-      <c r="I34" s="190" t="s">
+      <c r="I34" s="192" t="s">
         <v>52</v>
       </c>
       <c r="J34" s="191"/>
-      <c r="K34" s="190" t="s">
+      <c r="K34" s="192" t="s">
         <v>265</v>
       </c>
-      <c r="L34" s="201"/>
+      <c r="L34" s="193"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
@@ -18811,26 +18842,26 @@
     <row r="35" spans="1:26" ht="34.5" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="220"/>
+      <c r="C35" s="211"/>
       <c r="D35" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="203" t="s">
+      <c r="E35" s="208" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="204"/>
-      <c r="G35" s="190" t="s">
+      <c r="F35" s="209"/>
+      <c r="G35" s="192" t="s">
         <v>189</v>
       </c>
       <c r="H35" s="191"/>
-      <c r="I35" s="190" t="s">
+      <c r="I35" s="192" t="s">
         <v>52</v>
       </c>
       <c r="J35" s="191"/>
-      <c r="K35" s="190" t="s">
+      <c r="K35" s="192" t="s">
         <v>265</v>
       </c>
-      <c r="L35" s="201"/>
+      <c r="L35" s="193"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
@@ -18849,28 +18880,28 @@
     <row r="36" spans="1:26" ht="34.5" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="226" t="s">
+      <c r="C36" s="212" t="s">
         <v>259</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="203" t="s">
+      <c r="E36" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="204"/>
-      <c r="G36" s="190" t="s">
+      <c r="F36" s="209"/>
+      <c r="G36" s="192" t="s">
         <v>143</v>
       </c>
       <c r="H36" s="191"/>
-      <c r="I36" s="190" t="s">
+      <c r="I36" s="192" t="s">
         <v>32</v>
       </c>
       <c r="J36" s="191"/>
-      <c r="K36" s="190" t="s">
+      <c r="K36" s="192" t="s">
         <v>171</v>
       </c>
-      <c r="L36" s="201"/>
+      <c r="L36" s="193"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
@@ -18889,26 +18920,26 @@
     <row r="37" spans="1:26" ht="34.5" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
-      <c r="C37" s="220"/>
+      <c r="C37" s="211"/>
       <c r="D37" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="203" t="s">
+      <c r="E37" s="208" t="s">
         <v>148</v>
       </c>
-      <c r="F37" s="204"/>
-      <c r="G37" s="190" t="s">
+      <c r="F37" s="209"/>
+      <c r="G37" s="192" t="s">
         <v>105</v>
       </c>
       <c r="H37" s="191"/>
-      <c r="I37" s="190" t="s">
+      <c r="I37" s="192" t="s">
         <v>37</v>
       </c>
       <c r="J37" s="191"/>
-      <c r="K37" s="190" t="s">
+      <c r="K37" s="192" t="s">
         <v>177</v>
       </c>
-      <c r="L37" s="201"/>
+      <c r="L37" s="193"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -18927,28 +18958,28 @@
     <row r="38" spans="1:26" ht="34.5" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
-      <c r="C38" s="226" t="s">
+      <c r="C38" s="212" t="s">
         <v>238</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="203" t="s">
+      <c r="E38" s="208" t="s">
         <v>130</v>
       </c>
-      <c r="F38" s="204"/>
-      <c r="G38" s="190" t="s">
+      <c r="F38" s="209"/>
+      <c r="G38" s="192" t="s">
         <v>99</v>
       </c>
       <c r="H38" s="191"/>
-      <c r="I38" s="190" t="s">
+      <c r="I38" s="192" t="s">
         <v>125</v>
       </c>
       <c r="J38" s="191"/>
-      <c r="K38" s="190" t="s">
+      <c r="K38" s="192" t="s">
         <v>114</v>
       </c>
-      <c r="L38" s="201"/>
+      <c r="L38" s="193"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
@@ -18967,26 +18998,26 @@
     <row r="39" spans="1:26" ht="34.5" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="221"/>
+      <c r="C39" s="213"/>
       <c r="D39" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="203" t="s">
+      <c r="E39" s="208" t="s">
         <v>142</v>
       </c>
-      <c r="F39" s="204"/>
-      <c r="G39" s="190" t="s">
+      <c r="F39" s="209"/>
+      <c r="G39" s="192" t="s">
         <v>185</v>
       </c>
       <c r="H39" s="191"/>
-      <c r="I39" s="190" t="s">
+      <c r="I39" s="192" t="s">
         <v>48</v>
       </c>
       <c r="J39" s="191"/>
-      <c r="K39" s="190" t="s">
+      <c r="K39" s="192" t="s">
         <v>96</v>
       </c>
-      <c r="L39" s="201"/>
+      <c r="L39" s="193"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
@@ -19005,28 +19036,28 @@
     <row r="40" spans="1:26" ht="34.5" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="226" t="s">
+      <c r="C40" s="212" t="s">
         <v>254</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="203" t="s">
+      <c r="E40" s="208" t="s">
         <v>126</v>
       </c>
-      <c r="F40" s="204"/>
-      <c r="G40" s="190" t="s">
+      <c r="F40" s="209"/>
+      <c r="G40" s="192" t="s">
         <v>185</v>
       </c>
       <c r="H40" s="191"/>
-      <c r="I40" s="190" t="s">
+      <c r="I40" s="192" t="s">
         <v>43</v>
       </c>
       <c r="J40" s="191"/>
-      <c r="K40" s="190" t="s">
+      <c r="K40" s="192" t="s">
         <v>188</v>
       </c>
-      <c r="L40" s="201"/>
+      <c r="L40" s="193"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
@@ -19045,26 +19076,26 @@
     <row r="41" spans="1:26" ht="34.5" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
-      <c r="C41" s="220"/>
+      <c r="C41" s="211"/>
       <c r="D41" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="203" t="s">
+      <c r="E41" s="208" t="s">
         <v>275</v>
       </c>
-      <c r="F41" s="204"/>
-      <c r="G41" s="190" t="s">
+      <c r="F41" s="209"/>
+      <c r="G41" s="192" t="s">
         <v>127</v>
       </c>
       <c r="H41" s="191"/>
-      <c r="I41" s="190" t="s">
+      <c r="I41" s="192" t="s">
         <v>43</v>
       </c>
       <c r="J41" s="191"/>
-      <c r="K41" s="190" t="s">
+      <c r="K41" s="192" t="s">
         <v>188</v>
       </c>
-      <c r="L41" s="201"/>
+      <c r="L41" s="193"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
@@ -19083,28 +19114,28 @@
     <row r="42" spans="1:26" ht="34.5" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
-      <c r="C42" s="226" t="s">
+      <c r="C42" s="212" t="s">
         <v>246</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="200" t="s">
+      <c r="E42" s="190" t="s">
         <v>103</v>
       </c>
       <c r="F42" s="191"/>
-      <c r="G42" s="190" t="s">
+      <c r="G42" s="192" t="s">
         <v>134</v>
       </c>
       <c r="H42" s="191"/>
-      <c r="I42" s="190" t="s">
+      <c r="I42" s="192" t="s">
         <v>92</v>
       </c>
       <c r="J42" s="191"/>
-      <c r="K42" s="190" t="s">
+      <c r="K42" s="192" t="s">
         <v>97</v>
       </c>
-      <c r="L42" s="201"/>
+      <c r="L42" s="193"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
@@ -19123,26 +19154,26 @@
     <row r="43" spans="1:26" ht="34.5" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
-      <c r="C43" s="221"/>
+      <c r="C43" s="213"/>
       <c r="D43" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="205" t="s">
+      <c r="E43" s="229" t="s">
         <v>104</v>
       </c>
-      <c r="F43" s="206"/>
-      <c r="G43" s="207" t="s">
+      <c r="F43" s="227"/>
+      <c r="G43" s="226" t="s">
         <v>155</v>
       </c>
-      <c r="H43" s="206"/>
-      <c r="I43" s="207" t="s">
+      <c r="H43" s="227"/>
+      <c r="I43" s="226" t="s">
         <v>146</v>
       </c>
-      <c r="J43" s="206"/>
-      <c r="K43" s="207" t="s">
+      <c r="J43" s="227"/>
+      <c r="K43" s="226" t="s">
         <v>97</v>
       </c>
-      <c r="L43" s="208"/>
+      <c r="L43" s="228"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
@@ -19189,20 +19220,20 @@
     <row r="45" spans="1:26" ht="16.5" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="222" t="s">
+      <c r="C45" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="192" t="s">
+      <c r="D45" s="215" t="s">
         <v>168</v>
       </c>
-      <c r="E45" s="193"/>
-      <c r="F45" s="193"/>
-      <c r="G45" s="193"/>
-      <c r="H45" s="193"/>
-      <c r="I45" s="193"/>
-      <c r="J45" s="193"/>
-      <c r="K45" s="193"/>
-      <c r="L45" s="194"/>
+      <c r="E45" s="216"/>
+      <c r="F45" s="216"/>
+      <c r="G45" s="216"/>
+      <c r="H45" s="216"/>
+      <c r="I45" s="216"/>
+      <c r="J45" s="216"/>
+      <c r="K45" s="216"/>
+      <c r="L45" s="217"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -19221,16 +19252,16 @@
     <row r="46" spans="1:26" ht="16.5" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="220"/>
-      <c r="D46" s="195"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="196"/>
+      <c r="C46" s="211"/>
+      <c r="D46" s="218"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="219"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -19249,26 +19280,26 @@
     <row r="47" spans="1:26" ht="30" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="223" t="s">
+      <c r="C47" s="220" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="224"/>
-      <c r="E47" s="197" t="s">
+      <c r="D47" s="221"/>
+      <c r="E47" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="198"/>
-      <c r="G47" s="199" t="s">
+      <c r="F47" s="223"/>
+      <c r="G47" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="H47" s="198"/>
-      <c r="I47" s="199" t="s">
+      <c r="H47" s="223"/>
+      <c r="I47" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="J47" s="198"/>
-      <c r="K47" s="199" t="s">
+      <c r="J47" s="223"/>
+      <c r="K47" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="L47" s="202"/>
+      <c r="L47" s="224"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -19287,28 +19318,28 @@
     <row r="48" spans="1:26" ht="34.5" customHeight="1">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
-      <c r="C48" s="227" t="s">
+      <c r="C48" s="210" t="s">
         <v>237</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="200" t="s">
+      <c r="E48" s="190" t="s">
         <v>180</v>
       </c>
       <c r="F48" s="191"/>
-      <c r="G48" s="190" t="s">
+      <c r="G48" s="192" t="s">
         <v>30</v>
       </c>
       <c r="H48" s="191"/>
-      <c r="I48" s="190" t="s">
+      <c r="I48" s="192" t="s">
         <v>154</v>
       </c>
       <c r="J48" s="191"/>
-      <c r="K48" s="190" t="s">
+      <c r="K48" s="192" t="s">
         <v>121</v>
       </c>
-      <c r="L48" s="201"/>
+      <c r="L48" s="193"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
@@ -19327,26 +19358,26 @@
     <row r="49" spans="1:26" ht="34.5" customHeight="1">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
-      <c r="C49" s="220"/>
+      <c r="C49" s="211"/>
       <c r="D49" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="200" t="s">
+      <c r="E49" s="190" t="s">
         <v>176</v>
       </c>
       <c r="F49" s="191"/>
-      <c r="G49" s="190" t="s">
+      <c r="G49" s="192" t="s">
         <v>158</v>
       </c>
       <c r="H49" s="191"/>
-      <c r="I49" s="190" t="s">
+      <c r="I49" s="192" t="s">
         <v>154</v>
       </c>
       <c r="J49" s="191"/>
-      <c r="K49" s="190" t="s">
+      <c r="K49" s="192" t="s">
         <v>268</v>
       </c>
-      <c r="L49" s="201"/>
+      <c r="L49" s="193"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
@@ -19365,28 +19396,28 @@
     <row r="50" spans="1:26" ht="34.5" customHeight="1">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
-      <c r="C50" s="226" t="s">
+      <c r="C50" s="212" t="s">
         <v>243</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="200" t="s">
+      <c r="E50" s="190" t="s">
         <v>91</v>
       </c>
       <c r="F50" s="191"/>
-      <c r="G50" s="190" t="s">
+      <c r="G50" s="192" t="s">
         <v>272</v>
       </c>
       <c r="H50" s="191"/>
-      <c r="I50" s="190" t="s">
+      <c r="I50" s="192" t="s">
         <v>280</v>
       </c>
       <c r="J50" s="191"/>
-      <c r="K50" s="190" t="s">
+      <c r="K50" s="192" t="s">
         <v>269</v>
       </c>
-      <c r="L50" s="201"/>
+      <c r="L50" s="193"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
@@ -19405,26 +19436,26 @@
     <row r="51" spans="1:26" ht="34.5" customHeight="1">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
-      <c r="C51" s="220"/>
+      <c r="C51" s="211"/>
       <c r="D51" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="200" t="s">
+      <c r="E51" s="190" t="s">
         <v>88</v>
       </c>
       <c r="F51" s="191"/>
-      <c r="G51" s="190" t="s">
+      <c r="G51" s="192" t="s">
         <v>272</v>
       </c>
       <c r="H51" s="191"/>
-      <c r="I51" s="190" t="s">
+      <c r="I51" s="192" t="s">
         <v>151</v>
       </c>
       <c r="J51" s="191"/>
-      <c r="K51" s="190" t="s">
+      <c r="K51" s="192" t="s">
         <v>80</v>
       </c>
-      <c r="L51" s="201"/>
+      <c r="L51" s="193"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
@@ -19443,28 +19474,28 @@
     <row r="52" spans="1:26" ht="34.5" customHeight="1">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
-      <c r="C52" s="226" t="s">
+      <c r="C52" s="212" t="s">
         <v>245</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="200" t="s">
+      <c r="E52" s="190" t="s">
         <v>83</v>
       </c>
       <c r="F52" s="191"/>
-      <c r="G52" s="190" t="s">
+      <c r="G52" s="192" t="s">
         <v>161</v>
       </c>
       <c r="H52" s="191"/>
-      <c r="I52" s="190" t="s">
+      <c r="I52" s="192" t="s">
         <v>280</v>
       </c>
       <c r="J52" s="191"/>
-      <c r="K52" s="190" t="s">
+      <c r="K52" s="192" t="s">
         <v>81</v>
       </c>
-      <c r="L52" s="201"/>
+      <c r="L52" s="193"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
@@ -19483,26 +19514,26 @@
     <row r="53" spans="1:26" ht="34.5" customHeight="1">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
-      <c r="C53" s="221"/>
+      <c r="C53" s="213"/>
       <c r="D53" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="200" t="s">
+      <c r="E53" s="190" t="s">
         <v>262</v>
       </c>
       <c r="F53" s="191"/>
-      <c r="G53" s="190" t="s">
+      <c r="G53" s="192" t="s">
         <v>161</v>
       </c>
       <c r="H53" s="191"/>
-      <c r="I53" s="190" t="s">
+      <c r="I53" s="192" t="s">
         <v>280</v>
       </c>
       <c r="J53" s="191"/>
-      <c r="K53" s="190" t="s">
+      <c r="K53" s="192" t="s">
         <v>81</v>
       </c>
-      <c r="L53" s="201"/>
+      <c r="L53" s="193"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
@@ -19521,28 +19552,28 @@
     <row r="54" spans="1:26" ht="66" customHeight="1">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
-      <c r="C54" s="226" t="s">
+      <c r="C54" s="212" t="s">
         <v>250</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="234" t="s">
+      <c r="E54" s="200" t="s">
         <v>286</v>
       </c>
-      <c r="F54" s="228"/>
-      <c r="G54" s="228" t="s">
+      <c r="F54" s="194"/>
+      <c r="G54" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="H54" s="229"/>
-      <c r="I54" s="236" t="s">
+      <c r="H54" s="195"/>
+      <c r="I54" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="J54" s="237"/>
-      <c r="K54" s="228" t="s">
+      <c r="J54" s="203"/>
+      <c r="K54" s="194" t="s">
         <v>27</v>
       </c>
-      <c r="L54" s="230"/>
+      <c r="L54" s="196"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
@@ -19561,22 +19592,22 @@
     <row r="55" spans="1:26" ht="66" customHeight="1">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
-      <c r="C55" s="220"/>
+      <c r="C55" s="211"/>
       <c r="D55" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E55" s="234"/>
-      <c r="F55" s="228"/>
-      <c r="G55" s="228" t="s">
+      <c r="E55" s="200"/>
+      <c r="F55" s="194"/>
+      <c r="G55" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="229"/>
-      <c r="I55" s="238"/>
-      <c r="J55" s="239"/>
-      <c r="K55" s="228" t="s">
+      <c r="H55" s="195"/>
+      <c r="I55" s="204"/>
+      <c r="J55" s="205"/>
+      <c r="K55" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="L55" s="230"/>
+      <c r="L55" s="196"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
@@ -19595,28 +19626,28 @@
     <row r="56" spans="1:26" ht="66" customHeight="1">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
-      <c r="C56" s="226" t="s">
+      <c r="C56" s="212" t="s">
         <v>249</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="234" t="s">
+      <c r="E56" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="F56" s="228"/>
-      <c r="G56" s="228" t="s">
+      <c r="F56" s="194"/>
+      <c r="G56" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="228"/>
-      <c r="I56" s="236" t="s">
+      <c r="H56" s="194"/>
+      <c r="I56" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="J56" s="237"/>
-      <c r="K56" s="228" t="s">
+      <c r="J56" s="203"/>
+      <c r="K56" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="L56" s="231"/>
+      <c r="L56" s="197"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
@@ -19635,18 +19666,18 @@
     <row r="57" spans="1:26" ht="66" customHeight="1">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
-      <c r="C57" s="221"/>
+      <c r="C57" s="213"/>
       <c r="D57" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="235"/>
-      <c r="F57" s="232"/>
-      <c r="G57" s="232"/>
-      <c r="H57" s="232"/>
-      <c r="I57" s="240"/>
-      <c r="J57" s="241"/>
-      <c r="K57" s="232"/>
-      <c r="L57" s="233"/>
+      <c r="E57" s="201"/>
+      <c r="F57" s="198"/>
+      <c r="G57" s="198"/>
+      <c r="H57" s="198"/>
+      <c r="I57" s="206"/>
+      <c r="J57" s="207"/>
+      <c r="K57" s="198"/>
+      <c r="L57" s="199"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
@@ -26007,20 +26038,148 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="180">
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L57"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="G56:H57"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="I54:J55"/>
-    <mergeCell ref="I56:J57"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="D45:L46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="E12:L15"/>
+    <mergeCell ref="D17:L18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E20:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D31:L32"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:L4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="I51:J51"/>
@@ -26045,148 +26204,20 @@
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:L4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D31:L32"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="E12:L15"/>
-    <mergeCell ref="D17:L18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E20:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="D45:L46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L57"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="G56:H57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="I54:J55"/>
+    <mergeCell ref="I56:J57"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0" footer="0"/>
@@ -26199,8 +26230,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55:L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -26272,20 +26303,20 @@
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="222" t="s">
+      <c r="C3" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="192" t="s">
+      <c r="D3" s="215" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="194"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="217"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -26304,16 +26335,16 @@
     <row r="4" spans="1:26" ht="16.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="196"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="219"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -26332,26 +26363,26 @@
     <row r="5" spans="1:26" ht="24.95" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="223" t="s">
+      <c r="C5" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="224"/>
-      <c r="E5" s="197" t="s">
+      <c r="D5" s="221"/>
+      <c r="E5" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="199" t="s">
+      <c r="F5" s="223"/>
+      <c r="G5" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="198"/>
-      <c r="I5" s="199" t="s">
+      <c r="H5" s="223"/>
+      <c r="I5" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="198"/>
-      <c r="K5" s="199" t="s">
+      <c r="J5" s="223"/>
+      <c r="K5" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="202"/>
+      <c r="L5" s="224"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -26370,22 +26401,22 @@
     <row r="6" spans="1:26" ht="30" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="276" t="s">
+      <c r="C6" s="278" t="s">
         <v>241</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="278" t="s">
+      <c r="E6" s="277" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="210"/>
-      <c r="K6" s="210"/>
-      <c r="L6" s="211"/>
+      <c r="F6" s="233"/>
+      <c r="G6" s="233"/>
+      <c r="H6" s="233"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="233"/>
+      <c r="K6" s="233"/>
+      <c r="L6" s="234"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -26404,18 +26435,18 @@
     <row r="7" spans="1:26" ht="30" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="277"/>
+      <c r="C7" s="279"/>
       <c r="D7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="214"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="215"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="216"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="238"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="238"/>
+      <c r="L7" s="239"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -26434,28 +26465,28 @@
     <row r="8" spans="1:26" ht="129.94999999999999" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="226" t="s">
+      <c r="C8" s="212" t="s">
         <v>216</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="280" t="s">
+      <c r="E8" s="269" t="s">
         <v>258</v>
       </c>
-      <c r="F8" s="281"/>
-      <c r="G8" s="256" t="s">
+      <c r="F8" s="270"/>
+      <c r="G8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="256"/>
-      <c r="I8" s="283" t="s">
+      <c r="H8" s="248"/>
+      <c r="I8" s="273" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="284"/>
-      <c r="K8" s="299" t="s">
+      <c r="J8" s="274"/>
+      <c r="K8" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="300"/>
+      <c r="L8" s="245"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -26474,20 +26505,20 @@
     <row r="9" spans="1:26" ht="129.94999999999999" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="220"/>
+      <c r="C9" s="211"/>
       <c r="D9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="247" t="s">
+      <c r="E9" s="271" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="282"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="245"/>
-      <c r="I9" s="252"/>
-      <c r="J9" s="285"/>
-      <c r="K9" s="301"/>
-      <c r="L9" s="302"/>
+      <c r="F9" s="272"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="249"/>
+      <c r="I9" s="275"/>
+      <c r="J9" s="276"/>
+      <c r="K9" s="246"/>
+      <c r="L9" s="247"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -26506,28 +26537,28 @@
     <row r="10" spans="1:26" ht="80.099999999999994" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="212" t="s">
         <v>226</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="247" t="s">
+      <c r="E10" s="271" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="248"/>
-      <c r="G10" s="245" t="s">
+      <c r="F10" s="283"/>
+      <c r="G10" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="245"/>
-      <c r="I10" s="245" t="s">
+      <c r="H10" s="249"/>
+      <c r="I10" s="249" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="245"/>
-      <c r="K10" s="248" t="s">
+      <c r="J10" s="249"/>
+      <c r="K10" s="283" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="249"/>
+      <c r="L10" s="284"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -26546,18 +26577,18 @@
     <row r="11" spans="1:26" ht="80.099999999999994" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="220"/>
+      <c r="C11" s="211"/>
       <c r="D11" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="247"/>
-      <c r="F11" s="248"/>
-      <c r="G11" s="245"/>
-      <c r="H11" s="245"/>
-      <c r="I11" s="245"/>
-      <c r="J11" s="245"/>
-      <c r="K11" s="248"/>
-      <c r="L11" s="249"/>
+      <c r="E11" s="271"/>
+      <c r="F11" s="283"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="249"/>
+      <c r="I11" s="249"/>
+      <c r="J11" s="249"/>
+      <c r="K11" s="283"/>
+      <c r="L11" s="284"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -26576,28 +26607,28 @@
     <row r="12" spans="1:26" ht="80.099999999999994" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="226" t="s">
+      <c r="C12" s="212" t="s">
         <v>235</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="274" t="s">
+      <c r="E12" s="251" t="s">
         <v>294</v>
       </c>
-      <c r="F12" s="237"/>
-      <c r="G12" s="236" t="s">
+      <c r="F12" s="203"/>
+      <c r="G12" s="202" t="s">
         <v>299</v>
       </c>
-      <c r="H12" s="267"/>
-      <c r="I12" s="236" t="s">
+      <c r="H12" s="254"/>
+      <c r="I12" s="202" t="s">
         <v>289</v>
       </c>
-      <c r="J12" s="267"/>
-      <c r="K12" s="250" t="s">
+      <c r="J12" s="254"/>
+      <c r="K12" s="285" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="251"/>
+      <c r="L12" s="286"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -26616,18 +26647,18 @@
     <row r="13" spans="1:26" ht="80.099999999999994" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="220"/>
+      <c r="C13" s="211"/>
       <c r="D13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="275"/>
-      <c r="F13" s="239"/>
-      <c r="G13" s="268"/>
-      <c r="H13" s="269"/>
-      <c r="I13" s="268"/>
-      <c r="J13" s="269"/>
-      <c r="K13" s="252"/>
-      <c r="L13" s="253"/>
+      <c r="E13" s="252"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="300"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="300"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="287"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -26646,28 +26677,28 @@
     <row r="14" spans="1:26" ht="80.099999999999994" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="226" t="s">
+      <c r="C14" s="212" t="s">
         <v>206</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="274" t="s">
+      <c r="E14" s="251" t="s">
         <v>295</v>
       </c>
-      <c r="F14" s="237"/>
-      <c r="G14" s="236" t="s">
+      <c r="F14" s="203"/>
+      <c r="G14" s="202" t="s">
         <v>299</v>
       </c>
-      <c r="H14" s="267"/>
-      <c r="I14" s="236" t="s">
+      <c r="H14" s="254"/>
+      <c r="I14" s="202" t="s">
         <v>290</v>
       </c>
-      <c r="J14" s="267"/>
-      <c r="K14" s="250" t="s">
+      <c r="J14" s="254"/>
+      <c r="K14" s="285" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="251"/>
+      <c r="L14" s="286"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -26686,18 +26717,18 @@
     <row r="15" spans="1:26" ht="80.099999999999994" customHeight="1" thickBot="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="221"/>
+      <c r="C15" s="213"/>
       <c r="D15" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="275"/>
-      <c r="F15" s="239"/>
-      <c r="G15" s="268"/>
-      <c r="H15" s="269"/>
-      <c r="I15" s="270"/>
-      <c r="J15" s="271"/>
-      <c r="K15" s="254"/>
-      <c r="L15" s="255"/>
+      <c r="E15" s="252"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="300"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="301"/>
+      <c r="J15" s="302"/>
+      <c r="K15" s="288"/>
+      <c r="L15" s="289"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -26744,20 +26775,20 @@
     <row r="17" spans="1:26" ht="16.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="222" t="s">
+      <c r="C17" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="192" t="s">
+      <c r="D17" s="215" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="193"/>
-      <c r="L17" s="194"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="216"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="216"/>
+      <c r="K17" s="216"/>
+      <c r="L17" s="217"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -26776,16 +26807,16 @@
     <row r="18" spans="1:26" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="220"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="196"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="219"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -26804,26 +26835,26 @@
     <row r="19" spans="1:26" ht="24.95" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="223" t="s">
+      <c r="C19" s="220" t="s">
         <v>217</v>
       </c>
-      <c r="D19" s="224"/>
-      <c r="E19" s="197" t="s">
+      <c r="D19" s="221"/>
+      <c r="E19" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="198"/>
-      <c r="G19" s="199" t="s">
+      <c r="F19" s="223"/>
+      <c r="G19" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="198"/>
-      <c r="I19" s="199" t="s">
+      <c r="H19" s="223"/>
+      <c r="I19" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="198"/>
-      <c r="K19" s="199" t="s">
+      <c r="J19" s="223"/>
+      <c r="K19" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="202"/>
+      <c r="L19" s="224"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -26842,22 +26873,22 @@
     <row r="20" spans="1:26" ht="30" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="242" t="s">
+      <c r="C20" s="280" t="s">
         <v>255</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="278" t="s">
+      <c r="E20" s="277" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="210"/>
-      <c r="K20" s="210"/>
-      <c r="L20" s="211"/>
+      <c r="F20" s="233"/>
+      <c r="G20" s="233"/>
+      <c r="H20" s="233"/>
+      <c r="I20" s="233"/>
+      <c r="J20" s="233"/>
+      <c r="K20" s="233"/>
+      <c r="L20" s="234"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -26876,18 +26907,18 @@
     <row r="21" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="243"/>
+      <c r="C21" s="281"/>
       <c r="D21" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="214"/>
-      <c r="F21" s="215"/>
-      <c r="G21" s="215"/>
-      <c r="H21" s="215"/>
-      <c r="I21" s="215"/>
-      <c r="J21" s="215"/>
-      <c r="K21" s="215"/>
-      <c r="L21" s="216"/>
+      <c r="E21" s="237"/>
+      <c r="F21" s="238"/>
+      <c r="G21" s="238"/>
+      <c r="H21" s="238"/>
+      <c r="I21" s="238"/>
+      <c r="J21" s="238"/>
+      <c r="K21" s="238"/>
+      <c r="L21" s="239"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -26906,28 +26937,28 @@
     <row r="22" spans="1:26" ht="80.099999999999994" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="226" t="s">
+      <c r="C22" s="212" t="s">
         <v>247</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="286" t="s">
+      <c r="E22" s="260" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="287"/>
-      <c r="G22" s="295" t="s">
+      <c r="F22" s="259"/>
+      <c r="G22" s="258" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="287"/>
-      <c r="I22" s="272" t="s">
+      <c r="H22" s="259"/>
+      <c r="I22" s="303" t="s">
         <v>291</v>
       </c>
-      <c r="J22" s="273"/>
-      <c r="K22" s="256" t="s">
+      <c r="J22" s="304"/>
+      <c r="K22" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="L22" s="257"/>
+      <c r="L22" s="290"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -26946,18 +26977,18 @@
     <row r="23" spans="1:26" ht="80.099999999999994" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="220"/>
+      <c r="C23" s="211"/>
       <c r="D23" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="288"/>
-      <c r="F23" s="229"/>
-      <c r="G23" s="229"/>
-      <c r="H23" s="229"/>
-      <c r="I23" s="265"/>
-      <c r="J23" s="265"/>
-      <c r="K23" s="258"/>
-      <c r="L23" s="259"/>
+      <c r="E23" s="261"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="195"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="298"/>
+      <c r="J23" s="298"/>
+      <c r="K23" s="291"/>
+      <c r="L23" s="292"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -26976,28 +27007,28 @@
     <row r="24" spans="1:26" ht="99.95" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="226" t="s">
+      <c r="C24" s="212" t="s">
         <v>209</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="244" t="s">
+      <c r="E24" s="262" t="s">
         <v>296</v>
       </c>
-      <c r="F24" s="245"/>
-      <c r="G24" s="228" t="s">
+      <c r="F24" s="249"/>
+      <c r="G24" s="194" t="s">
         <v>300</v>
       </c>
-      <c r="H24" s="229"/>
-      <c r="I24" s="228" t="s">
+      <c r="H24" s="195"/>
+      <c r="I24" s="194" t="s">
         <v>292</v>
       </c>
-      <c r="J24" s="229"/>
-      <c r="K24" s="245" t="s">
+      <c r="J24" s="195"/>
+      <c r="K24" s="249" t="s">
         <v>288</v>
       </c>
-      <c r="L24" s="294"/>
+      <c r="L24" s="268"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -27016,20 +27047,20 @@
     <row r="25" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="221"/>
+      <c r="C25" s="213"/>
       <c r="D25" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="260" t="s">
+      <c r="E25" s="293" t="s">
         <v>298</v>
       </c>
-      <c r="F25" s="261"/>
-      <c r="G25" s="261"/>
-      <c r="H25" s="261"/>
-      <c r="I25" s="261"/>
-      <c r="J25" s="261"/>
-      <c r="K25" s="261"/>
-      <c r="L25" s="262"/>
+      <c r="F25" s="294"/>
+      <c r="G25" s="294"/>
+      <c r="H25" s="294"/>
+      <c r="I25" s="294"/>
+      <c r="J25" s="294"/>
+      <c r="K25" s="294"/>
+      <c r="L25" s="295"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -27048,22 +27079,22 @@
     <row r="26" spans="1:26" ht="30" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="246" t="s">
+      <c r="C26" s="282" t="s">
         <v>221</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="293" t="s">
+      <c r="E26" s="267" t="s">
         <v>305</v>
       </c>
-      <c r="F26" s="229"/>
-      <c r="G26" s="229"/>
-      <c r="H26" s="229"/>
-      <c r="I26" s="229"/>
-      <c r="J26" s="229"/>
-      <c r="K26" s="229"/>
-      <c r="L26" s="230"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="195"/>
+      <c r="K26" s="195"/>
+      <c r="L26" s="196"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -27082,18 +27113,18 @@
     <row r="27" spans="1:26" ht="30" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="243"/>
+      <c r="C27" s="281"/>
       <c r="D27" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="288"/>
-      <c r="F27" s="229"/>
-      <c r="G27" s="229"/>
-      <c r="H27" s="229"/>
-      <c r="I27" s="229"/>
-      <c r="J27" s="229"/>
-      <c r="K27" s="229"/>
-      <c r="L27" s="230"/>
+      <c r="E27" s="261"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="195"/>
+      <c r="K27" s="195"/>
+      <c r="L27" s="196"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -27112,28 +27143,28 @@
     <row r="28" spans="1:26" ht="99.95" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="226" t="s">
+      <c r="C28" s="212" t="s">
         <v>252</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="244" t="s">
+      <c r="E28" s="262" t="s">
         <v>297</v>
       </c>
-      <c r="F28" s="245"/>
-      <c r="G28" s="228" t="s">
+      <c r="F28" s="249"/>
+      <c r="G28" s="194" t="s">
         <v>301</v>
       </c>
-      <c r="H28" s="265"/>
-      <c r="I28" s="228" t="s">
+      <c r="H28" s="298"/>
+      <c r="I28" s="194" t="s">
         <v>293</v>
       </c>
-      <c r="J28" s="265"/>
-      <c r="K28" s="245" t="s">
+      <c r="J28" s="298"/>
+      <c r="K28" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="259"/>
+      <c r="L28" s="292"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -27152,18 +27183,18 @@
     <row r="29" spans="1:26" ht="99.95" customHeight="1" thickBot="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="221"/>
+      <c r="C29" s="213"/>
       <c r="D29" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="289"/>
-      <c r="F29" s="290"/>
-      <c r="G29" s="266"/>
-      <c r="H29" s="266"/>
-      <c r="I29" s="266"/>
-      <c r="J29" s="266"/>
-      <c r="K29" s="263"/>
-      <c r="L29" s="264"/>
+      <c r="E29" s="263"/>
+      <c r="F29" s="264"/>
+      <c r="G29" s="299"/>
+      <c r="H29" s="299"/>
+      <c r="I29" s="299"/>
+      <c r="J29" s="299"/>
+      <c r="K29" s="296"/>
+      <c r="L29" s="297"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -27210,20 +27241,20 @@
     <row r="31" spans="1:26" ht="16.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="222" t="s">
+      <c r="C31" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="192" t="s">
+      <c r="D31" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="193"/>
-      <c r="K31" s="193"/>
-      <c r="L31" s="194"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="216"/>
+      <c r="L31" s="217"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -27242,16 +27273,16 @@
     <row r="32" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="220"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="196"/>
+      <c r="C32" s="211"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="219"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -27270,26 +27301,26 @@
     <row r="33" spans="1:26" ht="24.95" customHeight="1" thickBot="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="223" t="s">
+      <c r="C33" s="220" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="224"/>
-      <c r="E33" s="197" t="s">
+      <c r="D33" s="221"/>
+      <c r="E33" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="198"/>
-      <c r="G33" s="199" t="s">
+      <c r="F33" s="223"/>
+      <c r="G33" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="198"/>
-      <c r="I33" s="199" t="s">
+      <c r="H33" s="223"/>
+      <c r="I33" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="J33" s="198"/>
-      <c r="K33" s="199" t="s">
+      <c r="J33" s="223"/>
+      <c r="K33" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="L33" s="202"/>
+      <c r="L33" s="224"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -27308,22 +27339,24 @@
     <row r="34" spans="1:26" ht="60" customHeight="1" thickTop="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="227" t="s">
+      <c r="C34" s="210" t="s">
         <v>211</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="291" t="s">
+      <c r="E34" s="265" t="s">
         <v>303</v>
       </c>
-      <c r="F34" s="292"/>
-      <c r="G34" s="279"/>
+      <c r="F34" s="266"/>
+      <c r="G34" s="242"/>
       <c r="H34" s="191"/>
-      <c r="I34" s="279"/>
-      <c r="J34" s="191"/>
-      <c r="K34" s="279"/>
-      <c r="L34" s="201"/>
+      <c r="I34" s="306" t="s">
+        <v>307</v>
+      </c>
+      <c r="J34" s="305"/>
+      <c r="K34" s="242"/>
+      <c r="L34" s="193"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -27342,18 +27375,18 @@
     <row r="35" spans="1:26" ht="60" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="220"/>
+      <c r="C35" s="211"/>
       <c r="D35" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="275"/>
-      <c r="F35" s="239"/>
-      <c r="G35" s="279"/>
+      <c r="E35" s="252"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="242"/>
       <c r="H35" s="191"/>
-      <c r="I35" s="279"/>
-      <c r="J35" s="191"/>
-      <c r="K35" s="279"/>
-      <c r="L35" s="201"/>
+      <c r="I35" s="300"/>
+      <c r="J35" s="256"/>
+      <c r="K35" s="242"/>
+      <c r="L35" s="193"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -27372,22 +27405,24 @@
     <row r="36" spans="1:26" ht="60" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="226" t="s">
+      <c r="C36" s="212" t="s">
         <v>257</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="274" t="s">
+      <c r="E36" s="251" t="s">
         <v>302</v>
       </c>
-      <c r="F36" s="237"/>
-      <c r="G36" s="279"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="242"/>
       <c r="H36" s="191"/>
-      <c r="I36" s="279"/>
-      <c r="J36" s="191"/>
-      <c r="K36" s="279"/>
-      <c r="L36" s="201"/>
+      <c r="I36" s="202" t="s">
+        <v>308</v>
+      </c>
+      <c r="J36" s="254"/>
+      <c r="K36" s="242"/>
+      <c r="L36" s="193"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -27406,18 +27441,18 @@
     <row r="37" spans="1:26" ht="60" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="220"/>
+      <c r="C37" s="211"/>
       <c r="D37" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="275"/>
-      <c r="F37" s="239"/>
-      <c r="G37" s="279"/>
+      <c r="E37" s="252"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="242"/>
       <c r="H37" s="191"/>
-      <c r="I37" s="279"/>
-      <c r="J37" s="191"/>
-      <c r="K37" s="279"/>
-      <c r="L37" s="201"/>
+      <c r="I37" s="300"/>
+      <c r="J37" s="256"/>
+      <c r="K37" s="242"/>
+      <c r="L37" s="193"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -27436,22 +27471,24 @@
     <row r="38" spans="1:26" ht="50.1" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="226" t="s">
+      <c r="C38" s="212" t="s">
         <v>202</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="274" t="s">
+      <c r="E38" s="251" t="s">
         <v>304</v>
       </c>
-      <c r="F38" s="237"/>
-      <c r="G38" s="279"/>
+      <c r="F38" s="203"/>
+      <c r="G38" s="242"/>
       <c r="H38" s="191"/>
-      <c r="I38" s="279"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="279"/>
-      <c r="L38" s="201"/>
+      <c r="I38" s="202" t="s">
+        <v>309</v>
+      </c>
+      <c r="J38" s="254"/>
+      <c r="K38" s="242"/>
+      <c r="L38" s="193"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -27470,18 +27507,18 @@
     <row r="39" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="221"/>
+      <c r="C39" s="213"/>
       <c r="D39" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="275"/>
-      <c r="F39" s="239"/>
-      <c r="G39" s="279"/>
+      <c r="E39" s="252"/>
+      <c r="F39" s="205"/>
+      <c r="G39" s="242"/>
       <c r="H39" s="191"/>
-      <c r="I39" s="279"/>
-      <c r="J39" s="191"/>
-      <c r="K39" s="279"/>
-      <c r="L39" s="201"/>
+      <c r="I39" s="300"/>
+      <c r="J39" s="256"/>
+      <c r="K39" s="242"/>
+      <c r="L39" s="193"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -27500,22 +27537,24 @@
     <row r="40" spans="1:26" ht="30" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="226" t="s">
+      <c r="C40" s="212" t="s">
         <v>234</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="304" t="s">
+      <c r="E40" s="253" t="s">
         <v>306</v>
       </c>
-      <c r="F40" s="267"/>
-      <c r="G40" s="279"/>
+      <c r="F40" s="254"/>
+      <c r="G40" s="242"/>
       <c r="H40" s="191"/>
-      <c r="I40" s="279"/>
-      <c r="J40" s="191"/>
-      <c r="K40" s="279"/>
-      <c r="L40" s="201"/>
+      <c r="I40" s="307" t="s">
+        <v>310</v>
+      </c>
+      <c r="J40" s="254"/>
+      <c r="K40" s="242"/>
+      <c r="L40" s="193"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -27534,18 +27573,18 @@
     <row r="41" spans="1:26" ht="30" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="220"/>
+      <c r="C41" s="211"/>
       <c r="D41" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="303"/>
-      <c r="F41" s="269"/>
-      <c r="G41" s="279"/>
+      <c r="E41" s="255"/>
+      <c r="F41" s="256"/>
+      <c r="G41" s="242"/>
       <c r="H41" s="191"/>
-      <c r="I41" s="279"/>
-      <c r="J41" s="191"/>
-      <c r="K41" s="279"/>
-      <c r="L41" s="201"/>
+      <c r="I41" s="300"/>
+      <c r="J41" s="256"/>
+      <c r="K41" s="242"/>
+      <c r="L41" s="193"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -27564,20 +27603,22 @@
     <row r="42" spans="1:26" ht="30" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="226" t="s">
+      <c r="C42" s="212" t="s">
         <v>239</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="297"/>
+      <c r="E42" s="243"/>
       <c r="F42" s="191"/>
-      <c r="G42" s="279"/>
+      <c r="G42" s="242"/>
       <c r="H42" s="191"/>
-      <c r="I42" s="279"/>
-      <c r="J42" s="191"/>
-      <c r="K42" s="279"/>
-      <c r="L42" s="201"/>
+      <c r="I42" s="307" t="s">
+        <v>310</v>
+      </c>
+      <c r="J42" s="254"/>
+      <c r="K42" s="242"/>
+      <c r="L42" s="193"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -27593,21 +27634,21 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="30" customHeight="1">
+    <row r="43" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="221"/>
+      <c r="C43" s="213"/>
       <c r="D43" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="298"/>
-      <c r="F43" s="206"/>
-      <c r="G43" s="296"/>
-      <c r="H43" s="206"/>
-      <c r="I43" s="296"/>
-      <c r="J43" s="206"/>
-      <c r="K43" s="296"/>
-      <c r="L43" s="208"/>
+      <c r="E43" s="257"/>
+      <c r="F43" s="227"/>
+      <c r="G43" s="250"/>
+      <c r="H43" s="227"/>
+      <c r="I43" s="301"/>
+      <c r="J43" s="302"/>
+      <c r="K43" s="250"/>
+      <c r="L43" s="228"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -27623,7 +27664,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="24.75" customHeight="1">
+    <row r="44" spans="1:26" ht="24.75" customHeight="1" thickBot="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -27654,20 +27695,20 @@
     <row r="45" spans="1:26" ht="16.5" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="222" t="s">
+      <c r="C45" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="192" t="s">
+      <c r="D45" s="215" t="s">
         <v>109</v>
       </c>
-      <c r="E45" s="193"/>
-      <c r="F45" s="193"/>
-      <c r="G45" s="193"/>
-      <c r="H45" s="193"/>
-      <c r="I45" s="193"/>
-      <c r="J45" s="193"/>
-      <c r="K45" s="193"/>
-      <c r="L45" s="194"/>
+      <c r="E45" s="216"/>
+      <c r="F45" s="216"/>
+      <c r="G45" s="216"/>
+      <c r="H45" s="216"/>
+      <c r="I45" s="216"/>
+      <c r="J45" s="216"/>
+      <c r="K45" s="216"/>
+      <c r="L45" s="217"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -27686,16 +27727,16 @@
     <row r="46" spans="1:26" ht="24" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="220"/>
-      <c r="D46" s="195"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="196"/>
+      <c r="C46" s="211"/>
+      <c r="D46" s="218"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="219"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -27714,26 +27755,26 @@
     <row r="47" spans="1:26" ht="24.95" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="223" t="s">
+      <c r="C47" s="220" t="s">
         <v>223</v>
       </c>
-      <c r="D47" s="224"/>
-      <c r="E47" s="197" t="s">
+      <c r="D47" s="221"/>
+      <c r="E47" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="198"/>
-      <c r="G47" s="199" t="s">
+      <c r="F47" s="223"/>
+      <c r="G47" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="H47" s="198"/>
-      <c r="I47" s="199" t="s">
+      <c r="H47" s="223"/>
+      <c r="I47" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="J47" s="198"/>
-      <c r="K47" s="199" t="s">
+      <c r="J47" s="223"/>
+      <c r="K47" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="L47" s="202"/>
+      <c r="L47" s="224"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -27752,20 +27793,20 @@
     <row r="48" spans="1:26" ht="30" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="227" t="s">
+      <c r="C48" s="210" t="s">
         <v>204</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="297"/>
+      <c r="E48" s="243"/>
       <c r="F48" s="191"/>
-      <c r="G48" s="279"/>
+      <c r="G48" s="242"/>
       <c r="H48" s="191"/>
-      <c r="I48" s="279"/>
+      <c r="I48" s="242"/>
       <c r="J48" s="191"/>
-      <c r="K48" s="279"/>
-      <c r="L48" s="201"/>
+      <c r="K48" s="242"/>
+      <c r="L48" s="193"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -27784,18 +27825,18 @@
     <row r="49" spans="1:26" ht="30" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="220"/>
+      <c r="C49" s="211"/>
       <c r="D49" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="297"/>
+      <c r="E49" s="243"/>
       <c r="F49" s="191"/>
-      <c r="G49" s="279"/>
+      <c r="G49" s="242"/>
       <c r="H49" s="191"/>
-      <c r="I49" s="279"/>
+      <c r="I49" s="242"/>
       <c r="J49" s="191"/>
-      <c r="K49" s="279"/>
-      <c r="L49" s="201"/>
+      <c r="K49" s="242"/>
+      <c r="L49" s="193"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -27814,20 +27855,20 @@
     <row r="50" spans="1:26" ht="30" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="226" t="s">
+      <c r="C50" s="212" t="s">
         <v>233</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="297"/>
+      <c r="E50" s="243"/>
       <c r="F50" s="191"/>
-      <c r="G50" s="279"/>
+      <c r="G50" s="242"/>
       <c r="H50" s="191"/>
-      <c r="I50" s="279"/>
+      <c r="I50" s="242"/>
       <c r="J50" s="191"/>
-      <c r="K50" s="279"/>
-      <c r="L50" s="201"/>
+      <c r="K50" s="242"/>
+      <c r="L50" s="193"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -27846,18 +27887,18 @@
     <row r="51" spans="1:26" ht="30" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="220"/>
+      <c r="C51" s="211"/>
       <c r="D51" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="297"/>
+      <c r="E51" s="243"/>
       <c r="F51" s="191"/>
-      <c r="G51" s="279"/>
+      <c r="G51" s="242"/>
       <c r="H51" s="191"/>
-      <c r="I51" s="279"/>
+      <c r="I51" s="242"/>
       <c r="J51" s="191"/>
-      <c r="K51" s="279"/>
-      <c r="L51" s="201"/>
+      <c r="K51" s="242"/>
+      <c r="L51" s="193"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -27876,20 +27917,20 @@
     <row r="52" spans="1:26" ht="30" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="226" t="s">
+      <c r="C52" s="212" t="s">
         <v>244</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="297"/>
+      <c r="E52" s="243"/>
       <c r="F52" s="191"/>
-      <c r="G52" s="279"/>
+      <c r="G52" s="242"/>
       <c r="H52" s="191"/>
-      <c r="I52" s="279"/>
+      <c r="I52" s="242"/>
       <c r="J52" s="191"/>
-      <c r="K52" s="279"/>
-      <c r="L52" s="201"/>
+      <c r="K52" s="242"/>
+      <c r="L52" s="193"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -27908,18 +27949,18 @@
     <row r="53" spans="1:26" ht="30" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="221"/>
+      <c r="C53" s="213"/>
       <c r="D53" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="279"/>
+      <c r="E53" s="242"/>
       <c r="F53" s="191"/>
-      <c r="G53" s="279"/>
+      <c r="G53" s="242"/>
       <c r="H53" s="191"/>
-      <c r="I53" s="279"/>
+      <c r="I53" s="242"/>
       <c r="J53" s="191"/>
-      <c r="K53" s="279"/>
-      <c r="L53" s="201"/>
+      <c r="K53" s="242"/>
+      <c r="L53" s="193"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -27938,20 +27979,20 @@
     <row r="54" spans="1:26" ht="30" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="226" t="s">
+      <c r="C54" s="212" t="s">
         <v>224</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="279"/>
+      <c r="E54" s="242"/>
       <c r="F54" s="191"/>
-      <c r="G54" s="279"/>
+      <c r="G54" s="242"/>
       <c r="H54" s="191"/>
-      <c r="I54" s="279"/>
+      <c r="I54" s="242"/>
       <c r="J54" s="191"/>
-      <c r="K54" s="279"/>
-      <c r="L54" s="201"/>
+      <c r="K54" s="242"/>
+      <c r="L54" s="193"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -27970,18 +28011,18 @@
     <row r="55" spans="1:26" ht="30" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="220"/>
+      <c r="C55" s="211"/>
       <c r="D55" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E55" s="297"/>
+      <c r="E55" s="243"/>
       <c r="F55" s="191"/>
-      <c r="G55" s="279"/>
+      <c r="G55" s="242"/>
       <c r="H55" s="191"/>
-      <c r="I55" s="279"/>
+      <c r="I55" s="242"/>
       <c r="J55" s="191"/>
-      <c r="K55" s="279"/>
-      <c r="L55" s="201"/>
+      <c r="K55" s="242"/>
+      <c r="L55" s="193"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -28000,20 +28041,20 @@
     <row r="56" spans="1:26" ht="30" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="226" t="s">
+      <c r="C56" s="212" t="s">
         <v>251</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="297"/>
+      <c r="E56" s="243"/>
       <c r="F56" s="191"/>
-      <c r="G56" s="279"/>
+      <c r="G56" s="242"/>
       <c r="H56" s="191"/>
-      <c r="I56" s="279"/>
+      <c r="I56" s="242"/>
       <c r="J56" s="191"/>
-      <c r="K56" s="279"/>
-      <c r="L56" s="201"/>
+      <c r="K56" s="242"/>
+      <c r="L56" s="193"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -28032,18 +28073,18 @@
     <row r="57" spans="1:26" ht="30" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="221"/>
+      <c r="C57" s="213"/>
       <c r="D57" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="298"/>
-      <c r="F57" s="206"/>
-      <c r="G57" s="296"/>
-      <c r="H57" s="206"/>
-      <c r="I57" s="296"/>
-      <c r="J57" s="206"/>
-      <c r="K57" s="296"/>
-      <c r="L57" s="208"/>
+      <c r="E57" s="257"/>
+      <c r="F57" s="227"/>
+      <c r="G57" s="250"/>
+      <c r="H57" s="227"/>
+      <c r="I57" s="250"/>
+      <c r="J57" s="227"/>
+      <c r="K57" s="250"/>
+      <c r="L57" s="228"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -34403,7 +34444,135 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="152">
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="E25:L25"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="I28:J29"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:L4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:L7"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D17:L18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D31:L32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E20:L21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="E26:L27"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="I36:J37"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="D45:L46"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="I38:J39"/>
+    <mergeCell ref="I40:J41"/>
+    <mergeCell ref="I42:J43"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="E55:F55"/>
@@ -34428,139 +34597,6 @@
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D45:L46"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G22:H23"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="E26:L27"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D17:L18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D31:L32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E20:L21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:L4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:L7"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="E25:L25"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="G28:H29"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="I28:J29"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0" footer="0"/>
